--- a/template.xlsx
+++ b/template.xlsx
@@ -9,16 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="551"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="551" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="9" r:id="rId1"/>
-    <sheet name="info" sheetId="6" r:id="rId2"/>
-    <sheet name="regions" sheetId="2" r:id="rId3"/>
-    <sheet name="aphia" sheetId="3" r:id="rId4"/>
-    <sheet name="toxins" sheetId="4" r:id="rId5"/>
-    <sheet name="syndromes" sheetId="5" r:id="rId6"/>
-    <sheet name="urls" sheetId="7" r:id="rId7"/>
+    <sheet name="regions" sheetId="2" r:id="rId2"/>
+    <sheet name="aphia" sheetId="3" r:id="rId3"/>
+    <sheet name="toxins" sheetId="4" r:id="rId4"/>
+    <sheet name="syndromes" sheetId="5" r:id="rId5"/>
+    <sheet name="urls" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="regions">regions!$A$2:$A$12</definedName>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6908" uniqueCount="1589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6639" uniqueCount="1481">
   <si>
     <t>HAB region</t>
   </si>
@@ -3239,45 +3238,15 @@
     <t>Recorded by</t>
   </si>
   <si>
-    <t>Modified</t>
-  </si>
-  <si>
-    <t>HAB region number (from list)</t>
-  </si>
-  <si>
-    <t>Editor name, format: last name, first name(s)</t>
-  </si>
-  <si>
-    <t>Doe, John</t>
-  </si>
-  <si>
-    <t>Date last modified, format: YYYY-MM-DD</t>
-  </si>
-  <si>
-    <t>Scientific name without authorship</t>
-  </si>
-  <si>
-    <t>Harrison, W. G. 1973. Nitrate reductase activity during a dinoflagellate bloom. Limnol. Oceanogr. 18:457–65. doi: 10.1111/j.1748-7692.2008.00268.x</t>
-  </si>
-  <si>
-    <t>Harrison, W. G. 1973. Nitrate reductase activity during a dinoflagellate bloom. Limnol. Oceanogr. 18:457–65. doi: 10.1111/j.1748-7692.2008.00268.x | Mann, H., Mann, S. &amp; Fyfe, W. S. 1987. Aragonite crystals in Spirogyra sp. (Chlorophyta). J. Phycol. 23:506–9. doi: 10.1111/j.1748-7692.2008.00268.x</t>
-  </si>
-  <si>
     <t>Main reference</t>
   </si>
   <si>
     <t>Additional references</t>
   </si>
   <si>
-    <t>Bibliographic reference, a DOI can be appended using "doi:"</t>
-  </si>
-  <si>
     <t>Scientific name</t>
   </si>
   <si>
-    <t>Bibliographic references, separated by a "|", a DOI can be appended using "doi:". References referring to the sampling protocol should be added in the "Sampling protocol field"</t>
-  </si>
-  <si>
     <t>Bloom</t>
   </si>
   <si>
@@ -3290,51 +3259,21 @@
     <t>Water discoloration</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>red</t>
-  </si>
-  <si>
-    <t>Water discoloration: yes, no or ND</t>
-  </si>
-  <si>
-    <t>coloured</t>
-  </si>
-  <si>
     <t>Mass mortalities</t>
   </si>
   <si>
-    <t>list</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
     <t>High phyto concentrations</t>
   </si>
   <si>
     <t>Foam/mucilage on the coast</t>
   </si>
   <si>
-    <t>yes, no, ND or text</t>
-  </si>
-  <si>
-    <t>coloured or transparent</t>
-  </si>
-  <si>
     <t>Toxicity</t>
   </si>
   <si>
     <t>Toxicity detected</t>
   </si>
   <si>
-    <t>yes or no</t>
-  </si>
-  <si>
     <t>Toxin</t>
   </si>
   <si>
@@ -3344,15 +3283,6 @@
     <t>PSP</t>
   </si>
   <si>
-    <t>Mytilus edulis</t>
-  </si>
-  <si>
-    <t>Intoxication: transvector</t>
-  </si>
-  <si>
-    <t>Transvector scientific name</t>
-  </si>
-  <si>
     <t>Additional remarks</t>
   </si>
   <si>
@@ -3398,75 +3328,27 @@
     <t>Latitude</t>
   </si>
   <si>
-    <t>Decimal degrees</t>
-  </si>
-  <si>
-    <t>numeric</t>
-  </si>
-  <si>
     <t>Coordinate uncertainty</t>
   </si>
   <si>
-    <t>Coordinate uncertainty in meters</t>
-  </si>
-  <si>
-    <t>Footprint WKT</t>
-  </si>
-  <si>
     <t>WKT</t>
   </si>
   <si>
-    <t>Water body</t>
-  </si>
-  <si>
     <t>State/province</t>
   </si>
   <si>
-    <t>County</t>
-  </si>
-  <si>
-    <t>Municipality</t>
-  </si>
-  <si>
-    <t>Island</t>
-  </si>
-  <si>
     <t>Island group</t>
   </si>
   <si>
-    <t>Locality</t>
-  </si>
-  <si>
     <t>Location ID</t>
   </si>
   <si>
-    <t>Location according to</t>
-  </si>
-  <si>
     <t>Minimum depth</t>
   </si>
   <si>
-    <t>Minimum depth in meters</t>
-  </si>
-  <si>
     <t>Maximum depth</t>
   </si>
   <si>
-    <t>Maximum depth in meters</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Only fill in if inside EEZ</t>
-  </si>
-  <si>
-    <t>Substrate type</t>
-  </si>
-  <si>
-    <t>Habitat</t>
-  </si>
-  <si>
     <t>Sampling</t>
   </si>
   <si>
@@ -3479,12 +3361,6 @@
     <t>HAEDAT event URL</t>
   </si>
   <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>Surface/subsurface/whole water column</t>
-  </si>
-  <si>
     <t>Sampling protocol</t>
   </si>
   <si>
@@ -3494,216 +3370,45 @@
     <t>Environmental</t>
   </si>
   <si>
-    <t>Temperature</t>
-  </si>
-  <si>
     <t>Temperature value</t>
   </si>
   <si>
-    <t>Temperatrue method</t>
-  </si>
-  <si>
-    <t>Salinity</t>
-  </si>
-  <si>
     <t>Salinity value</t>
   </si>
   <si>
     <t>Salinity method</t>
   </si>
   <si>
-    <t>Nutrients</t>
-  </si>
-  <si>
     <t>Runoff</t>
   </si>
   <si>
-    <t>Measurement Type</t>
-  </si>
-  <si>
     <t>Measurement method</t>
   </si>
   <si>
-    <t>Measurement Value</t>
-  </si>
-  <si>
-    <t>Measurement Unit</t>
-  </si>
-  <si>
-    <t>Organic, inorganic, animals, macroalgae, phanerogames, etc.</t>
-  </si>
-  <si>
     <t>Organism quantity type</t>
   </si>
   <si>
-    <t>A number or enumeration value for the quantity of organisms</t>
-  </si>
-  <si>
-    <t>Sample size unit</t>
-  </si>
-  <si>
-    <t>Sample size value</t>
-  </si>
-  <si>
-    <t>Comments or notes about the Occurrence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A numeric value for a measurement of the size (time duration, length, area, or volume) of a sample </t>
-  </si>
-  <si>
-    <t>The name of the water body in which the Location occurs.</t>
-  </si>
-  <si>
-    <t>The specific description of the place.</t>
-  </si>
-  <si>
-    <t>Oostende Harbour</t>
-  </si>
-  <si>
-    <t>MRGID=5476</t>
-  </si>
-  <si>
-    <t>Marineregions.Org</t>
-  </si>
-  <si>
-    <t>gazetteer ID</t>
-  </si>
-  <si>
-    <t>gazetteer source</t>
-  </si>
-  <si>
-    <t>A category or description of the habitat in which the Event occurred</t>
-  </si>
-  <si>
     <t>Economic losses</t>
   </si>
   <si>
-    <t>toxin measurement value</t>
-  </si>
-  <si>
-    <t>The amount of effort expended during an Event.</t>
-  </si>
-  <si>
-    <t>Sampling Event Remarks</t>
-  </si>
-  <si>
-    <t>Comments or notes about the Event</t>
-  </si>
-  <si>
-    <t>e.g. Funded by.., name expedition, name cruise,..</t>
-  </si>
-  <si>
-    <t>1 hour, 100 metres, …</t>
-  </si>
-  <si>
     <t>Location remarks</t>
   </si>
   <si>
     <t>Associated taxa</t>
   </si>
   <si>
-    <t>Name sensor</t>
-  </si>
-  <si>
-    <t>Oligotrophic/Eutrophic</t>
-  </si>
-  <si>
-    <t>Oligotrophic</t>
-  </si>
-  <si>
-    <t>English Channel</t>
-  </si>
-  <si>
-    <t>intertidal</t>
-  </si>
-  <si>
-    <t>surface</t>
-  </si>
-  <si>
-    <t>MeasurementType</t>
-  </si>
-  <si>
     <t>Measurement value</t>
   </si>
   <si>
     <t>Measurement unit</t>
   </si>
   <si>
-    <t>yes/no/riveername/urbanrunoff</t>
-  </si>
-  <si>
-    <t>definition</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
     <t>Event date</t>
   </si>
   <si>
-    <t>http://haedat.iode.org/viewEvent.php?eventID=4854</t>
-  </si>
-  <si>
-    <t>The type of quantification system used for the quantity of organisms: individuals, cells, %biomass, ..</t>
-  </si>
-  <si>
-    <t>%biomass</t>
-  </si>
-  <si>
-    <t>The unit of measurement of the size (time duration, length, area, or volume) of a sample in a sampling event: metre, square metre, cubic metre, litre, …</t>
-  </si>
-  <si>
-    <t>Litre</t>
-  </si>
-  <si>
-    <t>The name of sampling gear or, reference to, or description of the method or protocol used during an Event: plankton net, reference+DOI, …</t>
-  </si>
-  <si>
-    <t>twin-NORPAC net (mesh size: 330 μm and 100 μm, mouth diameter: 0.45 m)</t>
-  </si>
-  <si>
-    <t>In case of benthic bloom, add scientific name of macroalgae used for the collection of the microalgal epiphyte</t>
-  </si>
-  <si>
-    <t>surface, subsurface, whole water column, benthic</t>
-  </si>
-  <si>
-    <t>Value in Degree Celcius</t>
-  </si>
-  <si>
-    <t>Value in PSU</t>
-  </si>
-  <si>
-    <t>SBE 37-IM MicroCAT</t>
-  </si>
-  <si>
-    <t>Name of variable measured</t>
-  </si>
-  <si>
-    <t>value of measured variable</t>
-  </si>
-  <si>
-    <t>Unit of measured variable value</t>
-  </si>
-  <si>
-    <t>Name of sensor</t>
-  </si>
-  <si>
-    <t>Nitrate</t>
-  </si>
-  <si>
-    <t>micromol.kg-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAS3 </t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>row number, duplicate same number in case of multiple toxins leave all other fields blank if they stay the same</t>
-  </si>
-  <si>
     <t>DA eq (Domoic Acid)</t>
   </si>
   <si>
@@ -4439,9 +4144,6 @@
     <t>11-hydroxyTTX (Tetrodotoxins)</t>
   </si>
   <si>
-    <t>pick from drop-down list</t>
-  </si>
-  <si>
     <t>Aerosolized toxins effects</t>
   </si>
   <si>
@@ -4466,36 +4168,6 @@
     <t>OTHER</t>
   </si>
   <si>
-    <t>toxin</t>
-  </si>
-  <si>
-    <t>Type of substance measured: toxin, other?</t>
-  </si>
-  <si>
-    <t>toxin dectection method used: HPLC, LC-MS, ELISA, bioassay, …</t>
-  </si>
-  <si>
-    <t>HPLC</t>
-  </si>
-  <si>
-    <t>toxin measurement unit: picogram, gram</t>
-  </si>
-  <si>
-    <t>picogram</t>
-  </si>
-  <si>
-    <t>The date-time or interval during which an Event occurred.  Use an encoding scheme ISO 8601:2004(E): "1963-03-08T14:07-0600" is 8 Mar 1963 2:07pm in the time zone six hours earlier than UTC, "2009-02-20T08:40Z" is 20 Feb 2009 8:40am UTC, "1809-02-12" is 12 Feb 1809, "1906-06" is Jun 1906, "1971" is just that year, "2007-03-01T13:00:00Z/2008-05-11T15:30:00Z" is the interval between 1 Mar 2007 1pm UTC and 11 May 2008 3:30pm UTC, "2007-11-13/15" is the interval between 13 Nov 2007 and 15 Nov 2007</t>
-  </si>
-  <si>
-    <t>2007-03-01T13:00:00Z/2007-03-11T15:30:00Z</t>
-  </si>
-  <si>
-    <t>A Well-Known Text (WKT) representation of the shape (footprint, geometry) that defines the Location: e.g. bounding box (longitude=10, latitude=20) and (longitude=11, latitude=21) in footprintWKT = POLYGON ((10 20, 11 20, 11 21, 10 21, 10 20))</t>
-  </si>
-  <si>
-    <t>POLYGON ((10 20, 11 20, 11 21, 10 21, 10 20))</t>
-  </si>
-  <si>
     <t>coordinatePrecision</t>
   </si>
   <si>
@@ -4799,7 +4471,10 @@
     <t>map tool</t>
   </si>
   <si>
-    <t>type</t>
+    <t>documentation</t>
+  </si>
+  <si>
+    <t>http://iobis.github.io/hab</t>
   </si>
 </sst>
 </file>
@@ -4807,9 +4482,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4850,23 +4525,8 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4891,30 +4551,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -4929,7 +4565,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -4969,7 +4605,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4994,45 +4630,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5372,8 +4969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CN189"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView showRuler="0" topLeftCell="BM1" workbookViewId="0">
+      <selection activeCell="AQ5" sqref="AQ5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5461,33 +5058,33 @@
       </c>
       <c r="E1" s="19"/>
       <c r="H1" s="7" t="s">
-        <v>1200</v>
+        <v>1123</v>
       </c>
       <c r="P1" s="6" t="s">
         <v>12</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>1144</v>
+        <v>1105</v>
       </c>
       <c r="X1" s="6" t="s">
-        <v>1081</v>
+        <v>1071</v>
       </c>
       <c r="AF1" s="6" t="s">
-        <v>1097</v>
+        <v>1078</v>
       </c>
       <c r="AO1" s="6" t="s">
-        <v>1108</v>
+        <v>1085</v>
       </c>
       <c r="AZ1" s="6" t="s">
-        <v>1107</v>
+        <v>1084</v>
       </c>
       <c r="BY1" s="6" t="s">
-        <v>1152</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="2" spans="1:92" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>1582</v>
+        <v>1473</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>0</v>
@@ -5496,565 +5093,565 @@
         <v>1067</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>1507</v>
+        <v>1398</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>1069</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>1108</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>1124</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>1450</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>1451</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>1452</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>1070</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>1106</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>1117</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>1453</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>1454</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>1109</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>1110</v>
+      </c>
+      <c r="W2" s="8" t="s">
+        <v>1455</v>
+      </c>
+      <c r="X2" s="8" t="s">
+        <v>1120</v>
+      </c>
+      <c r="Y2" s="8" t="s">
+        <v>1107</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>1074</v>
+      </c>
+      <c r="AA2" s="8" t="s">
+        <v>1073</v>
+      </c>
+      <c r="AB2" s="8" t="s">
+        <v>1072</v>
+      </c>
+      <c r="AC2" s="8" t="s">
+        <v>1075</v>
+      </c>
+      <c r="AD2" s="8" t="s">
         <v>1076</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="AE2" s="8" t="s">
         <v>1077</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>1147</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>1201</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>1559</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>1560</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>1561</v>
-      </c>
-      <c r="P2" s="8" t="s">
+      <c r="AF2" s="8" t="s">
         <v>1079</v>
       </c>
-      <c r="Q2" s="8" t="s">
-        <v>1145</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>1166</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>1562</v>
-      </c>
-      <c r="T2" s="8" t="s">
-        <v>1563</v>
-      </c>
-      <c r="U2" s="8" t="s">
-        <v>1150</v>
-      </c>
-      <c r="V2" s="8" t="s">
-        <v>1151</v>
-      </c>
-      <c r="W2" s="8" t="s">
-        <v>1564</v>
-      </c>
-      <c r="X2" s="8" t="s">
-        <v>1188</v>
-      </c>
-      <c r="Y2" s="8" t="s">
-        <v>1146</v>
-      </c>
-      <c r="Z2" s="8" t="s">
-        <v>1084</v>
-      </c>
-      <c r="AA2" s="8" t="s">
+      <c r="AG2" s="9" t="s">
+        <v>1080</v>
+      </c>
+      <c r="AH2" s="8" t="s">
+        <v>1081</v>
+      </c>
+      <c r="AI2" s="8" t="s">
+        <v>1458</v>
+      </c>
+      <c r="AJ2" s="8" t="s">
+        <v>1461</v>
+      </c>
+      <c r="AO2" s="8" t="s">
+        <v>1118</v>
+      </c>
+      <c r="AP2" s="8" t="s">
+        <v>1086</v>
+      </c>
+      <c r="AQ2" s="8" t="s">
+        <v>1087</v>
+      </c>
+      <c r="AR2" s="8" t="s">
+        <v>1088</v>
+      </c>
+      <c r="AS2" s="8" t="s">
+        <v>1089</v>
+      </c>
+      <c r="AT2" s="8" t="s">
+        <v>1090</v>
+      </c>
+      <c r="AU2" s="8" t="s">
+        <v>1091</v>
+      </c>
+      <c r="AV2" s="8" t="s">
+        <v>1092</v>
+      </c>
+      <c r="AW2" s="8" t="s">
+        <v>1093</v>
+      </c>
+      <c r="AX2" s="8" t="s">
+        <v>1094</v>
+      </c>
+      <c r="AY2" s="8" t="s">
+        <v>1095</v>
+      </c>
+      <c r="AZ2" s="8" t="s">
+        <v>1462</v>
+      </c>
+      <c r="BA2" s="8" t="s">
+        <v>1097</v>
+      </c>
+      <c r="BB2" s="8" t="s">
+        <v>1096</v>
+      </c>
+      <c r="BC2" s="8" t="s">
+        <v>1464</v>
+      </c>
+      <c r="BD2" s="8" t="s">
+        <v>1463</v>
+      </c>
+      <c r="BE2" s="8" t="s">
+        <v>1098</v>
+      </c>
+      <c r="BF2" s="8" t="s">
+        <v>1465</v>
+      </c>
+      <c r="BG2" s="8" t="s">
+        <v>1099</v>
+      </c>
+      <c r="BH2" s="8" t="s">
+        <v>1466</v>
+      </c>
+      <c r="BI2" s="8" t="s">
+        <v>1406</v>
+      </c>
+      <c r="BJ2" s="8" t="s">
+        <v>1100</v>
+      </c>
+      <c r="BK2" s="8" t="s">
+        <v>1408</v>
+      </c>
+      <c r="BL2" s="8" t="s">
+        <v>1409</v>
+      </c>
+      <c r="BM2" s="8" t="s">
+        <v>1410</v>
+      </c>
+      <c r="BN2" s="8" t="s">
+        <v>1101</v>
+      </c>
+      <c r="BO2" s="8" t="s">
+        <v>1412</v>
+      </c>
+      <c r="BP2" s="8" t="s">
+        <v>1102</v>
+      </c>
+      <c r="BQ2" s="8" t="s">
+        <v>1467</v>
+      </c>
+      <c r="BR2" s="8" t="s">
+        <v>1413</v>
+      </c>
+      <c r="BS2" s="8" t="s">
+        <v>1468</v>
+      </c>
+      <c r="BT2" s="8" t="s">
+        <v>1417</v>
+      </c>
+      <c r="BU2" s="8" t="s">
+        <v>1103</v>
+      </c>
+      <c r="BV2" s="8" t="s">
+        <v>1104</v>
+      </c>
+      <c r="BW2" s="8" t="s">
+        <v>1469</v>
+      </c>
+      <c r="BX2" s="8" t="s">
+        <v>1119</v>
+      </c>
+      <c r="BY2" s="8" t="s">
+        <v>1112</v>
+      </c>
+      <c r="BZ2" s="8" t="s">
+        <v>1447</v>
+      </c>
+      <c r="CA2" s="8" t="s">
+        <v>1448</v>
+      </c>
+      <c r="CB2" s="8" t="s">
+        <v>1113</v>
+      </c>
+      <c r="CC2" s="8" t="s">
+        <v>1114</v>
+      </c>
+      <c r="CD2" s="8" t="s">
+        <v>1449</v>
+      </c>
+      <c r="CE2" s="10" t="s">
+        <v>1471</v>
+      </c>
+      <c r="CI2" s="8" t="s">
+        <v>1472</v>
+      </c>
+      <c r="CM2" s="8" t="s">
+        <v>1115</v>
+      </c>
+      <c r="CN2" s="8" t="s">
         <v>1083</v>
-      </c>
-      <c r="AB2" s="8" t="s">
-        <v>1082</v>
-      </c>
-      <c r="AC2" s="8" t="s">
-        <v>1089</v>
-      </c>
-      <c r="AD2" s="8" t="s">
-        <v>1093</v>
-      </c>
-      <c r="AE2" s="8" t="s">
-        <v>1094</v>
-      </c>
-      <c r="AF2" s="8" t="s">
-        <v>1098</v>
-      </c>
-      <c r="AG2" s="9" t="s">
-        <v>1100</v>
-      </c>
-      <c r="AH2" s="8" t="s">
-        <v>1101</v>
-      </c>
-      <c r="AI2" s="8" t="s">
-        <v>1567</v>
-      </c>
-      <c r="AJ2" s="8" t="s">
-        <v>1570</v>
-      </c>
-      <c r="AO2" s="8" t="s">
-        <v>1180</v>
-      </c>
-      <c r="AP2" s="8" t="s">
-        <v>1109</v>
-      </c>
-      <c r="AQ2" s="8" t="s">
-        <v>1110</v>
-      </c>
-      <c r="AR2" s="8" t="s">
-        <v>1111</v>
-      </c>
-      <c r="AS2" s="8" t="s">
-        <v>1112</v>
-      </c>
-      <c r="AT2" s="8" t="s">
-        <v>1113</v>
-      </c>
-      <c r="AU2" s="8" t="s">
-        <v>1114</v>
-      </c>
-      <c r="AV2" s="8" t="s">
-        <v>1115</v>
-      </c>
-      <c r="AW2" s="8" t="s">
-        <v>1116</v>
-      </c>
-      <c r="AX2" s="8" t="s">
-        <v>1117</v>
-      </c>
-      <c r="AY2" s="8" t="s">
-        <v>1118</v>
-      </c>
-      <c r="AZ2" s="8" t="s">
-        <v>1571</v>
-      </c>
-      <c r="BA2" s="8" t="s">
-        <v>1120</v>
-      </c>
-      <c r="BB2" s="8" t="s">
-        <v>1119</v>
-      </c>
-      <c r="BC2" s="8" t="s">
-        <v>1573</v>
-      </c>
-      <c r="BD2" s="8" t="s">
-        <v>1572</v>
-      </c>
-      <c r="BE2" s="8" t="s">
-        <v>1123</v>
-      </c>
-      <c r="BF2" s="8" t="s">
-        <v>1574</v>
-      </c>
-      <c r="BG2" s="8" t="s">
-        <v>1126</v>
-      </c>
-      <c r="BH2" s="8" t="s">
-        <v>1575</v>
-      </c>
-      <c r="BI2" s="8" t="s">
-        <v>1515</v>
-      </c>
-      <c r="BJ2" s="8" t="s">
-        <v>1128</v>
-      </c>
-      <c r="BK2" s="8" t="s">
-        <v>1517</v>
-      </c>
-      <c r="BL2" s="8" t="s">
-        <v>1518</v>
-      </c>
-      <c r="BM2" s="8" t="s">
-        <v>1519</v>
-      </c>
-      <c r="BN2" s="8" t="s">
-        <v>1132</v>
-      </c>
-      <c r="BO2" s="8" t="s">
-        <v>1521</v>
-      </c>
-      <c r="BP2" s="8" t="s">
-        <v>1134</v>
-      </c>
-      <c r="BQ2" s="8" t="s">
-        <v>1576</v>
-      </c>
-      <c r="BR2" s="8" t="s">
-        <v>1522</v>
-      </c>
-      <c r="BS2" s="8" t="s">
-        <v>1577</v>
-      </c>
-      <c r="BT2" s="8" t="s">
-        <v>1526</v>
-      </c>
-      <c r="BU2" s="8" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BV2" s="8" t="s">
-        <v>1138</v>
-      </c>
-      <c r="BW2" s="8" t="s">
-        <v>1578</v>
-      </c>
-      <c r="BX2" s="8" t="s">
-        <v>1187</v>
-      </c>
-      <c r="BY2" s="8" t="s">
-        <v>1154</v>
-      </c>
-      <c r="BZ2" s="8" t="s">
-        <v>1556</v>
-      </c>
-      <c r="CA2" s="8" t="s">
-        <v>1557</v>
-      </c>
-      <c r="CB2" s="8" t="s">
-        <v>1157</v>
-      </c>
-      <c r="CC2" s="8" t="s">
-        <v>1158</v>
-      </c>
-      <c r="CD2" s="8" t="s">
-        <v>1558</v>
-      </c>
-      <c r="CE2" s="10" t="s">
-        <v>1580</v>
-      </c>
-      <c r="CI2" s="8" t="s">
-        <v>1581</v>
-      </c>
-      <c r="CM2" s="8" t="s">
-        <v>1160</v>
-      </c>
-      <c r="CN2" s="8" t="s">
-        <v>1106</v>
       </c>
     </row>
     <row r="3" spans="1:92" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E3" s="8"/>
       <c r="H3" s="11"/>
       <c r="J3" s="12" t="s">
-        <v>1512</v>
+        <v>1403</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>1513</v>
+        <v>1404</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>1514</v>
+        <v>1405</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>1512</v>
+        <v>1403</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>1513</v>
+        <v>1404</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>1514</v>
+        <v>1405</v>
       </c>
       <c r="X3" s="10" t="s">
-        <v>1565</v>
+        <v>1456</v>
       </c>
       <c r="AJ3" s="8" t="s">
-        <v>1568</v>
+        <v>1459</v>
       </c>
       <c r="AK3" s="8" t="s">
-        <v>1162</v>
+        <v>1116</v>
       </c>
       <c r="AL3" s="8" t="s">
-        <v>1196</v>
+        <v>1121</v>
       </c>
       <c r="AM3" s="8" t="s">
-        <v>1197</v>
+        <v>1122</v>
       </c>
       <c r="AN3" s="8" t="s">
-        <v>1569</v>
+        <v>1460</v>
       </c>
       <c r="CE3" s="10" t="s">
-        <v>1568</v>
+        <v>1459</v>
       </c>
       <c r="CF3" s="10" t="s">
-        <v>1196</v>
+        <v>1121</v>
       </c>
       <c r="CG3" s="10" t="s">
-        <v>1197</v>
+        <v>1122</v>
       </c>
       <c r="CH3" s="10" t="s">
-        <v>1162</v>
+        <v>1116</v>
       </c>
       <c r="CI3" s="10" t="s">
-        <v>1568</v>
+        <v>1459</v>
       </c>
       <c r="CJ3" s="10" t="s">
-        <v>1196</v>
+        <v>1121</v>
       </c>
       <c r="CK3" s="10" t="s">
-        <v>1197</v>
+        <v>1122</v>
       </c>
       <c r="CL3" s="10" t="s">
-        <v>1162</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="4" spans="1:92" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
-        <v>1549</v>
+        <v>1440</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>1527</v>
+        <v>1418</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>1527</v>
+        <v>1418</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>1507</v>
+        <v>1398</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>1508</v>
+        <v>1399</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>1508</v>
+        <v>1399</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>1509</v>
+        <v>1400</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>1510</v>
+        <v>1401</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>1511</v>
+        <v>1402</v>
       </c>
       <c r="J4" s="22" t="s">
-        <v>1510</v>
+        <v>1401</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>1510</v>
+        <v>1401</v>
       </c>
       <c r="L4" s="22" t="s">
-        <v>1510</v>
+        <v>1401</v>
       </c>
       <c r="M4" s="22" t="s">
-        <v>1510</v>
+        <v>1401</v>
       </c>
       <c r="N4" s="22" t="s">
-        <v>1510</v>
+        <v>1401</v>
       </c>
       <c r="O4" s="22" t="s">
-        <v>1510</v>
+        <v>1401</v>
       </c>
       <c r="P4" s="21" t="s">
-        <v>1528</v>
+        <v>1419</v>
       </c>
       <c r="Q4" s="21" t="s">
-        <v>1529</v>
+        <v>1420</v>
       </c>
       <c r="R4" s="21" t="s">
-        <v>1530</v>
+        <v>1421</v>
       </c>
       <c r="S4" s="21" t="s">
-        <v>1531</v>
+        <v>1422</v>
       </c>
       <c r="T4" s="21" t="s">
-        <v>1532</v>
+        <v>1423</v>
       </c>
       <c r="U4" s="21" t="s">
-        <v>1533</v>
+        <v>1424</v>
       </c>
       <c r="V4" s="21" t="s">
-        <v>1534</v>
+        <v>1425</v>
       </c>
       <c r="W4" s="21" t="s">
-        <v>1535</v>
+        <v>1426</v>
       </c>
       <c r="X4" s="21" t="s">
-        <v>1536</v>
+        <v>1427</v>
       </c>
       <c r="Y4" s="20" t="s">
-        <v>1537</v>
+        <v>1428</v>
       </c>
       <c r="Z4" s="20" t="s">
-        <v>1566</v>
+        <v>1457</v>
       </c>
       <c r="AA4" s="20" t="s">
-        <v>1566</v>
+        <v>1457</v>
       </c>
       <c r="AB4" s="20" t="s">
-        <v>1566</v>
+        <v>1457</v>
       </c>
       <c r="AC4" s="20" t="s">
-        <v>1566</v>
+        <v>1457</v>
       </c>
       <c r="AD4" s="20" t="s">
-        <v>1566</v>
+        <v>1457</v>
       </c>
       <c r="AE4" s="20" t="s">
-        <v>1566</v>
+        <v>1457</v>
       </c>
       <c r="AF4" s="20" t="s">
-        <v>1566</v>
+        <v>1457</v>
       </c>
       <c r="AG4" s="20" t="s">
-        <v>1566</v>
+        <v>1457</v>
       </c>
       <c r="AH4" s="20" t="s">
-        <v>1566</v>
+        <v>1457</v>
       </c>
       <c r="AI4" s="20" t="s">
-        <v>1566</v>
+        <v>1457</v>
       </c>
       <c r="AJ4" s="21" t="s">
-        <v>1538</v>
+        <v>1429</v>
       </c>
       <c r="AK4" s="21" t="s">
-        <v>1539</v>
+        <v>1430</v>
       </c>
       <c r="AL4" s="21" t="s">
-        <v>1540</v>
+        <v>1431</v>
       </c>
       <c r="AM4" s="21" t="s">
-        <v>1541</v>
+        <v>1432</v>
       </c>
       <c r="AN4" s="21" t="s">
-        <v>1542</v>
+        <v>1433</v>
       </c>
       <c r="AO4" s="20" t="s">
-        <v>1566</v>
+        <v>1457</v>
       </c>
       <c r="AP4" s="20" t="s">
-        <v>1566</v>
+        <v>1457</v>
       </c>
       <c r="AQ4" s="20" t="s">
-        <v>1566</v>
+        <v>1457</v>
       </c>
       <c r="AR4" s="20" t="s">
-        <v>1566</v>
+        <v>1457</v>
       </c>
       <c r="AS4" s="20" t="s">
-        <v>1566</v>
+        <v>1457</v>
       </c>
       <c r="AT4" s="20" t="s">
-        <v>1566</v>
+        <v>1457</v>
       </c>
       <c r="AU4" s="20" t="s">
-        <v>1566</v>
+        <v>1457</v>
       </c>
       <c r="AV4" s="20" t="s">
-        <v>1566</v>
+        <v>1457</v>
       </c>
       <c r="AW4" s="20" t="s">
-        <v>1566</v>
+        <v>1457</v>
       </c>
       <c r="AX4" s="20" t="s">
-        <v>1566</v>
+        <v>1457</v>
       </c>
       <c r="AY4" s="20" t="s">
-        <v>1566</v>
+        <v>1457</v>
       </c>
       <c r="AZ4" s="21" t="s">
-        <v>1543</v>
+        <v>1434</v>
       </c>
       <c r="BA4" s="21" t="s">
-        <v>1545</v>
+        <v>1436</v>
       </c>
       <c r="BB4" s="21" t="s">
-        <v>1544</v>
+        <v>1435</v>
       </c>
       <c r="BC4" s="21" t="s">
-        <v>1546</v>
+        <v>1437</v>
       </c>
       <c r="BD4" s="21" t="s">
-        <v>1547</v>
+        <v>1438</v>
       </c>
       <c r="BE4" s="21" t="s">
-        <v>1548</v>
+        <v>1439</v>
       </c>
       <c r="BF4" s="21" t="s">
-        <v>1487</v>
+        <v>1378</v>
       </c>
       <c r="BG4" s="21" t="s">
-        <v>1550</v>
+        <v>1441</v>
       </c>
       <c r="BH4" s="21" t="s">
-        <v>1551</v>
+        <v>1442</v>
       </c>
       <c r="BI4" s="21" t="s">
-        <v>1515</v>
+        <v>1406</v>
       </c>
       <c r="BJ4" s="21" t="s">
-        <v>1516</v>
+        <v>1407</v>
       </c>
       <c r="BK4" s="21" t="s">
-        <v>1517</v>
+        <v>1408</v>
       </c>
       <c r="BL4" s="21" t="s">
-        <v>1518</v>
+        <v>1409</v>
       </c>
       <c r="BM4" s="21" t="s">
-        <v>1519</v>
+        <v>1410</v>
       </c>
       <c r="BN4" s="21" t="s">
-        <v>1520</v>
+        <v>1411</v>
       </c>
       <c r="BO4" s="21" t="s">
-        <v>1521</v>
+        <v>1412</v>
       </c>
       <c r="BP4" s="21" t="s">
-        <v>1552</v>
+        <v>1443</v>
       </c>
       <c r="BQ4" s="20" t="s">
-        <v>1553</v>
+        <v>1444</v>
       </c>
       <c r="BR4" s="21" t="s">
-        <v>1522</v>
+        <v>1413</v>
       </c>
       <c r="BS4" s="21" t="s">
-        <v>1523</v>
+        <v>1414</v>
       </c>
       <c r="BT4" s="20" t="s">
-        <v>1566</v>
+        <v>1457</v>
       </c>
       <c r="BU4" s="21" t="s">
-        <v>1524</v>
+        <v>1415</v>
       </c>
       <c r="BV4" s="21" t="s">
-        <v>1554</v>
+        <v>1445</v>
       </c>
       <c r="BW4" s="21" t="s">
-        <v>1525</v>
+        <v>1416</v>
       </c>
       <c r="BX4" s="21" t="s">
-        <v>1555</v>
+        <v>1446</v>
       </c>
       <c r="BY4" s="20" t="s">
-        <v>1540</v>
+        <v>1431</v>
       </c>
       <c r="BZ4" s="20" t="s">
-        <v>1539</v>
+        <v>1430</v>
       </c>
       <c r="CA4" s="20" t="s">
-        <v>1579</v>
+        <v>1470</v>
       </c>
       <c r="CB4" s="20" t="s">
-        <v>1540</v>
+        <v>1431</v>
       </c>
       <c r="CC4" s="20" t="s">
-        <v>1539</v>
+        <v>1430</v>
       </c>
       <c r="CD4" s="20" t="s">
-        <v>1579</v>
+        <v>1470</v>
       </c>
       <c r="CE4" s="21" t="s">
-        <v>1538</v>
+        <v>1429</v>
       </c>
       <c r="CF4" s="21" t="s">
-        <v>1540</v>
+        <v>1431</v>
       </c>
       <c r="CG4" s="21" t="s">
-        <v>1541</v>
+        <v>1432</v>
       </c>
       <c r="CH4" s="21" t="s">
-        <v>1539</v>
+        <v>1430</v>
       </c>
       <c r="CI4" s="21" t="s">
-        <v>1538</v>
+        <v>1429</v>
       </c>
       <c r="CJ4" s="21" t="s">
-        <v>1540</v>
+        <v>1431</v>
       </c>
       <c r="CK4" s="21" t="s">
-        <v>1541</v>
+        <v>1432</v>
       </c>
       <c r="CL4" s="21" t="s">
-        <v>1539</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="5" spans="1:92" x14ac:dyDescent="0.2">
@@ -7343,1099 +6940,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F81"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="66" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="17" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" style="27" customWidth="1"/>
-    <col min="4" max="4" width="42.1640625" style="27" customWidth="1"/>
-    <col min="5" max="5" width="24.6640625" style="27" customWidth="1"/>
-    <col min="6" max="6" width="58.1640625" style="27" customWidth="1"/>
-    <col min="7" max="16384" width="11" style="27"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.2">
-      <c r="C1" s="25"/>
-      <c r="D1" s="26" t="s">
-        <v>1199</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>1588</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
-        <v>1066</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>1582</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>1222</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>1122</v>
-      </c>
-      <c r="F2" s="30">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>1069</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>1122</v>
-      </c>
-      <c r="F3" s="30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="25" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>1070</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F4" s="30" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="25" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>1072</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>1091</v>
-      </c>
-      <c r="F5" s="31">
-        <v>41379</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="25" t="s">
-        <v>1076</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>1078</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F6" s="30" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="25" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>1080</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F7" s="30" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="25" t="s">
-        <v>1147</v>
-      </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="29" t="s">
-        <v>1148</v>
-      </c>
-      <c r="F8" s="32" t="s">
-        <v>1202</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="24" t="s">
-        <v>1200</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>1201</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>1483</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>1091</v>
-      </c>
-      <c r="F9" s="33" t="s">
-        <v>1484</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>1073</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>1090</v>
-      </c>
-      <c r="F10" s="30" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="25" t="s">
-        <v>1145</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>1167</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>1122</v>
-      </c>
-      <c r="F11" s="30">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="25" t="s">
-        <v>1166</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>1203</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F12" s="30" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="24" t="s">
-        <v>1144</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>1169</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>1171</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>1122</v>
-      </c>
-      <c r="F13" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="25" t="s">
-        <v>1168</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>1205</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F14" s="30" t="s">
-        <v>1206</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="25" t="s">
-        <v>1150</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>1207</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F15" s="30" t="s">
-        <v>1208</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="25" t="s">
-        <v>1151</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>1182</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F16" s="30" t="s">
-        <v>1186</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="25" t="s">
-        <v>1183</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>1184</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F17" s="30" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="25" t="s">
-        <v>1188</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>1209</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F18" s="30"/>
-    </row>
-    <row r="19" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="25" t="s">
-        <v>1146</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>1170</v>
-      </c>
-      <c r="E19" s="29" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F19" s="30"/>
-    </row>
-    <row r="20" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="24" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>1087</v>
-      </c>
-      <c r="E20" s="29" t="s">
-        <v>1090</v>
-      </c>
-      <c r="F20" s="30" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C21" s="25" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="29" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F21" s="30" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C22" s="25" t="s">
-        <v>1082</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>1096</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>1090</v>
-      </c>
-      <c r="F22" s="30" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C23" s="25" t="s">
-        <v>1089</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>1095</v>
-      </c>
-      <c r="E23" s="29" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F23" s="30"/>
-    </row>
-    <row r="24" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C24" s="25" t="s">
-        <v>1093</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>1095</v>
-      </c>
-      <c r="E24" s="29" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F24" s="30"/>
-    </row>
-    <row r="25" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C25" s="25" t="s">
-        <v>1094</v>
-      </c>
-      <c r="D25" s="28" t="s">
-        <v>1095</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F25" s="30"/>
-    </row>
-    <row r="26" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C26" s="25" t="s">
-        <v>1106</v>
-      </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="29" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F26" s="30"/>
-    </row>
-    <row r="27" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="24" t="s">
-        <v>1097</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>1098</v>
-      </c>
-      <c r="D27" s="28" t="s">
-        <v>1099</v>
-      </c>
-      <c r="E27" s="29" t="s">
-        <v>1090</v>
-      </c>
-      <c r="F27" s="30" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C28" s="25" t="s">
-        <v>1100</v>
-      </c>
-      <c r="D28" s="28" t="s">
-        <v>1468</v>
-      </c>
-      <c r="E28" s="34" t="s">
-        <v>1090</v>
-      </c>
-      <c r="F28" s="30" t="s">
-        <v>1265</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="25" t="s">
-        <v>1101</v>
-      </c>
-      <c r="D29" s="28" t="s">
-        <v>1468</v>
-      </c>
-      <c r="E29" s="34" t="s">
-        <v>1090</v>
-      </c>
-      <c r="F29" s="30" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C30" s="25" t="s">
-        <v>1104</v>
-      </c>
-      <c r="D30" s="28" t="s">
-        <v>1105</v>
-      </c>
-      <c r="E30" s="29" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F30" s="30" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C31" s="25" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D31" s="28" t="s">
-        <v>1478</v>
-      </c>
-      <c r="E31" s="29" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F31" s="30" t="s">
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C32" s="25" t="s">
-        <v>1162</v>
-      </c>
-      <c r="D32" s="28" t="s">
-        <v>1479</v>
-      </c>
-      <c r="E32" s="29" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F32" s="30" t="s">
-        <v>1480</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C33" s="25" t="s">
-        <v>1163</v>
-      </c>
-      <c r="D33" s="28" t="s">
-        <v>1181</v>
-      </c>
-      <c r="E33" s="29" t="s">
-        <v>1122</v>
-      </c>
-      <c r="F33" s="30">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C34" s="25" t="s">
-        <v>1164</v>
-      </c>
-      <c r="D34" s="28" t="s">
-        <v>1481</v>
-      </c>
-      <c r="E34" s="29" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F34" s="30" t="s">
-        <v>1482</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C35" s="25" t="s">
-        <v>1106</v>
-      </c>
-      <c r="D35" s="28"/>
-      <c r="E35" s="29" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F35" s="30"/>
-    </row>
-    <row r="36" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="24" t="s">
-        <v>1108</v>
-      </c>
-      <c r="C36" s="25" t="s">
-        <v>1180</v>
-      </c>
-      <c r="D36" s="28"/>
-      <c r="E36" s="29" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F36" s="30"/>
-    </row>
-    <row r="37" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C37" s="25" t="s">
-        <v>1109</v>
-      </c>
-      <c r="D37" s="28" t="s">
-        <v>1095</v>
-      </c>
-      <c r="E37" s="29" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F37" s="30"/>
-    </row>
-    <row r="38" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C38" s="25" t="s">
-        <v>1110</v>
-      </c>
-      <c r="D38" s="28" t="s">
-        <v>1095</v>
-      </c>
-      <c r="E38" s="29" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F38" s="30"/>
-    </row>
-    <row r="39" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C39" s="25" t="s">
-        <v>1111</v>
-      </c>
-      <c r="D39" s="28" t="s">
-        <v>1095</v>
-      </c>
-      <c r="E39" s="29" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F39" s="30"/>
-    </row>
-    <row r="40" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C40" s="25" t="s">
-        <v>1112</v>
-      </c>
-      <c r="D40" s="28" t="s">
-        <v>1095</v>
-      </c>
-      <c r="E40" s="29" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F40" s="30"/>
-    </row>
-    <row r="41" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C41" s="25" t="s">
-        <v>1113</v>
-      </c>
-      <c r="D41" s="28" t="s">
-        <v>1095</v>
-      </c>
-      <c r="E41" s="29" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F41" s="30"/>
-    </row>
-    <row r="42" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="25" t="s">
-        <v>1114</v>
-      </c>
-      <c r="D42" s="28" t="s">
-        <v>1095</v>
-      </c>
-      <c r="E42" s="29" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F42" s="30"/>
-    </row>
-    <row r="43" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C43" s="25" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D43" s="28" t="s">
-        <v>1095</v>
-      </c>
-      <c r="E43" s="29" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F43" s="30"/>
-    </row>
-    <row r="44" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C44" s="25" t="s">
-        <v>1116</v>
-      </c>
-      <c r="D44" s="28" t="s">
-        <v>1095</v>
-      </c>
-      <c r="E44" s="29" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F44" s="30"/>
-    </row>
-    <row r="45" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C45" s="25" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D45" s="28" t="s">
-        <v>1095</v>
-      </c>
-      <c r="E45" s="29" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F45" s="30"/>
-    </row>
-    <row r="46" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C46" s="25" t="s">
-        <v>1118</v>
-      </c>
-      <c r="D46" s="28" t="s">
-        <v>1095</v>
-      </c>
-      <c r="E46" s="29" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F46" s="30"/>
-    </row>
-    <row r="47" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="24" t="s">
-        <v>1107</v>
-      </c>
-      <c r="C47" s="25" t="s">
-        <v>1119</v>
-      </c>
-      <c r="D47" s="28" t="s">
-        <v>1121</v>
-      </c>
-      <c r="E47" s="29" t="s">
-        <v>1122</v>
-      </c>
-      <c r="F47" s="35">
-        <v>-12.345599999999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C48" s="25" t="s">
-        <v>1120</v>
-      </c>
-      <c r="D48" s="28" t="s">
-        <v>1121</v>
-      </c>
-      <c r="E48" s="29" t="s">
-        <v>1122</v>
-      </c>
-      <c r="F48" s="35">
-        <v>54.32</v>
-      </c>
-    </row>
-    <row r="49" spans="3:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C49" s="25" t="s">
-        <v>1123</v>
-      </c>
-      <c r="D49" s="28" t="s">
-        <v>1124</v>
-      </c>
-      <c r="E49" s="29" t="s">
-        <v>1122</v>
-      </c>
-      <c r="F49" s="30"/>
-    </row>
-    <row r="50" spans="3:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C50" s="25" t="s">
-        <v>1125</v>
-      </c>
-      <c r="D50" s="28" t="s">
-        <v>1485</v>
-      </c>
-      <c r="E50" s="29" t="s">
-        <v>1126</v>
-      </c>
-      <c r="F50" s="30" t="s">
-        <v>1486</v>
-      </c>
-    </row>
-    <row r="51" spans="3:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C51" s="25" t="s">
-        <v>1127</v>
-      </c>
-      <c r="D51" s="28" t="s">
-        <v>1172</v>
-      </c>
-      <c r="E51" s="29" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F51" s="30" t="s">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="52" spans="3:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C52" s="25" t="s">
-        <v>1140</v>
-      </c>
-      <c r="D52" s="28" t="s">
-        <v>1141</v>
-      </c>
-      <c r="E52" s="29" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F52" s="30"/>
-    </row>
-    <row r="53" spans="3:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C53" s="25" t="s">
-        <v>1128</v>
-      </c>
-      <c r="D53" s="28"/>
-      <c r="E53" s="29" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F53" s="30"/>
-    </row>
-    <row r="54" spans="3:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C54" s="25" t="s">
-        <v>1129</v>
-      </c>
-      <c r="D54" s="28"/>
-      <c r="E54" s="29" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F54" s="30"/>
-    </row>
-    <row r="55" spans="3:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C55" s="25" t="s">
-        <v>1130</v>
-      </c>
-      <c r="D55" s="28"/>
-      <c r="E55" s="29" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F55" s="30"/>
-    </row>
-    <row r="56" spans="3:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C56" s="25" t="s">
-        <v>1131</v>
-      </c>
-      <c r="D56" s="28"/>
-      <c r="E56" s="29" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F56" s="30"/>
-    </row>
-    <row r="57" spans="3:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C57" s="25" t="s">
-        <v>1132</v>
-      </c>
-      <c r="D57" s="28"/>
-      <c r="E57" s="29" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F57" s="30"/>
-    </row>
-    <row r="58" spans="3:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C58" s="25" t="s">
-        <v>1133</v>
-      </c>
-      <c r="D58" s="28" t="s">
-        <v>1173</v>
-      </c>
-      <c r="E58" s="29" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F58" s="30" t="s">
-        <v>1174</v>
-      </c>
-    </row>
-    <row r="59" spans="3:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C59" s="25" t="s">
-        <v>1134</v>
-      </c>
-      <c r="D59" s="28" t="s">
-        <v>1177</v>
-      </c>
-      <c r="E59" s="29" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F59" s="30" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="60" spans="3:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C60" s="25" t="s">
-        <v>1135</v>
-      </c>
-      <c r="D60" s="28" t="s">
-        <v>1178</v>
-      </c>
-      <c r="E60" s="29" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F60" s="30" t="s">
-        <v>1176</v>
-      </c>
-    </row>
-    <row r="61" spans="3:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C61" s="25" t="s">
-        <v>1143</v>
-      </c>
-      <c r="D61" s="28" t="s">
-        <v>1179</v>
-      </c>
-      <c r="E61" s="29" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F61" s="30" t="s">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="62" spans="3:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C62" s="25" t="s">
-        <v>1190</v>
-      </c>
-      <c r="D62" s="28"/>
-      <c r="E62" s="29" t="s">
-        <v>1090</v>
-      </c>
-      <c r="F62" s="30" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="63" spans="3:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C63" s="25" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D63" s="28" t="s">
-        <v>1165</v>
-      </c>
-      <c r="E63" s="29" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F63" s="30"/>
-    </row>
-    <row r="64" spans="3:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C64" s="25" t="s">
-        <v>1136</v>
-      </c>
-      <c r="D64" s="28" t="s">
-        <v>1137</v>
-      </c>
-      <c r="E64" s="29" t="s">
-        <v>1122</v>
-      </c>
-      <c r="F64" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C65" s="25" t="s">
-        <v>1138</v>
-      </c>
-      <c r="D65" s="28" t="s">
-        <v>1139</v>
-      </c>
-      <c r="E65" s="29" t="s">
-        <v>1122</v>
-      </c>
-      <c r="F65" s="30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C66" s="25" t="s">
-        <v>1149</v>
-      </c>
-      <c r="D66" s="28" t="s">
-        <v>1210</v>
-      </c>
-      <c r="E66" s="29" t="s">
-        <v>1090</v>
-      </c>
-      <c r="F66" s="30" t="s">
-        <v>1194</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C67" s="36" t="s">
-        <v>1187</v>
-      </c>
-      <c r="D67" s="28"/>
-      <c r="E67" s="29" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F67" s="30"/>
-    </row>
-    <row r="68" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="24" t="s">
-        <v>1152</v>
-      </c>
-      <c r="B68" s="24" t="s">
-        <v>1153</v>
-      </c>
-      <c r="C68" s="25" t="s">
-        <v>1154</v>
-      </c>
-      <c r="D68" s="28" t="s">
-        <v>1211</v>
-      </c>
-      <c r="E68" s="29" t="s">
-        <v>1122</v>
-      </c>
-      <c r="F68" s="30">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C69" s="25" t="s">
-        <v>1155</v>
-      </c>
-      <c r="D69" s="28" t="s">
-        <v>1189</v>
-      </c>
-      <c r="E69" s="29" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F69" s="30" t="s">
-        <v>1213</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="24" t="s">
-        <v>1156</v>
-      </c>
-      <c r="C70" s="25" t="s">
-        <v>1157</v>
-      </c>
-      <c r="D70" s="28" t="s">
-        <v>1212</v>
-      </c>
-      <c r="E70" s="29" t="s">
-        <v>1122</v>
-      </c>
-      <c r="F70" s="30">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C71" s="25" t="s">
-        <v>1158</v>
-      </c>
-      <c r="D71" s="28" t="s">
-        <v>1189</v>
-      </c>
-      <c r="E71" s="29" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F71" s="30" t="s">
-        <v>1213</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="24" t="s">
-        <v>1159</v>
-      </c>
-      <c r="C72" s="25" t="s">
-        <v>1195</v>
-      </c>
-      <c r="D72" s="28" t="s">
-        <v>1214</v>
-      </c>
-      <c r="E72" s="29" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F72" s="30" t="s">
-        <v>1218</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C73" s="36" t="s">
-        <v>1196</v>
-      </c>
-      <c r="D73" s="28" t="s">
-        <v>1215</v>
-      </c>
-      <c r="E73" s="29" t="s">
-        <v>1122</v>
-      </c>
-      <c r="F73" s="30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C74" s="36" t="s">
-        <v>1197</v>
-      </c>
-      <c r="D74" s="28" t="s">
-        <v>1216</v>
-      </c>
-      <c r="E74" s="29" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F74" s="30" t="s">
-        <v>1219</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C75" s="36" t="s">
-        <v>1162</v>
-      </c>
-      <c r="D75" s="28" t="s">
-        <v>1217</v>
-      </c>
-      <c r="E75" s="29" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F75" s="30" t="s">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="24" t="s">
-        <v>1118</v>
-      </c>
-      <c r="C76" s="36" t="s">
-        <v>1195</v>
-      </c>
-      <c r="D76" s="28"/>
-      <c r="E76" s="29" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F76" s="30"/>
-    </row>
-    <row r="77" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C77" s="36" t="s">
-        <v>1196</v>
-      </c>
-      <c r="D77" s="28"/>
-      <c r="E77" s="29" t="s">
-        <v>1122</v>
-      </c>
-      <c r="F77" s="30"/>
-    </row>
-    <row r="78" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C78" s="36" t="s">
-        <v>1197</v>
-      </c>
-      <c r="D78" s="28"/>
-      <c r="E78" s="29" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F78" s="30"/>
-    </row>
-    <row r="79" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C79" s="36" t="s">
-        <v>1162</v>
-      </c>
-      <c r="D79" s="28"/>
-      <c r="E79" s="29" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F79" s="30"/>
-    </row>
-    <row r="80" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="24" t="s">
-        <v>1160</v>
-      </c>
-      <c r="C80" s="25"/>
-      <c r="D80" s="28" t="s">
-        <v>1198</v>
-      </c>
-      <c r="E80" s="29" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F80" s="30"/>
-    </row>
-    <row r="81" spans="3:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C81" s="25"/>
-      <c r="D81" s="25"/>
-      <c r="E81" s="25"/>
-      <c r="F81" s="25"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F8" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
@@ -8450,10 +6954,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>1583</v>
+        <v>1474</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>1584</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -8549,7 +7053,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y447"/>
   <sheetViews>
@@ -33261,7 +31765,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A246"/>
   <sheetViews>
@@ -33276,1232 +31780,1232 @@
   <sheetData>
     <row r="1" spans="1:1" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>1100</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1223</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1224</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1225</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1226</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1227</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1228</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1229</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1230</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1231</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1232</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1233</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1234</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1235</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1236</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1237</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1238</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1239</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>1240</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>1241</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>1242</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1243</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>1244</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1245</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>1246</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>1247</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>1248</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1249</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>1250</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>1251</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>1252</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>1253</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>1254</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>1255</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>1256</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>1257</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>1258</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>1259</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>1260</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>1261</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>1262</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>1263</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>1264</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>1265</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>1266</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>1267</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>1268</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>1269</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>1270</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>1271</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>1272</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>1273</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>1274</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>1275</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>1276</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>1277</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>1278</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>1279</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>1280</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>1281</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>1282</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>1283</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>1284</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>1285</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>1286</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>1287</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>1288</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>1289</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>1290</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>1291</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>1292</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>1293</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>1294</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>1295</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>1296</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>1297</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>1298</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>1299</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>1300</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>1301</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>1302</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>1303</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>1304</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>1305</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>1306</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>1307</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>1308</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>1309</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>1310</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>1311</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>1312</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>1313</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>1314</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>1315</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>1316</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>1317</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>1318</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>1319</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>1320</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>1321</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>1322</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>1323</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>1324</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>1325</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>1326</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>1327</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>1328</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>1329</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>1330</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>1331</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>1332</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>1333</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>1334</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>1335</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>1336</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>1337</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>1338</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>1339</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>1340</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>1341</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>1342</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>1343</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>1344</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>1345</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>1346</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>1347</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>1348</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>1349</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>1350</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>1351</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>1352</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>1353</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>1354</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>1355</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>1356</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>1357</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>1358</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>1359</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>1360</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>1361</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>1362</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>1363</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>1364</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>1365</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>1366</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>1367</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>1368</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>1369</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>1370</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>1371</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>1372</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>1373</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>1374</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>1375</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>1376</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>1377</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>1378</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>1379</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>1380</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>1381</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>1382</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>1383</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>1384</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>1385</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>1386</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>1387</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>1388</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>1389</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>1390</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>1391</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>1392</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>1393</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>1394</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>1395</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>1396</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>1397</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>1398</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>1399</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>1400</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>1401</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>1402</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>1403</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>1404</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>1405</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>1406</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>1407</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>1408</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>1409</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>1410</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>1411</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>1412</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>1413</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>1414</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>1415</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>1416</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>1417</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>1418</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>1419</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>1420</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>1421</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>1422</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>1423</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>1424</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>1425</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>1426</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>1427</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>1428</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>1429</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>1430</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>1431</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>1432</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>1433</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>1434</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>1435</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>1436</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>1437</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>1438</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>1439</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>1440</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>1441</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>1442</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>1443</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>1444</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>1445</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>1446</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>1447</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>1448</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>1449</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>1450</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>1451</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>1452</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>1453</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>1454</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>1455</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>1456</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>1457</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>1458</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>1459</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>1460</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>1461</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>1462</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>1463</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>1464</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>1465</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>1466</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>1467</v>
+        <v>1369</v>
       </c>
     </row>
   </sheetData>
@@ -34509,7 +33013,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A9"/>
   <sheetViews>
@@ -34524,47 +33028,47 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1469</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1470</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1471</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1472</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1473</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1474</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1475</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1476</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1102</v>
+        <v>1082</v>
       </c>
     </row>
   </sheetData>
@@ -34572,12 +33076,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -34588,110 +33092,119 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1490</v>
+        <v>1479</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1491</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1488</v>
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1380</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1587</v>
+        <v>1382</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1586</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>1493</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>1492</v>
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1477</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1494</v>
+        <v>1384</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1495</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>1585</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>1498</v>
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>1386</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1496</v>
+        <v>1476</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>1497</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1502</v>
+        <v>1387</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>1503</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1500</v>
+        <v>1393</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1501</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1499</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>1504</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" s="5" t="s">
-        <v>1506</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18" s="5" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" ht="23" x14ac:dyDescent="0.2">
-      <c r="B19" s="3"/>
+        <v>1391</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="5" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="5" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="23" x14ac:dyDescent="0.2">
+      <c r="B21" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1"/>
-    <hyperlink ref="B17" r:id="rId2"/>
-    <hyperlink ref="B18" r:id="rId3"/>
-    <hyperlink ref="B4" r:id="rId4"/>
-    <hyperlink ref="B2" r:id="rId5"/>
-    <hyperlink ref="B1" r:id="rId6"/>
-    <hyperlink ref="B7" r:id="rId7"/>
-    <hyperlink ref="B8" r:id="rId8"/>
-    <hyperlink ref="B10" r:id="rId9"/>
-    <hyperlink ref="B12" r:id="rId10"/>
-    <hyperlink ref="B14" r:id="rId11"/>
+    <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="B19" r:id="rId2"/>
+    <hyperlink ref="B20" r:id="rId3"/>
+    <hyperlink ref="B6" r:id="rId4"/>
+    <hyperlink ref="B4" r:id="rId5"/>
+    <hyperlink ref="B3" r:id="rId6"/>
+    <hyperlink ref="B9" r:id="rId7"/>
+    <hyperlink ref="B10" r:id="rId8"/>
+    <hyperlink ref="B12" r:id="rId9"/>
+    <hyperlink ref="B14" r:id="rId10"/>
+    <hyperlink ref="B16" r:id="rId11"/>
+    <hyperlink ref="B1" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pieter/Dropbox (IPOfI)/OBIS/repo/hab template/habtemplate/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Pieterp/Dropbox (IPOfI)/OBIS/repo/hab template/habtemplate/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="551" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20140" tabRatio="551"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="9" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="toxins" sheetId="4" r:id="rId4"/>
     <sheet name="syndromes" sheetId="5" r:id="rId5"/>
     <sheet name="urls" sheetId="7" r:id="rId6"/>
+    <sheet name="lists" sheetId="10" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="regions">regions!$A$2:$A$12</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6639" uniqueCount="1481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6652" uniqueCount="1495">
   <si>
     <t>HAB region</t>
   </si>
@@ -3283,9 +3284,6 @@
     <t>PSP</t>
   </si>
   <si>
-    <t>Additional remarks</t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
@@ -3355,9 +3353,6 @@
     <t>Organism quantity</t>
   </si>
   <si>
-    <t>Occurrence remarks</t>
-  </si>
-  <si>
     <t>HAEDAT event URL</t>
   </si>
   <si>
@@ -3370,15 +3365,6 @@
     <t>Environmental</t>
   </si>
   <si>
-    <t>Temperature value</t>
-  </si>
-  <si>
-    <t>Salinity value</t>
-  </si>
-  <si>
-    <t>Salinity method</t>
-  </si>
-  <si>
     <t>Runoff</t>
   </si>
   <si>
@@ -3391,9 +3377,6 @@
     <t>Economic losses</t>
   </si>
   <si>
-    <t>Location remarks</t>
-  </si>
-  <si>
     <t>Associated taxa</t>
   </si>
   <si>
@@ -4276,18 +4259,12 @@
     <t>habitat</t>
   </si>
   <si>
-    <t>fieldNotes</t>
-  </si>
-  <si>
     <t>minimumDepthInMeters</t>
   </si>
   <si>
     <t>verbatimDepth</t>
   </si>
   <si>
-    <t>substrate</t>
-  </si>
-  <si>
     <t>recordedBy</t>
   </si>
   <si>
@@ -4375,15 +4352,6 @@
     <t>locationRemarks</t>
   </si>
   <si>
-    <t>Temperature method</t>
-  </si>
-  <si>
-    <t>Temperature units</t>
-  </si>
-  <si>
-    <t>Salinity units</t>
-  </si>
-  <si>
     <t>Verbatim event date</t>
   </si>
   <si>
@@ -4393,15 +4361,6 @@
     <t>End date</t>
   </si>
   <si>
-    <t>Samplesize value</t>
-  </si>
-  <si>
-    <t>Samplesize unit</t>
-  </si>
-  <si>
-    <t>Event remarks</t>
-  </si>
-  <si>
     <t>(maroalgal species or intoxicated species)</t>
   </si>
   <si>
@@ -4435,21 +4394,12 @@
     <t>Waterbody</t>
   </si>
   <si>
-    <t>Location gazetteer</t>
-  </si>
-  <si>
-    <t>Fieldnotes</t>
-  </si>
-  <si>
     <t>Verbatim depth</t>
   </si>
   <si>
     <t>measurementUnits</t>
   </si>
   <si>
-    <t>Nutrient measurements</t>
-  </si>
-  <si>
     <t>Other measurements</t>
   </si>
   <si>
@@ -4475,6 +4425,99 @@
   </si>
   <si>
     <t>http://iobis.github.io/hab</t>
+  </si>
+  <si>
+    <t>Modified</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>coloured</t>
+  </si>
+  <si>
+    <t>transparent</t>
+  </si>
+  <si>
+    <t>Sample size value</t>
+  </si>
+  <si>
+    <t>Sample size unit</t>
+  </si>
+  <si>
+    <t>oligotrophic</t>
+  </si>
+  <si>
+    <t>eutrophic</t>
+  </si>
+  <si>
+    <t>Oligotrophic/Eutrophic</t>
+  </si>
+  <si>
+    <t>Habitat</t>
+  </si>
+  <si>
+    <t>Substrate</t>
+  </si>
+  <si>
+    <t>surface</t>
+  </si>
+  <si>
+    <t>subsurface</t>
+  </si>
+  <si>
+    <t>whole water column</t>
+  </si>
+  <si>
+    <t>benthic</t>
+  </si>
+  <si>
+    <t>Surface/Subsurface</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>County</t>
+  </si>
+  <si>
+    <t>Municipality</t>
+  </si>
+  <si>
+    <t>Locality</t>
+  </si>
+  <si>
+    <t>Gazetteer</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>units</t>
+  </si>
+  <si>
+    <t>Salinity</t>
+  </si>
+  <si>
+    <t>Nutrient</t>
+  </si>
+  <si>
+    <t>type</t>
   </si>
 </sst>
 </file>
@@ -4967,10 +5010,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CN189"/>
+  <dimension ref="A1:CM189"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="BM1" workbookViewId="0">
-      <selection activeCell="AQ5" sqref="AQ5"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4978,7 +5021,7 @@
     <col min="1" max="1" width="13.83203125" style="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" style="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" style="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.6640625" style="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.6640625" style="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.5" style="13" bestFit="1" customWidth="1"/>
@@ -4989,13 +5032,13 @@
     <col min="16" max="16" width="13.5" style="13" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16.1640625" style="13" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="20.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.83203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.1640625" style="13" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="15.83203125" style="13" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="13.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.83203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.6640625" style="13" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="34.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.1640625" style="13" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="18.83203125" style="13" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="24.33203125" style="13" bestFit="1" customWidth="1"/>
     <col min="28" max="29" width="18.83203125" style="13" bestFit="1" customWidth="1"/>
@@ -5017,54 +5060,52 @@
     <col min="58" max="58" width="18" style="13" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="12.1640625" style="13" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="10.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="7.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="7.5" style="13" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="13.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="6.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="11" style="13"/>
+    <col min="63" max="63" width="6.83203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="11.1640625" style="13" bestFit="1" customWidth="1"/>
     <col min="65" max="65" width="5.83203125" style="13" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="11.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="6.83203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="7.33203125" style="13" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="10.1640625" style="13" bestFit="1" customWidth="1"/>
     <col min="69" max="69" width="17.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="6.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="9.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="7.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="19.83203125" style="13" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="18.83203125" style="13" bestFit="1" customWidth="1"/>
     <col min="73" max="73" width="21.33203125" style="13" bestFit="1" customWidth="1"/>
     <col min="74" max="74" width="21.5" style="13" bestFit="1" customWidth="1"/>
     <col min="75" max="75" width="13.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="15.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="19.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="19" style="13" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="16.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="17.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="14.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="19.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="19" style="13" bestFit="1" customWidth="1"/>
     <col min="80" max="80" width="17" style="13" bestFit="1" customWidth="1"/>
     <col min="81" max="81" width="19" style="13" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="16.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="20.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="17.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="16.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="19.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="18.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="17.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="16.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="19.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="16.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="93" max="16384" width="11" style="13"/>
+    <col min="82" max="82" width="16.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="17" style="13" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="16.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="19" style="13" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="18.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="17" style="13" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="16.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="19" style="13" bestFit="1" customWidth="1"/>
+    <col min="90" max="91" width="14.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="92" max="16384" width="11" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:92" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:91" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>1066</v>
       </c>
       <c r="E1" s="19"/>
       <c r="H1" s="7" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="P1" s="6" t="s">
         <v>12</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="X1" s="6" t="s">
         <v>1071</v>
@@ -5073,18 +5114,18 @@
         <v>1078</v>
       </c>
       <c r="AO1" s="6" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="AZ1" s="6" t="s">
-        <v>1084</v>
-      </c>
-      <c r="BY1" s="6" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:92" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1083</v>
+      </c>
+      <c r="BZ1" s="6" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:91" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>1473</v>
+        <v>1456</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>0</v>
@@ -5093,7 +5134,7 @@
         <v>1067</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>1398</v>
+        <v>1464</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>1068</v>
@@ -5102,49 +5143,49 @@
         <v>1069</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>1450</v>
+        <v>1439</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>1451</v>
+        <v>1440</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>1452</v>
+        <v>1441</v>
       </c>
       <c r="P2" s="8" t="s">
         <v>1070</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="R2" s="8" t="s">
-        <v>1117</v>
+        <v>1112</v>
       </c>
       <c r="S2" s="8" t="s">
-        <v>1453</v>
+        <v>1471</v>
       </c>
       <c r="T2" s="8" t="s">
-        <v>1454</v>
+        <v>1472</v>
       </c>
       <c r="U2" s="8" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="V2" s="8" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="W2" s="8" t="s">
-        <v>1455</v>
+        <v>1465</v>
       </c>
       <c r="X2" s="8" t="s">
-        <v>1120</v>
+        <v>1114</v>
       </c>
       <c r="Y2" s="8" t="s">
-        <v>1107</v>
+        <v>1465</v>
       </c>
       <c r="Z2" s="8" t="s">
         <v>1074</v>
@@ -5174,564 +5215,570 @@
         <v>1081</v>
       </c>
       <c r="AI2" s="8" t="s">
-        <v>1458</v>
+        <v>1444</v>
       </c>
       <c r="AJ2" s="8" t="s">
-        <v>1461</v>
+        <v>1447</v>
       </c>
       <c r="AO2" s="8" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
       <c r="AP2" s="8" t="s">
+        <v>1085</v>
+      </c>
+      <c r="AQ2" s="8" t="s">
         <v>1086</v>
       </c>
-      <c r="AQ2" s="8" t="s">
+      <c r="AR2" s="8" t="s">
         <v>1087</v>
       </c>
-      <c r="AR2" s="8" t="s">
+      <c r="AS2" s="8" t="s">
         <v>1088</v>
       </c>
-      <c r="AS2" s="8" t="s">
+      <c r="AT2" s="8" t="s">
         <v>1089</v>
       </c>
-      <c r="AT2" s="8" t="s">
+      <c r="AU2" s="8" t="s">
         <v>1090</v>
       </c>
-      <c r="AU2" s="8" t="s">
+      <c r="AV2" s="8" t="s">
         <v>1091</v>
       </c>
-      <c r="AV2" s="8" t="s">
+      <c r="AW2" s="8" t="s">
         <v>1092</v>
       </c>
-      <c r="AW2" s="8" t="s">
+      <c r="AX2" s="8" t="s">
         <v>1093</v>
       </c>
-      <c r="AX2" s="8" t="s">
+      <c r="AY2" s="8" t="s">
         <v>1094</v>
       </c>
-      <c r="AY2" s="8" t="s">
+      <c r="AZ2" s="8" t="s">
+        <v>1448</v>
+      </c>
+      <c r="BA2" s="8" t="s">
+        <v>1096</v>
+      </c>
+      <c r="BB2" s="8" t="s">
         <v>1095</v>
       </c>
-      <c r="AZ2" s="8" t="s">
-        <v>1462</v>
-      </c>
-      <c r="BA2" s="8" t="s">
+      <c r="BC2" s="8" t="s">
+        <v>1450</v>
+      </c>
+      <c r="BD2" s="8" t="s">
+        <v>1449</v>
+      </c>
+      <c r="BE2" s="8" t="s">
         <v>1097</v>
       </c>
-      <c r="BB2" s="8" t="s">
-        <v>1096</v>
-      </c>
-      <c r="BC2" s="8" t="s">
-        <v>1464</v>
-      </c>
-      <c r="BD2" s="8" t="s">
-        <v>1463</v>
-      </c>
-      <c r="BE2" s="8" t="s">
+      <c r="BF2" s="8" t="s">
+        <v>1451</v>
+      </c>
+      <c r="BG2" s="8" t="s">
         <v>1098</v>
       </c>
-      <c r="BF2" s="8" t="s">
+      <c r="BH2" s="8" t="s">
+        <v>1452</v>
+      </c>
+      <c r="BI2" s="8" t="s">
+        <v>1483</v>
+      </c>
+      <c r="BJ2" s="8" t="s">
+        <v>1099</v>
+      </c>
+      <c r="BK2" s="8" t="s">
+        <v>1484</v>
+      </c>
+      <c r="BL2" s="8" t="s">
+        <v>1485</v>
+      </c>
+      <c r="BM2" s="8" t="s">
+        <v>1404</v>
+      </c>
+      <c r="BN2" s="8" t="s">
+        <v>1100</v>
+      </c>
+      <c r="BO2" s="8" t="s">
+        <v>1486</v>
+      </c>
+      <c r="BP2" s="8" t="s">
+        <v>1101</v>
+      </c>
+      <c r="BQ2" s="8" t="s">
+        <v>1487</v>
+      </c>
+      <c r="BR2" s="8" t="s">
+        <v>1476</v>
+      </c>
+      <c r="BS2" s="8" t="s">
+        <v>1475</v>
+      </c>
+      <c r="BT2" s="8" t="s">
+        <v>1477</v>
+      </c>
+      <c r="BU2" s="8" t="s">
+        <v>1102</v>
+      </c>
+      <c r="BV2" s="8" t="s">
+        <v>1103</v>
+      </c>
+      <c r="BW2" s="8" t="s">
+        <v>1453</v>
+      </c>
+      <c r="BX2" s="8" t="s">
+        <v>1482</v>
+      </c>
+      <c r="BY2" s="8" t="s">
         <v>1465</v>
       </c>
-      <c r="BG2" s="8" t="s">
-        <v>1099</v>
-      </c>
-      <c r="BH2" s="8" t="s">
-        <v>1466</v>
-      </c>
-      <c r="BI2" s="8" t="s">
-        <v>1406</v>
-      </c>
-      <c r="BJ2" s="8" t="s">
-        <v>1100</v>
-      </c>
-      <c r="BK2" s="8" t="s">
-        <v>1408</v>
-      </c>
-      <c r="BL2" s="8" t="s">
-        <v>1409</v>
-      </c>
-      <c r="BM2" s="8" t="s">
-        <v>1410</v>
-      </c>
-      <c r="BN2" s="8" t="s">
-        <v>1101</v>
-      </c>
-      <c r="BO2" s="8" t="s">
-        <v>1412</v>
-      </c>
-      <c r="BP2" s="8" t="s">
-        <v>1102</v>
-      </c>
-      <c r="BQ2" s="8" t="s">
-        <v>1467</v>
-      </c>
-      <c r="BR2" s="8" t="s">
-        <v>1413</v>
-      </c>
-      <c r="BS2" s="8" t="s">
-        <v>1468</v>
-      </c>
-      <c r="BT2" s="8" t="s">
-        <v>1417</v>
-      </c>
-      <c r="BU2" s="8" t="s">
-        <v>1103</v>
-      </c>
-      <c r="BV2" s="8" t="s">
-        <v>1104</v>
-      </c>
-      <c r="BW2" s="8" t="s">
-        <v>1469</v>
-      </c>
-      <c r="BX2" s="8" t="s">
-        <v>1119</v>
-      </c>
-      <c r="BY2" s="8" t="s">
-        <v>1112</v>
-      </c>
       <c r="BZ2" s="8" t="s">
-        <v>1447</v>
-      </c>
-      <c r="CA2" s="8" t="s">
-        <v>1448</v>
+        <v>1488</v>
       </c>
       <c r="CB2" s="8" t="s">
-        <v>1113</v>
-      </c>
-      <c r="CC2" s="8" t="s">
-        <v>1114</v>
-      </c>
-      <c r="CD2" s="8" t="s">
-        <v>1449</v>
-      </c>
-      <c r="CE2" s="10" t="s">
-        <v>1471</v>
-      </c>
-      <c r="CI2" s="8" t="s">
-        <v>1472</v>
+        <v>1492</v>
+      </c>
+      <c r="CD2" s="10" t="s">
+        <v>1493</v>
+      </c>
+      <c r="CH2" s="8" t="s">
+        <v>1455</v>
+      </c>
+      <c r="CL2" s="8" t="s">
+        <v>1110</v>
       </c>
       <c r="CM2" s="8" t="s">
-        <v>1115</v>
-      </c>
-      <c r="CN2" s="8" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="3" spans="1:92" s="10" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="3" spans="1:91" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E3" s="8"/>
       <c r="H3" s="11"/>
       <c r="J3" s="12" t="s">
+        <v>1397</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>1398</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>1399</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>1397</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>1398</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>1399</v>
+      </c>
+      <c r="X3" s="10" t="s">
+        <v>1442</v>
+      </c>
+      <c r="AJ3" s="8" t="s">
+        <v>1445</v>
+      </c>
+      <c r="AK3" s="8" t="s">
+        <v>1111</v>
+      </c>
+      <c r="AL3" s="8" t="s">
+        <v>1115</v>
+      </c>
+      <c r="AM3" s="8" t="s">
+        <v>1116</v>
+      </c>
+      <c r="AN3" s="8" t="s">
+        <v>1446</v>
+      </c>
+      <c r="BZ3" s="8" t="s">
+        <v>1489</v>
+      </c>
+      <c r="CA3" s="8" t="s">
+        <v>1490</v>
+      </c>
+      <c r="CB3" s="10" t="s">
+        <v>1489</v>
+      </c>
+      <c r="CC3" s="10" t="s">
+        <v>1490</v>
+      </c>
+      <c r="CD3" s="10" t="s">
+        <v>1494</v>
+      </c>
+      <c r="CE3" s="10" t="s">
+        <v>1489</v>
+      </c>
+      <c r="CF3" s="10" t="s">
+        <v>1491</v>
+      </c>
+      <c r="CG3" s="10" t="s">
+        <v>1490</v>
+      </c>
+      <c r="CH3" s="10" t="s">
+        <v>1494</v>
+      </c>
+      <c r="CI3" s="10" t="s">
+        <v>1489</v>
+      </c>
+      <c r="CJ3" s="10" t="s">
+        <v>1491</v>
+      </c>
+      <c r="CK3" s="10" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="4" spans="1:91" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="20" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>1392</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>1393</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>1393</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>1394</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>1395</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>1396</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>1395</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>1395</v>
+      </c>
+      <c r="L4" s="22" t="s">
+        <v>1395</v>
+      </c>
+      <c r="M4" s="22" t="s">
+        <v>1395</v>
+      </c>
+      <c r="N4" s="22" t="s">
+        <v>1395</v>
+      </c>
+      <c r="O4" s="22" t="s">
+        <v>1395</v>
+      </c>
+      <c r="P4" s="21" t="s">
+        <v>1411</v>
+      </c>
+      <c r="Q4" s="21" t="s">
+        <v>1412</v>
+      </c>
+      <c r="R4" s="21" t="s">
+        <v>1413</v>
+      </c>
+      <c r="S4" s="21" t="s">
+        <v>1414</v>
+      </c>
+      <c r="T4" s="21" t="s">
+        <v>1415</v>
+      </c>
+      <c r="U4" s="21" t="s">
+        <v>1416</v>
+      </c>
+      <c r="V4" s="21" t="s">
+        <v>1417</v>
+      </c>
+      <c r="W4" s="21" t="s">
+        <v>1418</v>
+      </c>
+      <c r="X4" s="21" t="s">
+        <v>1419</v>
+      </c>
+      <c r="Y4" s="20" t="s">
+        <v>1420</v>
+      </c>
+      <c r="Z4" s="20" t="s">
+        <v>1443</v>
+      </c>
+      <c r="AA4" s="20" t="s">
+        <v>1443</v>
+      </c>
+      <c r="AB4" s="20" t="s">
+        <v>1443</v>
+      </c>
+      <c r="AC4" s="20" t="s">
+        <v>1443</v>
+      </c>
+      <c r="AD4" s="20" t="s">
+        <v>1443</v>
+      </c>
+      <c r="AE4" s="20" t="s">
+        <v>1443</v>
+      </c>
+      <c r="AF4" s="20" t="s">
+        <v>1443</v>
+      </c>
+      <c r="AG4" s="20" t="s">
+        <v>1443</v>
+      </c>
+      <c r="AH4" s="20" t="s">
+        <v>1443</v>
+      </c>
+      <c r="AI4" s="20" t="s">
+        <v>1443</v>
+      </c>
+      <c r="AJ4" s="21" t="s">
+        <v>1421</v>
+      </c>
+      <c r="AK4" s="21" t="s">
+        <v>1422</v>
+      </c>
+      <c r="AL4" s="21" t="s">
+        <v>1423</v>
+      </c>
+      <c r="AM4" s="21" t="s">
+        <v>1424</v>
+      </c>
+      <c r="AN4" s="21" t="s">
+        <v>1425</v>
+      </c>
+      <c r="AO4" s="20" t="s">
+        <v>1443</v>
+      </c>
+      <c r="AP4" s="20" t="s">
+        <v>1443</v>
+      </c>
+      <c r="AQ4" s="20" t="s">
+        <v>1443</v>
+      </c>
+      <c r="AR4" s="20" t="s">
+        <v>1443</v>
+      </c>
+      <c r="AS4" s="20" t="s">
+        <v>1443</v>
+      </c>
+      <c r="AT4" s="20" t="s">
+        <v>1443</v>
+      </c>
+      <c r="AU4" s="20" t="s">
+        <v>1443</v>
+      </c>
+      <c r="AV4" s="20" t="s">
+        <v>1443</v>
+      </c>
+      <c r="AW4" s="20" t="s">
+        <v>1443</v>
+      </c>
+      <c r="AX4" s="20" t="s">
+        <v>1443</v>
+      </c>
+      <c r="AY4" s="20" t="s">
+        <v>1443</v>
+      </c>
+      <c r="AZ4" s="21" t="s">
+        <v>1426</v>
+      </c>
+      <c r="BA4" s="21" t="s">
+        <v>1428</v>
+      </c>
+      <c r="BB4" s="21" t="s">
+        <v>1427</v>
+      </c>
+      <c r="BC4" s="21" t="s">
+        <v>1429</v>
+      </c>
+      <c r="BD4" s="21" t="s">
+        <v>1430</v>
+      </c>
+      <c r="BE4" s="21" t="s">
+        <v>1431</v>
+      </c>
+      <c r="BF4" s="21" t="s">
+        <v>1372</v>
+      </c>
+      <c r="BG4" s="21" t="s">
+        <v>1433</v>
+      </c>
+      <c r="BH4" s="21" t="s">
+        <v>1434</v>
+      </c>
+      <c r="BI4" s="21" t="s">
+        <v>1400</v>
+      </c>
+      <c r="BJ4" s="21" t="s">
+        <v>1401</v>
+      </c>
+      <c r="BK4" s="21" t="s">
+        <v>1402</v>
+      </c>
+      <c r="BL4" s="21" t="s">
         <v>1403</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="BM4" s="21" t="s">
         <v>1404</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="BN4" s="21" t="s">
         <v>1405</v>
       </c>
-      <c r="M3" s="12" t="s">
-        <v>1403</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>1404</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>1405</v>
-      </c>
-      <c r="X3" s="10" t="s">
-        <v>1456</v>
-      </c>
-      <c r="AJ3" s="8" t="s">
-        <v>1459</v>
-      </c>
-      <c r="AK3" s="8" t="s">
-        <v>1116</v>
-      </c>
-      <c r="AL3" s="8" t="s">
-        <v>1121</v>
-      </c>
-      <c r="AM3" s="8" t="s">
-        <v>1122</v>
-      </c>
-      <c r="AN3" s="8" t="s">
-        <v>1460</v>
-      </c>
-      <c r="CE3" s="10" t="s">
-        <v>1459</v>
-      </c>
-      <c r="CF3" s="10" t="s">
-        <v>1121</v>
-      </c>
-      <c r="CG3" s="10" t="s">
-        <v>1122</v>
-      </c>
-      <c r="CH3" s="10" t="s">
-        <v>1116</v>
-      </c>
-      <c r="CI3" s="10" t="s">
-        <v>1459</v>
-      </c>
-      <c r="CJ3" s="10" t="s">
-        <v>1121</v>
-      </c>
-      <c r="CK3" s="10" t="s">
-        <v>1122</v>
-      </c>
-      <c r="CL3" s="10" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:92" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
-        <v>1440</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>1418</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>1418</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>1398</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>1399</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>1399</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>1400</v>
-      </c>
-      <c r="H4" s="22" t="s">
-        <v>1401</v>
-      </c>
-      <c r="I4" s="21" t="s">
-        <v>1402</v>
-      </c>
-      <c r="J4" s="22" t="s">
-        <v>1401</v>
-      </c>
-      <c r="K4" s="22" t="s">
-        <v>1401</v>
-      </c>
-      <c r="L4" s="22" t="s">
-        <v>1401</v>
-      </c>
-      <c r="M4" s="22" t="s">
-        <v>1401</v>
-      </c>
-      <c r="N4" s="22" t="s">
-        <v>1401</v>
-      </c>
-      <c r="O4" s="22" t="s">
-        <v>1401</v>
-      </c>
-      <c r="P4" s="21" t="s">
-        <v>1419</v>
-      </c>
-      <c r="Q4" s="21" t="s">
+      <c r="BO4" s="21" t="s">
+        <v>1406</v>
+      </c>
+      <c r="BP4" s="21" t="s">
+        <v>1435</v>
+      </c>
+      <c r="BQ4" s="20" t="s">
+        <v>1436</v>
+      </c>
+      <c r="BR4" s="21" t="s">
+        <v>1407</v>
+      </c>
+      <c r="BS4" s="21" t="s">
+        <v>1438</v>
+      </c>
+      <c r="BT4" s="20" t="s">
+        <v>1443</v>
+      </c>
+      <c r="BU4" s="21" t="s">
+        <v>1408</v>
+      </c>
+      <c r="BV4" s="21" t="s">
+        <v>1437</v>
+      </c>
+      <c r="BW4" s="21" t="s">
+        <v>1409</v>
+      </c>
+      <c r="BX4" s="21" t="s">
         <v>1420</v>
       </c>
-      <c r="R4" s="21" t="s">
+      <c r="BY4" s="21" t="s">
+        <v>1438</v>
+      </c>
+      <c r="BZ4" s="20" t="s">
+        <v>1423</v>
+      </c>
+      <c r="CA4" s="20" t="s">
+        <v>1422</v>
+      </c>
+      <c r="CB4" s="20" t="s">
+        <v>1423</v>
+      </c>
+      <c r="CC4" s="20" t="s">
+        <v>1422</v>
+      </c>
+      <c r="CD4" s="21" t="s">
         <v>1421</v>
       </c>
-      <c r="S4" s="21" t="s">
+      <c r="CE4" s="21" t="s">
+        <v>1423</v>
+      </c>
+      <c r="CF4" s="21" t="s">
+        <v>1454</v>
+      </c>
+      <c r="CG4" s="21" t="s">
         <v>1422</v>
       </c>
-      <c r="T4" s="21" t="s">
+      <c r="CH4" s="21" t="s">
+        <v>1421</v>
+      </c>
+      <c r="CI4" s="21" t="s">
         <v>1423</v>
       </c>
-      <c r="U4" s="21" t="s">
-        <v>1424</v>
-      </c>
-      <c r="V4" s="21" t="s">
-        <v>1425</v>
-      </c>
-      <c r="W4" s="21" t="s">
-        <v>1426</v>
-      </c>
-      <c r="X4" s="21" t="s">
-        <v>1427</v>
-      </c>
-      <c r="Y4" s="20" t="s">
-        <v>1428</v>
-      </c>
-      <c r="Z4" s="20" t="s">
-        <v>1457</v>
-      </c>
-      <c r="AA4" s="20" t="s">
-        <v>1457</v>
-      </c>
-      <c r="AB4" s="20" t="s">
-        <v>1457</v>
-      </c>
-      <c r="AC4" s="20" t="s">
-        <v>1457</v>
-      </c>
-      <c r="AD4" s="20" t="s">
-        <v>1457</v>
-      </c>
-      <c r="AE4" s="20" t="s">
-        <v>1457</v>
-      </c>
-      <c r="AF4" s="20" t="s">
-        <v>1457</v>
-      </c>
-      <c r="AG4" s="20" t="s">
-        <v>1457</v>
-      </c>
-      <c r="AH4" s="20" t="s">
-        <v>1457</v>
-      </c>
-      <c r="AI4" s="20" t="s">
-        <v>1457</v>
-      </c>
-      <c r="AJ4" s="21" t="s">
-        <v>1429</v>
-      </c>
-      <c r="AK4" s="21" t="s">
-        <v>1430</v>
-      </c>
-      <c r="AL4" s="21" t="s">
-        <v>1431</v>
-      </c>
-      <c r="AM4" s="21" t="s">
-        <v>1432</v>
-      </c>
-      <c r="AN4" s="21" t="s">
-        <v>1433</v>
-      </c>
-      <c r="AO4" s="20" t="s">
-        <v>1457</v>
-      </c>
-      <c r="AP4" s="20" t="s">
-        <v>1457</v>
-      </c>
-      <c r="AQ4" s="20" t="s">
-        <v>1457</v>
-      </c>
-      <c r="AR4" s="20" t="s">
-        <v>1457</v>
-      </c>
-      <c r="AS4" s="20" t="s">
-        <v>1457</v>
-      </c>
-      <c r="AT4" s="20" t="s">
-        <v>1457</v>
-      </c>
-      <c r="AU4" s="20" t="s">
-        <v>1457</v>
-      </c>
-      <c r="AV4" s="20" t="s">
-        <v>1457</v>
-      </c>
-      <c r="AW4" s="20" t="s">
-        <v>1457</v>
-      </c>
-      <c r="AX4" s="20" t="s">
-        <v>1457</v>
-      </c>
-      <c r="AY4" s="20" t="s">
-        <v>1457</v>
-      </c>
-      <c r="AZ4" s="21" t="s">
-        <v>1434</v>
-      </c>
-      <c r="BA4" s="21" t="s">
-        <v>1436</v>
-      </c>
-      <c r="BB4" s="21" t="s">
-        <v>1435</v>
-      </c>
-      <c r="BC4" s="21" t="s">
-        <v>1437</v>
-      </c>
-      <c r="BD4" s="21" t="s">
+      <c r="CJ4" s="21" t="s">
+        <v>1454</v>
+      </c>
+      <c r="CK4" s="21" t="s">
+        <v>1422</v>
+      </c>
+      <c r="CL4" s="20" t="s">
         <v>1438</v>
       </c>
-      <c r="BE4" s="21" t="s">
-        <v>1439</v>
-      </c>
-      <c r="BF4" s="21" t="s">
-        <v>1378</v>
-      </c>
-      <c r="BG4" s="21" t="s">
-        <v>1441</v>
-      </c>
-      <c r="BH4" s="21" t="s">
-        <v>1442</v>
-      </c>
-      <c r="BI4" s="21" t="s">
-        <v>1406</v>
-      </c>
-      <c r="BJ4" s="21" t="s">
-        <v>1407</v>
-      </c>
-      <c r="BK4" s="21" t="s">
-        <v>1408</v>
-      </c>
-      <c r="BL4" s="21" t="s">
-        <v>1409</v>
-      </c>
-      <c r="BM4" s="21" t="s">
-        <v>1410</v>
-      </c>
-      <c r="BN4" s="21" t="s">
-        <v>1411</v>
-      </c>
-      <c r="BO4" s="21" t="s">
-        <v>1412</v>
-      </c>
-      <c r="BP4" s="21" t="s">
-        <v>1443</v>
-      </c>
-      <c r="BQ4" s="20" t="s">
-        <v>1444</v>
-      </c>
-      <c r="BR4" s="21" t="s">
-        <v>1413</v>
-      </c>
-      <c r="BS4" s="21" t="s">
-        <v>1414</v>
-      </c>
-      <c r="BT4" s="20" t="s">
-        <v>1457</v>
-      </c>
-      <c r="BU4" s="21" t="s">
-        <v>1415</v>
-      </c>
-      <c r="BV4" s="21" t="s">
-        <v>1445</v>
-      </c>
-      <c r="BW4" s="21" t="s">
-        <v>1416</v>
-      </c>
-      <c r="BX4" s="21" t="s">
-        <v>1446</v>
-      </c>
-      <c r="BY4" s="20" t="s">
-        <v>1431</v>
-      </c>
-      <c r="BZ4" s="20" t="s">
-        <v>1430</v>
-      </c>
-      <c r="CA4" s="20" t="s">
-        <v>1470</v>
-      </c>
-      <c r="CB4" s="20" t="s">
-        <v>1431</v>
-      </c>
-      <c r="CC4" s="20" t="s">
-        <v>1430</v>
-      </c>
-      <c r="CD4" s="20" t="s">
-        <v>1470</v>
-      </c>
-      <c r="CE4" s="21" t="s">
-        <v>1429</v>
-      </c>
-      <c r="CF4" s="21" t="s">
-        <v>1431</v>
-      </c>
-      <c r="CG4" s="21" t="s">
-        <v>1432</v>
-      </c>
-      <c r="CH4" s="21" t="s">
-        <v>1430</v>
-      </c>
-      <c r="CI4" s="21" t="s">
-        <v>1429</v>
-      </c>
-      <c r="CJ4" s="21" t="s">
-        <v>1431</v>
-      </c>
-      <c r="CK4" s="21" t="s">
-        <v>1432</v>
-      </c>
-      <c r="CL4" s="21" t="s">
-        <v>1430</v>
-      </c>
-    </row>
-    <row r="5" spans="1:92" x14ac:dyDescent="0.2">
+      <c r="CM4" s="20" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="5" spans="1:91" x14ac:dyDescent="0.2">
       <c r="D5" s="15"/>
       <c r="AY5" s="18"/>
       <c r="AZ5" s="18"/>
       <c r="BA5" s="18"/>
       <c r="BB5" s="18"/>
     </row>
-    <row r="6" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:91" x14ac:dyDescent="0.2">
       <c r="D6" s="15"/>
       <c r="AY6" s="18"/>
       <c r="AZ6" s="18"/>
       <c r="BA6" s="18"/>
       <c r="BB6" s="18"/>
     </row>
-    <row r="7" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:91" x14ac:dyDescent="0.2">
       <c r="D7" s="15"/>
       <c r="AY7" s="18"/>
       <c r="AZ7" s="18"/>
       <c r="BA7" s="18"/>
       <c r="BB7" s="18"/>
     </row>
-    <row r="8" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:91" x14ac:dyDescent="0.2">
       <c r="D8" s="15"/>
       <c r="AY8" s="18"/>
       <c r="AZ8" s="18"/>
       <c r="BA8" s="18"/>
       <c r="BB8" s="18"/>
     </row>
-    <row r="9" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:91" x14ac:dyDescent="0.2">
       <c r="D9" s="15"/>
       <c r="AY9" s="18"/>
       <c r="AZ9" s="18"/>
       <c r="BA9" s="18"/>
       <c r="BB9" s="18"/>
     </row>
-    <row r="10" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:91" x14ac:dyDescent="0.2">
       <c r="D10" s="15"/>
       <c r="AY10" s="18"/>
       <c r="AZ10" s="18"/>
       <c r="BA10" s="18"/>
       <c r="BB10" s="18"/>
     </row>
-    <row r="11" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:91" x14ac:dyDescent="0.2">
       <c r="D11" s="15"/>
       <c r="AY11" s="18"/>
       <c r="AZ11" s="18"/>
       <c r="BA11" s="18"/>
       <c r="BB11" s="18"/>
     </row>
-    <row r="12" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:91" x14ac:dyDescent="0.2">
       <c r="D12" s="15"/>
       <c r="AY12" s="18"/>
       <c r="AZ12" s="18"/>
       <c r="BA12" s="18"/>
       <c r="BB12" s="18"/>
     </row>
-    <row r="13" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:91" x14ac:dyDescent="0.2">
       <c r="D13" s="15"/>
       <c r="AY13" s="18"/>
       <c r="AZ13" s="18"/>
       <c r="BA13" s="18"/>
       <c r="BB13" s="18"/>
     </row>
-    <row r="14" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:91" x14ac:dyDescent="0.2">
       <c r="D14" s="15"/>
       <c r="AY14" s="18"/>
       <c r="AZ14" s="18"/>
       <c r="BA14" s="18"/>
       <c r="BB14" s="18"/>
     </row>
-    <row r="15" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:91" x14ac:dyDescent="0.2">
       <c r="D15" s="15"/>
       <c r="AY15" s="18"/>
       <c r="AZ15" s="18"/>
       <c r="BA15" s="18"/>
       <c r="BB15" s="18"/>
     </row>
-    <row r="16" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:91" x14ac:dyDescent="0.2">
       <c r="D16" s="15"/>
       <c r="AY16" s="18"/>
       <c r="AZ16" s="18"/>
@@ -6922,19 +6969,62 @@
       <c r="D189" s="15"/>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W5:W189">
-      <formula1>"yes, no, ND"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y5:Y189">
-      <formula1>"coloured, transparent"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD5:AD183">
-      <formula1>"yes, no"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>regions!$A$2:$A$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>B5:B1297</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>lists!$A$1:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>Z5:Z1217</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>lists!$B$1:$B$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>AB5:AB1159</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>lists!$A$1:$A$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>AF5:AF1184</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>toxins!$A$2:$A$246</xm:f>
+          </x14:formula1>
+          <xm:sqref>AG5:AG1236</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>syndromes!$A$1:$A$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>AH5:AH1268</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>lists!$C$1:$C$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>BS5:BS1108</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>lists!$D$1:$D$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>BX5:BX1269</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6954,10 +7044,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>1474</v>
+        <v>1457</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>1475</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -31769,7 +31859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A246"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A230" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -31785,1227 +31875,1227 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1126</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1127</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1128</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1129</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1130</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1131</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1133</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1134</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1135</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1136</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1137</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1138</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1139</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1140</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1145</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1147</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>1149</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>1153</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>1158</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>1159</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>1160</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>1161</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>1162</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>1164</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>1165</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>1166</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>1167</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>1168</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>1170</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>1171</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>1172</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>1173</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>1174</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>1176</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>1177</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>1185</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>1186</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>1188</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>1192</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>1193</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>1194</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>1195</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>1196</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>1197</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>1200</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>1202</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>1203</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>1205</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>1206</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>1207</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>1208</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>1209</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>1210</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>1211</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>1216</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>1222</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>1225</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>1227</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>1228</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>1229</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>1230</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>1231</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>1232</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>1233</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>1243</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>1244</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>1245</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>1246</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>1247</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>1249</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>1250</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>1251</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>1252</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>1253</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>1254</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>1255</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>1256</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>1257</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>1259</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>1261</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>1262</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>1263</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>1264</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>1265</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>1266</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>1267</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>1268</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>1269</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>1270</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>1271</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>1272</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>1273</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>1274</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>1278</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>1279</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>1280</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>1281</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>1282</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>1283</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>1284</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>1285</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>1286</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>1287</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>1288</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>1289</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>1290</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>1291</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>1292</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>1293</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>1294</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>1295</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>1296</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>1297</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>1298</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>1299</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>1302</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>1304</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>1306</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>1307</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>1308</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>1310</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>1311</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>1312</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>1313</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>1314</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>1315</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>1316</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>1317</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>1318</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>1319</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>1320</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>1321</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>1322</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>1323</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>1324</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>1325</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>1326</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>1327</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>1328</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>1329</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>1330</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>1331</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>1332</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>1333</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>1334</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>1335</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>1338</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>1339</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>1340</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>1341</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>1344</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>1345</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>1346</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>1347</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>1348</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>1349</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>1351</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>1352</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>1353</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>1354</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>1355</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>1356</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>1357</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>1358</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>1359</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>1360</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>1361</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>1362</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>1363</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>1364</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>1365</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>1366</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>1367</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>1368</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>1369</v>
+        <v>1363</v>
       </c>
     </row>
   </sheetData>
@@ -33028,42 +33118,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1370</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1371</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1372</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1373</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1374</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1375</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1376</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1377</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
@@ -33080,7 +33170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -33092,100 +33182,100 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1479</v>
+        <v>1462</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1480</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1381</v>
+        <v>1375</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1380</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1382</v>
+        <v>1376</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1379</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1478</v>
+        <v>1461</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1477</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1384</v>
+        <v>1378</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1383</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1385</v>
+        <v>1379</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>1386</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1476</v>
+        <v>1459</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>1389</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1387</v>
+        <v>1381</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>1388</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1393</v>
+        <v>1387</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1394</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1391</v>
+        <v>1385</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>1392</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1390</v>
+        <v>1384</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>1395</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B19" s="5" t="s">
-        <v>1397</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B20" s="5" t="s">
-        <v>1396</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="23" x14ac:dyDescent="0.2">
@@ -33209,4 +33299,60 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1474</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/template.xlsx
+++ b/template.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6652" uniqueCount="1495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6650" uniqueCount="1494">
   <si>
     <t>HAB region</t>
   </si>
@@ -4368,9 +4368,6 @@
   </si>
   <si>
     <t>Transvector</t>
-  </si>
-  <si>
-    <t>Measurement type</t>
   </si>
   <si>
     <t>Measurement remarks</t>
@@ -5010,10 +5007,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CM189"/>
+  <dimension ref="A1:CL189"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AJ7" sqref="AJ7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5045,55 +5042,54 @@
     <col min="30" max="30" width="22.6640625" style="13" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="24.1640625" style="13" bestFit="1" customWidth="1"/>
     <col min="32" max="35" width="18.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="19.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="19.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="17.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="16.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="19.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="41" max="51" width="18.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="14.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="14.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="15.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="15.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="16.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="26.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="18" style="13" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="12.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="10.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="7.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="13.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="6.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="11.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="5.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="11.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="7.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="10.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="17.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="7.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="19.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="18.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="21.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="21.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="13.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="17.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="14.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="19.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="19" style="13" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="17" style="13" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="19" style="13" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="16.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="17" style="13" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="16.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="19" style="13" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="18.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="17" style="13" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="16.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="19" style="13" bestFit="1" customWidth="1"/>
-    <col min="90" max="91" width="14.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="92" max="16384" width="11" style="13"/>
+    <col min="36" max="36" width="19.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="17.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="19.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="40" max="50" width="18.83203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="14.83203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="14.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="15.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="15.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="16.83203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="26.83203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="18" style="13" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="12.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="10.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="7.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="13.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="6.83203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="11.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="5.83203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="11.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="7.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="10.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="17.83203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="7.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="19.83203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="18.83203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="21.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="21.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="13.83203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="17.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="14.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="19.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="19" style="13" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="17" style="13" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="19" style="13" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="16.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="17" style="13" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="16.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="19" style="13" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="18.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="17" style="13" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="16.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="19" style="13" bestFit="1" customWidth="1"/>
+    <col min="89" max="90" width="14.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="91" max="16384" width="11" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:91" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:90" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>1066</v>
       </c>
@@ -5113,19 +5109,19 @@
       <c r="AF1" s="6" t="s">
         <v>1078</v>
       </c>
-      <c r="AO1" s="6" t="s">
+      <c r="AN1" s="6" t="s">
         <v>1084</v>
       </c>
-      <c r="AZ1" s="6" t="s">
+      <c r="AY1" s="6" t="s">
         <v>1083</v>
       </c>
-      <c r="BZ1" s="6" t="s">
+      <c r="BY1" s="6" t="s">
         <v>1109</v>
       </c>
     </row>
-    <row r="2" spans="1:91" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:90" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>0</v>
@@ -5134,7 +5130,7 @@
         <v>1067</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>1068</v>
@@ -5167,10 +5163,10 @@
         <v>1112</v>
       </c>
       <c r="S2" s="8" t="s">
+        <v>1470</v>
+      </c>
+      <c r="T2" s="8" t="s">
         <v>1471</v>
-      </c>
-      <c r="T2" s="8" t="s">
-        <v>1472</v>
       </c>
       <c r="U2" s="8" t="s">
         <v>1107</v>
@@ -5179,13 +5175,13 @@
         <v>1108</v>
       </c>
       <c r="W2" s="8" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="X2" s="8" t="s">
         <v>1114</v>
       </c>
       <c r="Y2" s="8" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="Z2" s="8" t="s">
         <v>1074</v>
@@ -5218,139 +5214,139 @@
         <v>1444</v>
       </c>
       <c r="AJ2" s="8" t="s">
+        <v>1446</v>
+      </c>
+      <c r="AN2" s="8" t="s">
+        <v>1113</v>
+      </c>
+      <c r="AO2" s="8" t="s">
+        <v>1085</v>
+      </c>
+      <c r="AP2" s="8" t="s">
+        <v>1086</v>
+      </c>
+      <c r="AQ2" s="8" t="s">
+        <v>1087</v>
+      </c>
+      <c r="AR2" s="8" t="s">
+        <v>1088</v>
+      </c>
+      <c r="AS2" s="8" t="s">
+        <v>1089</v>
+      </c>
+      <c r="AT2" s="8" t="s">
+        <v>1090</v>
+      </c>
+      <c r="AU2" s="8" t="s">
+        <v>1091</v>
+      </c>
+      <c r="AV2" s="8" t="s">
+        <v>1092</v>
+      </c>
+      <c r="AW2" s="8" t="s">
+        <v>1093</v>
+      </c>
+      <c r="AX2" s="8" t="s">
+        <v>1094</v>
+      </c>
+      <c r="AY2" s="8" t="s">
         <v>1447</v>
       </c>
-      <c r="AO2" s="8" t="s">
-        <v>1113</v>
-      </c>
-      <c r="AP2" s="8" t="s">
-        <v>1085</v>
-      </c>
-      <c r="AQ2" s="8" t="s">
-        <v>1086</v>
-      </c>
-      <c r="AR2" s="8" t="s">
-        <v>1087</v>
-      </c>
-      <c r="AS2" s="8" t="s">
-        <v>1088</v>
-      </c>
-      <c r="AT2" s="8" t="s">
-        <v>1089</v>
-      </c>
-      <c r="AU2" s="8" t="s">
-        <v>1090</v>
-      </c>
-      <c r="AV2" s="8" t="s">
-        <v>1091</v>
-      </c>
-      <c r="AW2" s="8" t="s">
-        <v>1092</v>
-      </c>
-      <c r="AX2" s="8" t="s">
-        <v>1093</v>
-      </c>
-      <c r="AY2" s="8" t="s">
-        <v>1094</v>
-      </c>
       <c r="AZ2" s="8" t="s">
+        <v>1096</v>
+      </c>
+      <c r="BA2" s="8" t="s">
+        <v>1095</v>
+      </c>
+      <c r="BB2" s="8" t="s">
+        <v>1449</v>
+      </c>
+      <c r="BC2" s="8" t="s">
         <v>1448</v>
       </c>
-      <c r="BA2" s="8" t="s">
-        <v>1096</v>
-      </c>
-      <c r="BB2" s="8" t="s">
-        <v>1095</v>
-      </c>
-      <c r="BC2" s="8" t="s">
+      <c r="BD2" s="8" t="s">
+        <v>1097</v>
+      </c>
+      <c r="BE2" s="8" t="s">
         <v>1450</v>
       </c>
-      <c r="BD2" s="8" t="s">
-        <v>1449</v>
-      </c>
-      <c r="BE2" s="8" t="s">
-        <v>1097</v>
-      </c>
       <c r="BF2" s="8" t="s">
+        <v>1098</v>
+      </c>
+      <c r="BG2" s="8" t="s">
         <v>1451</v>
       </c>
-      <c r="BG2" s="8" t="s">
-        <v>1098</v>
-      </c>
       <c r="BH2" s="8" t="s">
-        <v>1452</v>
+        <v>1482</v>
       </c>
       <c r="BI2" s="8" t="s">
+        <v>1099</v>
+      </c>
+      <c r="BJ2" s="8" t="s">
         <v>1483</v>
-      </c>
-      <c r="BJ2" s="8" t="s">
-        <v>1099</v>
       </c>
       <c r="BK2" s="8" t="s">
         <v>1484</v>
       </c>
       <c r="BL2" s="8" t="s">
+        <v>1404</v>
+      </c>
+      <c r="BM2" s="8" t="s">
+        <v>1100</v>
+      </c>
+      <c r="BN2" s="8" t="s">
         <v>1485</v>
       </c>
-      <c r="BM2" s="8" t="s">
-        <v>1404</v>
-      </c>
-      <c r="BN2" s="8" t="s">
-        <v>1100</v>
-      </c>
       <c r="BO2" s="8" t="s">
+        <v>1101</v>
+      </c>
+      <c r="BP2" s="8" t="s">
         <v>1486</v>
       </c>
-      <c r="BP2" s="8" t="s">
-        <v>1101</v>
-      </c>
       <c r="BQ2" s="8" t="s">
+        <v>1475</v>
+      </c>
+      <c r="BR2" s="8" t="s">
+        <v>1474</v>
+      </c>
+      <c r="BS2" s="8" t="s">
+        <v>1476</v>
+      </c>
+      <c r="BT2" s="8" t="s">
+        <v>1102</v>
+      </c>
+      <c r="BU2" s="8" t="s">
+        <v>1103</v>
+      </c>
+      <c r="BV2" s="8" t="s">
+        <v>1452</v>
+      </c>
+      <c r="BW2" s="8" t="s">
+        <v>1481</v>
+      </c>
+      <c r="BX2" s="8" t="s">
+        <v>1464</v>
+      </c>
+      <c r="BY2" s="8" t="s">
         <v>1487</v>
       </c>
-      <c r="BR2" s="8" t="s">
-        <v>1476</v>
-      </c>
-      <c r="BS2" s="8" t="s">
-        <v>1475</v>
-      </c>
-      <c r="BT2" s="8" t="s">
-        <v>1477</v>
-      </c>
-      <c r="BU2" s="8" t="s">
-        <v>1102</v>
-      </c>
-      <c r="BV2" s="8" t="s">
-        <v>1103</v>
-      </c>
-      <c r="BW2" s="8" t="s">
-        <v>1453</v>
-      </c>
-      <c r="BX2" s="8" t="s">
-        <v>1482</v>
-      </c>
-      <c r="BY2" s="8" t="s">
-        <v>1465</v>
-      </c>
-      <c r="BZ2" s="8" t="s">
-        <v>1488</v>
-      </c>
-      <c r="CB2" s="8" t="s">
+      <c r="CA2" s="8" t="s">
+        <v>1491</v>
+      </c>
+      <c r="CC2" s="10" t="s">
         <v>1492</v>
       </c>
-      <c r="CD2" s="10" t="s">
-        <v>1493</v>
-      </c>
-      <c r="CH2" s="8" t="s">
-        <v>1455</v>
+      <c r="CG2" s="8" t="s">
+        <v>1454</v>
+      </c>
+      <c r="CK2" s="8" t="s">
+        <v>1110</v>
       </c>
       <c r="CL2" s="8" t="s">
-        <v>1110</v>
-      </c>
-      <c r="CM2" s="8" t="s">
-        <v>1465</v>
-      </c>
-    </row>
-    <row r="3" spans="1:91" s="10" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="3" spans="1:90" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E3" s="8"/>
       <c r="H3" s="11"/>
       <c r="J3" s="12" t="s">
@@ -5375,58 +5371,55 @@
         <v>1442</v>
       </c>
       <c r="AJ3" s="8" t="s">
+        <v>1111</v>
+      </c>
+      <c r="AK3" s="8" t="s">
+        <v>1115</v>
+      </c>
+      <c r="AL3" s="8" t="s">
+        <v>1116</v>
+      </c>
+      <c r="AM3" s="8" t="s">
         <v>1445</v>
       </c>
-      <c r="AK3" s="8" t="s">
-        <v>1111</v>
-      </c>
-      <c r="AL3" s="8" t="s">
-        <v>1115</v>
-      </c>
-      <c r="AM3" s="8" t="s">
-        <v>1116</v>
-      </c>
-      <c r="AN3" s="8" t="s">
-        <v>1446</v>
+      <c r="BY3" s="8" t="s">
+        <v>1488</v>
       </c>
       <c r="BZ3" s="8" t="s">
         <v>1489</v>
       </c>
-      <c r="CA3" s="8" t="s">
-        <v>1490</v>
+      <c r="CA3" s="10" t="s">
+        <v>1488</v>
       </c>
       <c r="CB3" s="10" t="s">
         <v>1489</v>
       </c>
       <c r="CC3" s="10" t="s">
+        <v>1493</v>
+      </c>
+      <c r="CD3" s="10" t="s">
+        <v>1488</v>
+      </c>
+      <c r="CE3" s="10" t="s">
         <v>1490</v>
       </c>
-      <c r="CD3" s="10" t="s">
-        <v>1494</v>
-      </c>
-      <c r="CE3" s="10" t="s">
+      <c r="CF3" s="10" t="s">
         <v>1489</v>
       </c>
-      <c r="CF3" s="10" t="s">
-        <v>1491</v>
-      </c>
       <c r="CG3" s="10" t="s">
+        <v>1493</v>
+      </c>
+      <c r="CH3" s="10" t="s">
+        <v>1488</v>
+      </c>
+      <c r="CI3" s="10" t="s">
         <v>1490</v>
       </c>
-      <c r="CH3" s="10" t="s">
-        <v>1494</v>
-      </c>
-      <c r="CI3" s="10" t="s">
+      <c r="CJ3" s="10" t="s">
         <v>1489</v>
       </c>
-      <c r="CJ3" s="10" t="s">
-        <v>1491</v>
-      </c>
-      <c r="CK3" s="10" t="s">
-        <v>1490</v>
-      </c>
-    </row>
-    <row r="4" spans="1:91" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:90" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
         <v>1432</v>
       </c>
@@ -5533,19 +5526,19 @@
         <v>1443</v>
       </c>
       <c r="AJ4" s="21" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="AK4" s="21" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="AL4" s="21" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="AM4" s="21" t="s">
-        <v>1424</v>
-      </c>
-      <c r="AN4" s="21" t="s">
         <v>1425</v>
+      </c>
+      <c r="AN4" s="20" t="s">
+        <v>1443</v>
       </c>
       <c r="AO4" s="20" t="s">
         <v>1443</v>
@@ -5577,1395 +5570,1392 @@
       <c r="AX4" s="20" t="s">
         <v>1443</v>
       </c>
-      <c r="AY4" s="20" t="s">
+      <c r="AY4" s="21" t="s">
+        <v>1426</v>
+      </c>
+      <c r="AZ4" s="21" t="s">
+        <v>1428</v>
+      </c>
+      <c r="BA4" s="21" t="s">
+        <v>1427</v>
+      </c>
+      <c r="BB4" s="21" t="s">
+        <v>1429</v>
+      </c>
+      <c r="BC4" s="21" t="s">
+        <v>1430</v>
+      </c>
+      <c r="BD4" s="21" t="s">
+        <v>1431</v>
+      </c>
+      <c r="BE4" s="21" t="s">
+        <v>1372</v>
+      </c>
+      <c r="BF4" s="21" t="s">
+        <v>1433</v>
+      </c>
+      <c r="BG4" s="21" t="s">
+        <v>1434</v>
+      </c>
+      <c r="BH4" s="21" t="s">
+        <v>1400</v>
+      </c>
+      <c r="BI4" s="21" t="s">
+        <v>1401</v>
+      </c>
+      <c r="BJ4" s="21" t="s">
+        <v>1402</v>
+      </c>
+      <c r="BK4" s="21" t="s">
+        <v>1403</v>
+      </c>
+      <c r="BL4" s="21" t="s">
+        <v>1404</v>
+      </c>
+      <c r="BM4" s="21" t="s">
+        <v>1405</v>
+      </c>
+      <c r="BN4" s="21" t="s">
+        <v>1406</v>
+      </c>
+      <c r="BO4" s="21" t="s">
+        <v>1435</v>
+      </c>
+      <c r="BP4" s="20" t="s">
+        <v>1436</v>
+      </c>
+      <c r="BQ4" s="21" t="s">
+        <v>1407</v>
+      </c>
+      <c r="BR4" s="21" t="s">
+        <v>1438</v>
+      </c>
+      <c r="BS4" s="20" t="s">
         <v>1443</v>
       </c>
-      <c r="AZ4" s="21" t="s">
-        <v>1426</v>
-      </c>
-      <c r="BA4" s="21" t="s">
-        <v>1428</v>
-      </c>
-      <c r="BB4" s="21" t="s">
-        <v>1427</v>
-      </c>
-      <c r="BC4" s="21" t="s">
-        <v>1429</v>
-      </c>
-      <c r="BD4" s="21" t="s">
-        <v>1430</v>
-      </c>
-      <c r="BE4" s="21" t="s">
-        <v>1431</v>
-      </c>
-      <c r="BF4" s="21" t="s">
-        <v>1372</v>
-      </c>
-      <c r="BG4" s="21" t="s">
-        <v>1433</v>
-      </c>
-      <c r="BH4" s="21" t="s">
-        <v>1434</v>
-      </c>
-      <c r="BI4" s="21" t="s">
-        <v>1400</v>
-      </c>
-      <c r="BJ4" s="21" t="s">
-        <v>1401</v>
-      </c>
-      <c r="BK4" s="21" t="s">
-        <v>1402</v>
-      </c>
-      <c r="BL4" s="21" t="s">
-        <v>1403</v>
-      </c>
-      <c r="BM4" s="21" t="s">
-        <v>1404</v>
-      </c>
-      <c r="BN4" s="21" t="s">
-        <v>1405</v>
-      </c>
-      <c r="BO4" s="21" t="s">
-        <v>1406</v>
-      </c>
-      <c r="BP4" s="21" t="s">
-        <v>1435</v>
-      </c>
-      <c r="BQ4" s="20" t="s">
-        <v>1436</v>
-      </c>
-      <c r="BR4" s="21" t="s">
-        <v>1407</v>
-      </c>
-      <c r="BS4" s="21" t="s">
+      <c r="BT4" s="21" t="s">
+        <v>1408</v>
+      </c>
+      <c r="BU4" s="21" t="s">
+        <v>1437</v>
+      </c>
+      <c r="BV4" s="21" t="s">
+        <v>1409</v>
+      </c>
+      <c r="BW4" s="21" t="s">
+        <v>1420</v>
+      </c>
+      <c r="BX4" s="21" t="s">
         <v>1438</v>
       </c>
-      <c r="BT4" s="20" t="s">
-        <v>1443</v>
-      </c>
-      <c r="BU4" s="21" t="s">
-        <v>1408</v>
-      </c>
-      <c r="BV4" s="21" t="s">
-        <v>1437</v>
-      </c>
-      <c r="BW4" s="21" t="s">
-        <v>1409</v>
-      </c>
-      <c r="BX4" s="21" t="s">
-        <v>1420</v>
-      </c>
-      <c r="BY4" s="21" t="s">
+      <c r="BY4" s="20" t="s">
+        <v>1423</v>
+      </c>
+      <c r="BZ4" s="20" t="s">
+        <v>1422</v>
+      </c>
+      <c r="CA4" s="20" t="s">
+        <v>1423</v>
+      </c>
+      <c r="CB4" s="20" t="s">
+        <v>1422</v>
+      </c>
+      <c r="CC4" s="21" t="s">
+        <v>1421</v>
+      </c>
+      <c r="CD4" s="21" t="s">
+        <v>1423</v>
+      </c>
+      <c r="CE4" s="21" t="s">
+        <v>1453</v>
+      </c>
+      <c r="CF4" s="21" t="s">
+        <v>1422</v>
+      </c>
+      <c r="CG4" s="21" t="s">
+        <v>1421</v>
+      </c>
+      <c r="CH4" s="21" t="s">
+        <v>1423</v>
+      </c>
+      <c r="CI4" s="21" t="s">
+        <v>1453</v>
+      </c>
+      <c r="CJ4" s="21" t="s">
+        <v>1422</v>
+      </c>
+      <c r="CK4" s="20" t="s">
         <v>1438</v>
-      </c>
-      <c r="BZ4" s="20" t="s">
-        <v>1423</v>
-      </c>
-      <c r="CA4" s="20" t="s">
-        <v>1422</v>
-      </c>
-      <c r="CB4" s="20" t="s">
-        <v>1423</v>
-      </c>
-      <c r="CC4" s="20" t="s">
-        <v>1422</v>
-      </c>
-      <c r="CD4" s="21" t="s">
-        <v>1421</v>
-      </c>
-      <c r="CE4" s="21" t="s">
-        <v>1423</v>
-      </c>
-      <c r="CF4" s="21" t="s">
-        <v>1454</v>
-      </c>
-      <c r="CG4" s="21" t="s">
-        <v>1422</v>
-      </c>
-      <c r="CH4" s="21" t="s">
-        <v>1421</v>
-      </c>
-      <c r="CI4" s="21" t="s">
-        <v>1423</v>
-      </c>
-      <c r="CJ4" s="21" t="s">
-        <v>1454</v>
-      </c>
-      <c r="CK4" s="21" t="s">
-        <v>1422</v>
       </c>
       <c r="CL4" s="20" t="s">
         <v>1438</v>
       </c>
-      <c r="CM4" s="20" t="s">
-        <v>1438</v>
-      </c>
-    </row>
-    <row r="5" spans="1:91" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:90" x14ac:dyDescent="0.2">
       <c r="D5" s="15"/>
+      <c r="AX5" s="18"/>
       <c r="AY5" s="18"/>
       <c r="AZ5" s="18"/>
       <c r="BA5" s="18"/>
-      <c r="BB5" s="18"/>
-    </row>
-    <row r="6" spans="1:91" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:90" x14ac:dyDescent="0.2">
       <c r="D6" s="15"/>
+      <c r="AX6" s="18"/>
       <c r="AY6" s="18"/>
       <c r="AZ6" s="18"/>
       <c r="BA6" s="18"/>
-      <c r="BB6" s="18"/>
-    </row>
-    <row r="7" spans="1:91" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:90" x14ac:dyDescent="0.2">
       <c r="D7" s="15"/>
+      <c r="AX7" s="18"/>
       <c r="AY7" s="18"/>
       <c r="AZ7" s="18"/>
       <c r="BA7" s="18"/>
-      <c r="BB7" s="18"/>
-    </row>
-    <row r="8" spans="1:91" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:90" x14ac:dyDescent="0.2">
       <c r="D8" s="15"/>
+      <c r="AX8" s="18"/>
       <c r="AY8" s="18"/>
       <c r="AZ8" s="18"/>
       <c r="BA8" s="18"/>
-      <c r="BB8" s="18"/>
-    </row>
-    <row r="9" spans="1:91" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:90" x14ac:dyDescent="0.2">
       <c r="D9" s="15"/>
+      <c r="AX9" s="18"/>
       <c r="AY9" s="18"/>
       <c r="AZ9" s="18"/>
       <c r="BA9" s="18"/>
-      <c r="BB9" s="18"/>
-    </row>
-    <row r="10" spans="1:91" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:90" x14ac:dyDescent="0.2">
       <c r="D10" s="15"/>
+      <c r="AX10" s="18"/>
       <c r="AY10" s="18"/>
       <c r="AZ10" s="18"/>
       <c r="BA10" s="18"/>
-      <c r="BB10" s="18"/>
-    </row>
-    <row r="11" spans="1:91" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:90" x14ac:dyDescent="0.2">
       <c r="D11" s="15"/>
+      <c r="AX11" s="18"/>
       <c r="AY11" s="18"/>
       <c r="AZ11" s="18"/>
       <c r="BA11" s="18"/>
-      <c r="BB11" s="18"/>
-    </row>
-    <row r="12" spans="1:91" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:90" x14ac:dyDescent="0.2">
       <c r="D12" s="15"/>
+      <c r="AX12" s="18"/>
       <c r="AY12" s="18"/>
       <c r="AZ12" s="18"/>
       <c r="BA12" s="18"/>
-      <c r="BB12" s="18"/>
-    </row>
-    <row r="13" spans="1:91" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:90" x14ac:dyDescent="0.2">
       <c r="D13" s="15"/>
+      <c r="AX13" s="18"/>
       <c r="AY13" s="18"/>
       <c r="AZ13" s="18"/>
       <c r="BA13" s="18"/>
-      <c r="BB13" s="18"/>
-    </row>
-    <row r="14" spans="1:91" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:90" x14ac:dyDescent="0.2">
       <c r="D14" s="15"/>
+      <c r="AX14" s="18"/>
       <c r="AY14" s="18"/>
       <c r="AZ14" s="18"/>
       <c r="BA14" s="18"/>
-      <c r="BB14" s="18"/>
-    </row>
-    <row r="15" spans="1:91" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:90" x14ac:dyDescent="0.2">
       <c r="D15" s="15"/>
+      <c r="AX15" s="18"/>
       <c r="AY15" s="18"/>
       <c r="AZ15" s="18"/>
       <c r="BA15" s="18"/>
-      <c r="BB15" s="18"/>
-    </row>
-    <row r="16" spans="1:91" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:90" x14ac:dyDescent="0.2">
       <c r="D16" s="15"/>
+      <c r="AX16" s="18"/>
       <c r="AY16" s="18"/>
       <c r="AZ16" s="18"/>
       <c r="BA16" s="18"/>
-      <c r="BB16" s="18"/>
-    </row>
-    <row r="17" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D17" s="15"/>
+      <c r="AX17" s="18"/>
       <c r="AY17" s="18"/>
       <c r="AZ17" s="18"/>
       <c r="BA17" s="18"/>
-      <c r="BB17" s="18"/>
-    </row>
-    <row r="18" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D18" s="15"/>
+      <c r="AX18" s="18"/>
       <c r="AY18" s="18"/>
       <c r="AZ18" s="18"/>
       <c r="BA18" s="18"/>
-      <c r="BB18" s="18"/>
-    </row>
-    <row r="19" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D19" s="15"/>
+      <c r="AX19" s="18"/>
       <c r="AY19" s="18"/>
       <c r="AZ19" s="18"/>
       <c r="BA19" s="18"/>
-      <c r="BB19" s="18"/>
-    </row>
-    <row r="20" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D20" s="15"/>
+      <c r="AX20" s="18"/>
       <c r="AY20" s="18"/>
       <c r="AZ20" s="18"/>
       <c r="BA20" s="18"/>
-      <c r="BB20" s="18"/>
-    </row>
-    <row r="21" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D21" s="15"/>
+      <c r="AX21" s="18"/>
       <c r="AY21" s="18"/>
       <c r="AZ21" s="18"/>
       <c r="BA21" s="18"/>
-      <c r="BB21" s="18"/>
-    </row>
-    <row r="22" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D22" s="15"/>
+      <c r="AX22" s="18"/>
       <c r="AY22" s="18"/>
       <c r="AZ22" s="18"/>
       <c r="BA22" s="18"/>
-      <c r="BB22" s="18"/>
-    </row>
-    <row r="23" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D23" s="15"/>
+      <c r="AX23" s="18"/>
       <c r="AY23" s="18"/>
       <c r="AZ23" s="18"/>
       <c r="BA23" s="18"/>
-      <c r="BB23" s="18"/>
-    </row>
-    <row r="24" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D24" s="15"/>
+      <c r="AX24" s="18"/>
       <c r="AY24" s="18"/>
       <c r="AZ24" s="18"/>
       <c r="BA24" s="18"/>
-      <c r="BB24" s="18"/>
-    </row>
-    <row r="25" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D25" s="15"/>
+      <c r="AX25" s="18"/>
       <c r="AY25" s="18"/>
       <c r="AZ25" s="18"/>
       <c r="BA25" s="18"/>
-      <c r="BB25" s="18"/>
-    </row>
-    <row r="26" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D26" s="15"/>
+      <c r="AX26" s="18"/>
       <c r="AY26" s="18"/>
       <c r="AZ26" s="18"/>
       <c r="BA26" s="18"/>
-      <c r="BB26" s="18"/>
-    </row>
-    <row r="27" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D27" s="15"/>
+      <c r="AX27" s="18"/>
       <c r="AY27" s="18"/>
       <c r="AZ27" s="18"/>
       <c r="BA27" s="18"/>
-      <c r="BB27" s="18"/>
-    </row>
-    <row r="28" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D28" s="15"/>
+      <c r="AX28" s="18"/>
       <c r="AY28" s="18"/>
       <c r="AZ28" s="18"/>
       <c r="BA28" s="18"/>
-      <c r="BB28" s="18"/>
-    </row>
-    <row r="29" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D29" s="15"/>
+      <c r="AX29" s="18"/>
       <c r="AY29" s="18"/>
       <c r="AZ29" s="18"/>
       <c r="BA29" s="18"/>
-      <c r="BB29" s="18"/>
-    </row>
-    <row r="30" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D30" s="15"/>
+      <c r="AX30" s="18"/>
       <c r="AY30" s="18"/>
       <c r="AZ30" s="18"/>
       <c r="BA30" s="18"/>
-      <c r="BB30" s="18"/>
-    </row>
-    <row r="31" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D31" s="15"/>
+      <c r="AX31" s="18"/>
       <c r="AY31" s="18"/>
       <c r="AZ31" s="18"/>
       <c r="BA31" s="18"/>
-      <c r="BB31" s="18"/>
-    </row>
-    <row r="32" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D32" s="15"/>
+      <c r="AX32" s="18"/>
       <c r="AY32" s="18"/>
       <c r="AZ32" s="18"/>
       <c r="BA32" s="18"/>
-      <c r="BB32" s="18"/>
-    </row>
-    <row r="33" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D33" s="15"/>
+      <c r="AX33" s="18"/>
       <c r="AY33" s="18"/>
       <c r="AZ33" s="18"/>
       <c r="BA33" s="18"/>
-      <c r="BB33" s="18"/>
-    </row>
-    <row r="34" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D34" s="15"/>
+      <c r="AX34" s="18"/>
       <c r="AY34" s="18"/>
       <c r="AZ34" s="18"/>
       <c r="BA34" s="18"/>
-      <c r="BB34" s="18"/>
-    </row>
-    <row r="35" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D35" s="15"/>
+      <c r="AX35" s="18"/>
       <c r="AY35" s="18"/>
       <c r="AZ35" s="18"/>
       <c r="BA35" s="18"/>
-      <c r="BB35" s="18"/>
-    </row>
-    <row r="36" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D36" s="15"/>
+      <c r="AX36" s="18"/>
       <c r="AY36" s="18"/>
       <c r="AZ36" s="18"/>
       <c r="BA36" s="18"/>
-      <c r="BB36" s="18"/>
-    </row>
-    <row r="37" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D37" s="15"/>
+      <c r="AX37" s="18"/>
       <c r="AY37" s="18"/>
       <c r="AZ37" s="18"/>
       <c r="BA37" s="18"/>
-      <c r="BB37" s="18"/>
-    </row>
-    <row r="38" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D38" s="15"/>
+      <c r="AX38" s="18"/>
       <c r="AY38" s="18"/>
       <c r="AZ38" s="18"/>
       <c r="BA38" s="18"/>
-      <c r="BB38" s="18"/>
-    </row>
-    <row r="39" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D39" s="15"/>
+      <c r="AX39" s="18"/>
       <c r="AY39" s="18"/>
       <c r="AZ39" s="18"/>
       <c r="BA39" s="18"/>
-      <c r="BB39" s="18"/>
-    </row>
-    <row r="40" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D40" s="15"/>
+      <c r="AX40" s="18"/>
       <c r="AY40" s="18"/>
       <c r="AZ40" s="18"/>
       <c r="BA40" s="18"/>
-      <c r="BB40" s="18"/>
-    </row>
-    <row r="41" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D41" s="15"/>
+      <c r="AX41" s="18"/>
       <c r="AY41" s="18"/>
       <c r="AZ41" s="18"/>
       <c r="BA41" s="18"/>
-      <c r="BB41" s="18"/>
-    </row>
-    <row r="42" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D42" s="15"/>
+      <c r="AX42" s="18"/>
       <c r="AY42" s="18"/>
       <c r="AZ42" s="18"/>
       <c r="BA42" s="18"/>
-      <c r="BB42" s="18"/>
-    </row>
-    <row r="43" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D43" s="15"/>
+      <c r="AX43" s="18"/>
       <c r="AY43" s="18"/>
       <c r="AZ43" s="18"/>
       <c r="BA43" s="18"/>
-      <c r="BB43" s="18"/>
-    </row>
-    <row r="44" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D44" s="15"/>
+      <c r="AX44" s="18"/>
       <c r="AY44" s="18"/>
       <c r="AZ44" s="18"/>
       <c r="BA44" s="18"/>
-      <c r="BB44" s="18"/>
-    </row>
-    <row r="45" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D45" s="15"/>
+      <c r="AX45" s="18"/>
       <c r="AY45" s="18"/>
       <c r="AZ45" s="18"/>
       <c r="BA45" s="18"/>
-      <c r="BB45" s="18"/>
-    </row>
-    <row r="46" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D46" s="15"/>
+      <c r="AX46" s="18"/>
       <c r="AY46" s="18"/>
       <c r="AZ46" s="18"/>
       <c r="BA46" s="18"/>
-      <c r="BB46" s="18"/>
-    </row>
-    <row r="47" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D47" s="15"/>
+      <c r="AX47" s="18"/>
       <c r="AY47" s="18"/>
       <c r="AZ47" s="18"/>
       <c r="BA47" s="18"/>
-      <c r="BB47" s="18"/>
-    </row>
-    <row r="48" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D48" s="15"/>
+      <c r="AX48" s="18"/>
       <c r="AY48" s="18"/>
       <c r="AZ48" s="18"/>
       <c r="BA48" s="18"/>
-      <c r="BB48" s="18"/>
-    </row>
-    <row r="49" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D49" s="15"/>
+      <c r="AX49" s="18"/>
       <c r="AY49" s="18"/>
       <c r="AZ49" s="18"/>
       <c r="BA49" s="18"/>
-      <c r="BB49" s="18"/>
-    </row>
-    <row r="50" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D50" s="15"/>
+      <c r="AX50" s="18"/>
       <c r="AY50" s="18"/>
       <c r="AZ50" s="18"/>
       <c r="BA50" s="18"/>
-      <c r="BB50" s="18"/>
-    </row>
-    <row r="51" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D51" s="15"/>
+      <c r="AX51" s="18"/>
       <c r="AY51" s="18"/>
       <c r="AZ51" s="18"/>
       <c r="BA51" s="18"/>
-      <c r="BB51" s="18"/>
-    </row>
-    <row r="52" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D52" s="15"/>
+      <c r="AX52" s="18"/>
       <c r="AY52" s="18"/>
       <c r="AZ52" s="18"/>
       <c r="BA52" s="18"/>
-      <c r="BB52" s="18"/>
-    </row>
-    <row r="53" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D53" s="15"/>
+      <c r="AX53" s="18"/>
       <c r="AY53" s="18"/>
       <c r="AZ53" s="18"/>
       <c r="BA53" s="18"/>
-      <c r="BB53" s="18"/>
-    </row>
-    <row r="54" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D54" s="15"/>
+      <c r="AX54" s="18"/>
       <c r="AY54" s="18"/>
       <c r="AZ54" s="18"/>
       <c r="BA54" s="18"/>
-      <c r="BB54" s="18"/>
-    </row>
-    <row r="55" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D55" s="15"/>
+      <c r="AX55" s="18"/>
       <c r="AY55" s="18"/>
       <c r="AZ55" s="18"/>
       <c r="BA55" s="18"/>
-      <c r="BB55" s="18"/>
-    </row>
-    <row r="56" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D56" s="15"/>
+      <c r="AX56" s="18"/>
       <c r="AY56" s="18"/>
       <c r="AZ56" s="18"/>
       <c r="BA56" s="18"/>
-      <c r="BB56" s="18"/>
-    </row>
-    <row r="57" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D57" s="15"/>
+      <c r="AX57" s="18"/>
       <c r="AY57" s="18"/>
       <c r="AZ57" s="18"/>
       <c r="BA57" s="18"/>
-      <c r="BB57" s="18"/>
-    </row>
-    <row r="58" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D58" s="15"/>
+      <c r="AX58" s="18"/>
       <c r="AY58" s="18"/>
       <c r="AZ58" s="18"/>
       <c r="BA58" s="18"/>
-      <c r="BB58" s="18"/>
-    </row>
-    <row r="59" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D59" s="15"/>
+      <c r="AX59" s="18"/>
       <c r="AY59" s="18"/>
       <c r="AZ59" s="18"/>
       <c r="BA59" s="18"/>
-      <c r="BB59" s="18"/>
-    </row>
-    <row r="60" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D60" s="15"/>
+      <c r="AX60" s="18"/>
       <c r="AY60" s="18"/>
       <c r="AZ60" s="18"/>
       <c r="BA60" s="18"/>
-      <c r="BB60" s="18"/>
-    </row>
-    <row r="61" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D61" s="15"/>
+      <c r="AX61" s="18"/>
       <c r="AY61" s="18"/>
       <c r="AZ61" s="18"/>
       <c r="BA61" s="18"/>
-      <c r="BB61" s="18"/>
-    </row>
-    <row r="62" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D62" s="15"/>
+      <c r="AX62" s="18"/>
       <c r="AY62" s="18"/>
       <c r="AZ62" s="18"/>
       <c r="BA62" s="18"/>
-      <c r="BB62" s="18"/>
-    </row>
-    <row r="63" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D63" s="15"/>
+      <c r="AX63" s="18"/>
       <c r="AY63" s="18"/>
       <c r="AZ63" s="18"/>
       <c r="BA63" s="18"/>
-      <c r="BB63" s="18"/>
-    </row>
-    <row r="64" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D64" s="15"/>
+      <c r="AX64" s="18"/>
       <c r="AY64" s="18"/>
       <c r="AZ64" s="18"/>
       <c r="BA64" s="18"/>
-      <c r="BB64" s="18"/>
-    </row>
-    <row r="65" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D65" s="15"/>
+      <c r="AX65" s="18"/>
       <c r="AY65" s="18"/>
       <c r="AZ65" s="18"/>
       <c r="BA65" s="18"/>
-      <c r="BB65" s="18"/>
-    </row>
-    <row r="66" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D66" s="15"/>
+      <c r="AX66" s="18"/>
       <c r="AY66" s="18"/>
       <c r="AZ66" s="18"/>
       <c r="BA66" s="18"/>
-      <c r="BB66" s="18"/>
-    </row>
-    <row r="67" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D67" s="15"/>
+      <c r="AX67" s="18"/>
       <c r="AY67" s="18"/>
       <c r="AZ67" s="18"/>
       <c r="BA67" s="18"/>
-      <c r="BB67" s="18"/>
-    </row>
-    <row r="68" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D68" s="15"/>
+      <c r="AX68" s="18"/>
       <c r="AY68" s="18"/>
       <c r="AZ68" s="18"/>
       <c r="BA68" s="18"/>
-      <c r="BB68" s="18"/>
-    </row>
-    <row r="69" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D69" s="15"/>
+      <c r="AX69" s="18"/>
       <c r="AY69" s="18"/>
       <c r="AZ69" s="18"/>
       <c r="BA69" s="18"/>
-      <c r="BB69" s="18"/>
-    </row>
-    <row r="70" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D70" s="15"/>
+      <c r="AX70" s="18"/>
       <c r="AY70" s="18"/>
       <c r="AZ70" s="18"/>
       <c r="BA70" s="18"/>
-      <c r="BB70" s="18"/>
-    </row>
-    <row r="71" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D71" s="15"/>
+      <c r="AX71" s="18"/>
       <c r="AY71" s="18"/>
       <c r="AZ71" s="18"/>
       <c r="BA71" s="18"/>
-      <c r="BB71" s="18"/>
-    </row>
-    <row r="72" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D72" s="15"/>
+      <c r="AX72" s="18"/>
       <c r="AY72" s="18"/>
       <c r="AZ72" s="18"/>
       <c r="BA72" s="18"/>
-      <c r="BB72" s="18"/>
-    </row>
-    <row r="73" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D73" s="15"/>
+      <c r="AX73" s="18"/>
       <c r="AY73" s="18"/>
       <c r="AZ73" s="18"/>
       <c r="BA73" s="18"/>
-      <c r="BB73" s="18"/>
-    </row>
-    <row r="74" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D74" s="15"/>
+      <c r="AX74" s="18"/>
       <c r="AY74" s="18"/>
       <c r="AZ74" s="18"/>
       <c r="BA74" s="18"/>
-      <c r="BB74" s="18"/>
-    </row>
-    <row r="75" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D75" s="15"/>
+      <c r="AX75" s="18"/>
       <c r="AY75" s="18"/>
       <c r="AZ75" s="18"/>
       <c r="BA75" s="18"/>
-      <c r="BB75" s="18"/>
-    </row>
-    <row r="76" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D76" s="15"/>
+      <c r="AX76" s="18"/>
       <c r="AY76" s="18"/>
       <c r="AZ76" s="18"/>
       <c r="BA76" s="18"/>
-      <c r="BB76" s="18"/>
-    </row>
-    <row r="77" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D77" s="15"/>
+      <c r="AX77" s="18"/>
       <c r="AY77" s="18"/>
       <c r="AZ77" s="18"/>
       <c r="BA77" s="18"/>
-      <c r="BB77" s="18"/>
-    </row>
-    <row r="78" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D78" s="15"/>
+      <c r="AX78" s="18"/>
       <c r="AY78" s="18"/>
       <c r="AZ78" s="18"/>
       <c r="BA78" s="18"/>
-      <c r="BB78" s="18"/>
-    </row>
-    <row r="79" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D79" s="15"/>
+      <c r="AX79" s="18"/>
       <c r="AY79" s="18"/>
       <c r="AZ79" s="18"/>
       <c r="BA79" s="18"/>
-      <c r="BB79" s="18"/>
-    </row>
-    <row r="80" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D80" s="15"/>
+      <c r="AX80" s="18"/>
       <c r="AY80" s="18"/>
       <c r="AZ80" s="18"/>
       <c r="BA80" s="18"/>
-      <c r="BB80" s="18"/>
-    </row>
-    <row r="81" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D81" s="15"/>
+      <c r="AX81" s="18"/>
       <c r="AY81" s="18"/>
       <c r="AZ81" s="18"/>
       <c r="BA81" s="18"/>
-      <c r="BB81" s="18"/>
-    </row>
-    <row r="82" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D82" s="15"/>
+      <c r="AX82" s="18"/>
       <c r="AY82" s="18"/>
       <c r="AZ82" s="18"/>
       <c r="BA82" s="18"/>
-      <c r="BB82" s="18"/>
-    </row>
-    <row r="83" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D83" s="15"/>
+      <c r="AX83" s="18"/>
       <c r="AY83" s="18"/>
       <c r="AZ83" s="18"/>
       <c r="BA83" s="18"/>
-      <c r="BB83" s="18"/>
-    </row>
-    <row r="84" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D84" s="15"/>
+      <c r="AX84" s="18"/>
       <c r="AY84" s="18"/>
       <c r="AZ84" s="18"/>
       <c r="BA84" s="18"/>
-      <c r="BB84" s="18"/>
-    </row>
-    <row r="85" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D85" s="15"/>
+      <c r="AX85" s="18"/>
       <c r="AY85" s="18"/>
       <c r="AZ85" s="18"/>
       <c r="BA85" s="18"/>
-      <c r="BB85" s="18"/>
-    </row>
-    <row r="86" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D86" s="15"/>
+      <c r="AX86" s="18"/>
       <c r="AY86" s="18"/>
       <c r="AZ86" s="18"/>
       <c r="BA86" s="18"/>
-      <c r="BB86" s="18"/>
-    </row>
-    <row r="87" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D87" s="15"/>
+      <c r="AX87" s="18"/>
       <c r="AY87" s="18"/>
       <c r="AZ87" s="18"/>
       <c r="BA87" s="18"/>
-      <c r="BB87" s="18"/>
-    </row>
-    <row r="88" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D88" s="15"/>
+      <c r="AX88" s="18"/>
       <c r="AY88" s="18"/>
       <c r="AZ88" s="18"/>
       <c r="BA88" s="18"/>
-      <c r="BB88" s="18"/>
-    </row>
-    <row r="89" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D89" s="15"/>
+      <c r="AX89" s="18"/>
       <c r="AY89" s="18"/>
       <c r="AZ89" s="18"/>
       <c r="BA89" s="18"/>
-      <c r="BB89" s="18"/>
-    </row>
-    <row r="90" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D90" s="15"/>
+      <c r="AX90" s="18"/>
       <c r="AY90" s="18"/>
       <c r="AZ90" s="18"/>
       <c r="BA90" s="18"/>
-      <c r="BB90" s="18"/>
-    </row>
-    <row r="91" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D91" s="15"/>
+      <c r="AX91" s="18"/>
       <c r="AY91" s="18"/>
       <c r="AZ91" s="18"/>
       <c r="BA91" s="18"/>
-      <c r="BB91" s="18"/>
-    </row>
-    <row r="92" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D92" s="15"/>
+      <c r="AX92" s="18"/>
       <c r="AY92" s="18"/>
       <c r="AZ92" s="18"/>
       <c r="BA92" s="18"/>
-      <c r="BB92" s="18"/>
-    </row>
-    <row r="93" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D93" s="15"/>
+      <c r="AX93" s="18"/>
       <c r="AY93" s="18"/>
       <c r="AZ93" s="18"/>
       <c r="BA93" s="18"/>
-      <c r="BB93" s="18"/>
-    </row>
-    <row r="94" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D94" s="15"/>
+      <c r="AX94" s="18"/>
       <c r="AY94" s="18"/>
       <c r="AZ94" s="18"/>
       <c r="BA94" s="18"/>
-      <c r="BB94" s="18"/>
-    </row>
-    <row r="95" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D95" s="15"/>
+      <c r="AX95" s="18"/>
       <c r="AY95" s="18"/>
       <c r="AZ95" s="18"/>
       <c r="BA95" s="18"/>
-      <c r="BB95" s="18"/>
-    </row>
-    <row r="96" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D96" s="15"/>
+      <c r="AX96" s="18"/>
       <c r="AY96" s="18"/>
       <c r="AZ96" s="18"/>
       <c r="BA96" s="18"/>
-      <c r="BB96" s="18"/>
-    </row>
-    <row r="97" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D97" s="15"/>
+      <c r="AX97" s="18"/>
       <c r="AY97" s="18"/>
       <c r="AZ97" s="18"/>
       <c r="BA97" s="18"/>
-      <c r="BB97" s="18"/>
-    </row>
-    <row r="98" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D98" s="15"/>
+      <c r="AX98" s="18"/>
       <c r="AY98" s="18"/>
       <c r="AZ98" s="18"/>
       <c r="BA98" s="18"/>
-      <c r="BB98" s="18"/>
-    </row>
-    <row r="99" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D99" s="15"/>
+      <c r="AX99" s="18"/>
       <c r="AY99" s="18"/>
       <c r="AZ99" s="18"/>
       <c r="BA99" s="18"/>
-      <c r="BB99" s="18"/>
-    </row>
-    <row r="100" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D100" s="15"/>
+      <c r="AX100" s="18"/>
       <c r="AY100" s="18"/>
       <c r="AZ100" s="18"/>
       <c r="BA100" s="18"/>
-      <c r="BB100" s="18"/>
-    </row>
-    <row r="101" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D101" s="15"/>
+      <c r="AX101" s="18"/>
       <c r="AY101" s="18"/>
       <c r="AZ101" s="18"/>
       <c r="BA101" s="18"/>
-      <c r="BB101" s="18"/>
-    </row>
-    <row r="102" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D102" s="15"/>
+      <c r="AX102" s="18"/>
       <c r="AY102" s="18"/>
       <c r="AZ102" s="18"/>
       <c r="BA102" s="18"/>
-      <c r="BB102" s="18"/>
-    </row>
-    <row r="103" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D103" s="15"/>
+      <c r="AX103" s="18"/>
       <c r="AY103" s="18"/>
       <c r="AZ103" s="18"/>
       <c r="BA103" s="18"/>
-      <c r="BB103" s="18"/>
-    </row>
-    <row r="104" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D104" s="15"/>
+      <c r="AX104" s="18"/>
       <c r="AY104" s="18"/>
       <c r="AZ104" s="18"/>
       <c r="BA104" s="18"/>
-      <c r="BB104" s="18"/>
-    </row>
-    <row r="105" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D105" s="15"/>
+      <c r="AX105" s="18"/>
       <c r="AY105" s="18"/>
       <c r="AZ105" s="18"/>
       <c r="BA105" s="18"/>
-      <c r="BB105" s="18"/>
-    </row>
-    <row r="106" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D106" s="15"/>
+      <c r="AX106" s="18"/>
       <c r="AY106" s="18"/>
       <c r="AZ106" s="18"/>
       <c r="BA106" s="18"/>
-      <c r="BB106" s="18"/>
-    </row>
-    <row r="107" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D107" s="15"/>
+      <c r="AX107" s="18"/>
       <c r="AY107" s="18"/>
       <c r="AZ107" s="18"/>
       <c r="BA107" s="18"/>
-      <c r="BB107" s="18"/>
-    </row>
-    <row r="108" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D108" s="15"/>
+      <c r="AX108" s="18"/>
       <c r="AY108" s="18"/>
       <c r="AZ108" s="18"/>
       <c r="BA108" s="18"/>
-      <c r="BB108" s="18"/>
-    </row>
-    <row r="109" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D109" s="15"/>
+      <c r="AX109" s="18"/>
       <c r="AY109" s="18"/>
       <c r="AZ109" s="18"/>
       <c r="BA109" s="18"/>
-      <c r="BB109" s="18"/>
-    </row>
-    <row r="110" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D110" s="15"/>
+      <c r="AX110" s="18"/>
       <c r="AY110" s="18"/>
       <c r="AZ110" s="18"/>
       <c r="BA110" s="18"/>
-      <c r="BB110" s="18"/>
-    </row>
-    <row r="111" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="111" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D111" s="15"/>
+      <c r="AX111" s="18"/>
       <c r="AY111" s="18"/>
       <c r="AZ111" s="18"/>
       <c r="BA111" s="18"/>
-      <c r="BB111" s="18"/>
-    </row>
-    <row r="112" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D112" s="15"/>
+      <c r="AX112" s="18"/>
       <c r="AY112" s="18"/>
       <c r="AZ112" s="18"/>
       <c r="BA112" s="18"/>
-      <c r="BB112" s="18"/>
-    </row>
-    <row r="113" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D113" s="15"/>
+      <c r="AX113" s="18"/>
       <c r="AY113" s="18"/>
       <c r="AZ113" s="18"/>
       <c r="BA113" s="18"/>
-      <c r="BB113" s="18"/>
-    </row>
-    <row r="114" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D114" s="15"/>
+      <c r="AX114" s="18"/>
       <c r="AY114" s="18"/>
       <c r="AZ114" s="18"/>
       <c r="BA114" s="18"/>
-      <c r="BB114" s="18"/>
-    </row>
-    <row r="115" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="115" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D115" s="15"/>
+      <c r="AX115" s="18"/>
       <c r="AY115" s="18"/>
       <c r="AZ115" s="18"/>
       <c r="BA115" s="18"/>
-      <c r="BB115" s="18"/>
-    </row>
-    <row r="116" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D116" s="15"/>
+      <c r="AX116" s="18"/>
       <c r="AY116" s="18"/>
       <c r="AZ116" s="18"/>
       <c r="BA116" s="18"/>
-      <c r="BB116" s="18"/>
-    </row>
-    <row r="117" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D117" s="15"/>
+      <c r="AX117" s="18"/>
       <c r="AY117" s="18"/>
       <c r="AZ117" s="18"/>
       <c r="BA117" s="18"/>
-      <c r="BB117" s="18"/>
-    </row>
-    <row r="118" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="118" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D118" s="15"/>
+      <c r="AX118" s="18"/>
       <c r="AY118" s="18"/>
       <c r="AZ118" s="18"/>
       <c r="BA118" s="18"/>
-      <c r="BB118" s="18"/>
-    </row>
-    <row r="119" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="119" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D119" s="15"/>
+      <c r="AX119" s="18"/>
       <c r="AY119" s="18"/>
       <c r="AZ119" s="18"/>
       <c r="BA119" s="18"/>
-      <c r="BB119" s="18"/>
-    </row>
-    <row r="120" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="120" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D120" s="15"/>
+      <c r="AX120" s="18"/>
       <c r="AY120" s="18"/>
       <c r="AZ120" s="18"/>
       <c r="BA120" s="18"/>
-      <c r="BB120" s="18"/>
-    </row>
-    <row r="121" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="121" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D121" s="15"/>
+      <c r="AX121" s="18"/>
       <c r="AY121" s="18"/>
       <c r="AZ121" s="18"/>
       <c r="BA121" s="18"/>
-      <c r="BB121" s="18"/>
-    </row>
-    <row r="122" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="122" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D122" s="15"/>
+      <c r="AX122" s="18"/>
       <c r="AY122" s="18"/>
       <c r="AZ122" s="18"/>
       <c r="BA122" s="18"/>
-      <c r="BB122" s="18"/>
-    </row>
-    <row r="123" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="123" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D123" s="15"/>
+      <c r="AX123" s="18"/>
       <c r="AY123" s="18"/>
       <c r="AZ123" s="18"/>
       <c r="BA123" s="18"/>
-      <c r="BB123" s="18"/>
-    </row>
-    <row r="124" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="124" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D124" s="15"/>
+      <c r="AX124" s="18"/>
       <c r="AY124" s="18"/>
       <c r="AZ124" s="18"/>
       <c r="BA124" s="18"/>
-      <c r="BB124" s="18"/>
-    </row>
-    <row r="125" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="125" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D125" s="15"/>
+      <c r="AX125" s="18"/>
       <c r="AY125" s="18"/>
       <c r="AZ125" s="18"/>
       <c r="BA125" s="18"/>
-      <c r="BB125" s="18"/>
-    </row>
-    <row r="126" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="126" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D126" s="15"/>
+      <c r="AX126" s="18"/>
       <c r="AY126" s="18"/>
       <c r="AZ126" s="18"/>
       <c r="BA126" s="18"/>
-      <c r="BB126" s="18"/>
-    </row>
-    <row r="127" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="127" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D127" s="15"/>
+      <c r="AX127" s="18"/>
       <c r="AY127" s="18"/>
       <c r="AZ127" s="18"/>
       <c r="BA127" s="18"/>
-      <c r="BB127" s="18"/>
-    </row>
-    <row r="128" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="128" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D128" s="15"/>
+      <c r="AX128" s="18"/>
       <c r="AY128" s="18"/>
       <c r="AZ128" s="18"/>
       <c r="BA128" s="18"/>
-      <c r="BB128" s="18"/>
-    </row>
-    <row r="129" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="129" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D129" s="15"/>
+      <c r="AX129" s="18"/>
       <c r="AY129" s="18"/>
       <c r="AZ129" s="18"/>
       <c r="BA129" s="18"/>
-      <c r="BB129" s="18"/>
-    </row>
-    <row r="130" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="130" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D130" s="15"/>
+      <c r="AX130" s="18"/>
       <c r="AY130" s="18"/>
       <c r="AZ130" s="18"/>
       <c r="BA130" s="18"/>
-      <c r="BB130" s="18"/>
-    </row>
-    <row r="131" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="131" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D131" s="15"/>
+      <c r="AX131" s="18"/>
       <c r="AY131" s="18"/>
       <c r="AZ131" s="18"/>
       <c r="BA131" s="18"/>
-      <c r="BB131" s="18"/>
-    </row>
-    <row r="132" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="132" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D132" s="15"/>
+      <c r="AX132" s="18"/>
       <c r="AY132" s="18"/>
       <c r="AZ132" s="18"/>
       <c r="BA132" s="18"/>
-      <c r="BB132" s="18"/>
-    </row>
-    <row r="133" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="133" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D133" s="15"/>
+      <c r="AX133" s="18"/>
       <c r="AY133" s="18"/>
       <c r="AZ133" s="18"/>
       <c r="BA133" s="18"/>
-      <c r="BB133" s="18"/>
-    </row>
-    <row r="134" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="134" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D134" s="15"/>
+      <c r="AX134" s="18"/>
       <c r="AY134" s="18"/>
       <c r="AZ134" s="18"/>
       <c r="BA134" s="18"/>
-      <c r="BB134" s="18"/>
-    </row>
-    <row r="135" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="135" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D135" s="15"/>
+      <c r="AX135" s="18"/>
       <c r="AY135" s="18"/>
       <c r="AZ135" s="18"/>
       <c r="BA135" s="18"/>
-      <c r="BB135" s="18"/>
-    </row>
-    <row r="136" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="136" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D136" s="15"/>
+      <c r="AX136" s="18"/>
       <c r="AY136" s="18"/>
       <c r="AZ136" s="18"/>
       <c r="BA136" s="18"/>
-      <c r="BB136" s="18"/>
-    </row>
-    <row r="137" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="137" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D137" s="15"/>
+      <c r="AX137" s="18"/>
       <c r="AY137" s="18"/>
       <c r="AZ137" s="18"/>
       <c r="BA137" s="18"/>
-      <c r="BB137" s="18"/>
-    </row>
-    <row r="138" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="138" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D138" s="15"/>
+      <c r="AX138" s="18"/>
       <c r="AY138" s="18"/>
       <c r="AZ138" s="18"/>
       <c r="BA138" s="18"/>
-      <c r="BB138" s="18"/>
-    </row>
-    <row r="139" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="139" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D139" s="15"/>
+      <c r="AX139" s="18"/>
       <c r="AY139" s="18"/>
       <c r="AZ139" s="18"/>
       <c r="BA139" s="18"/>
-      <c r="BB139" s="18"/>
-    </row>
-    <row r="140" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="140" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D140" s="15"/>
+      <c r="AX140" s="18"/>
       <c r="AY140" s="18"/>
       <c r="AZ140" s="18"/>
       <c r="BA140" s="18"/>
-      <c r="BB140" s="18"/>
-    </row>
-    <row r="141" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="141" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D141" s="15"/>
+      <c r="AX141" s="18"/>
       <c r="AY141" s="18"/>
       <c r="AZ141" s="18"/>
       <c r="BA141" s="18"/>
-      <c r="BB141" s="18"/>
-    </row>
-    <row r="142" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="142" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D142" s="15"/>
+      <c r="AX142" s="18"/>
       <c r="AY142" s="18"/>
       <c r="AZ142" s="18"/>
       <c r="BA142" s="18"/>
-      <c r="BB142" s="18"/>
-    </row>
-    <row r="143" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="143" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D143" s="15"/>
+      <c r="AX143" s="18"/>
       <c r="AY143" s="18"/>
       <c r="AZ143" s="18"/>
       <c r="BA143" s="18"/>
-      <c r="BB143" s="18"/>
-    </row>
-    <row r="144" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="144" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D144" s="15"/>
+      <c r="AX144" s="18"/>
       <c r="AY144" s="18"/>
       <c r="AZ144" s="18"/>
       <c r="BA144" s="18"/>
-      <c r="BB144" s="18"/>
-    </row>
-    <row r="145" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="145" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D145" s="15"/>
+      <c r="AX145" s="18"/>
       <c r="AY145" s="18"/>
       <c r="AZ145" s="18"/>
       <c r="BA145" s="18"/>
-      <c r="BB145" s="18"/>
-    </row>
-    <row r="146" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="146" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D146" s="15"/>
+      <c r="AX146" s="18"/>
       <c r="AY146" s="18"/>
       <c r="AZ146" s="18"/>
       <c r="BA146" s="18"/>
-      <c r="BB146" s="18"/>
-    </row>
-    <row r="147" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="147" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D147" s="15"/>
+      <c r="AX147" s="18"/>
       <c r="AY147" s="18"/>
       <c r="AZ147" s="18"/>
       <c r="BA147" s="18"/>
-      <c r="BB147" s="18"/>
-    </row>
-    <row r="148" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="148" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D148" s="15"/>
+      <c r="AX148" s="18"/>
       <c r="AY148" s="18"/>
       <c r="AZ148" s="18"/>
       <c r="BA148" s="18"/>
-      <c r="BB148" s="18"/>
-    </row>
-    <row r="149" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="149" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D149" s="15"/>
+      <c r="AX149" s="18"/>
       <c r="AY149" s="18"/>
       <c r="AZ149" s="18"/>
       <c r="BA149" s="18"/>
-      <c r="BB149" s="18"/>
-    </row>
-    <row r="150" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="150" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D150" s="15"/>
+      <c r="AX150" s="18"/>
       <c r="AY150" s="18"/>
       <c r="AZ150" s="18"/>
       <c r="BA150" s="18"/>
-      <c r="BB150" s="18"/>
-    </row>
-    <row r="151" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="151" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D151" s="15"/>
+      <c r="AX151" s="18"/>
       <c r="AY151" s="18"/>
       <c r="AZ151" s="18"/>
       <c r="BA151" s="18"/>
-      <c r="BB151" s="18"/>
-    </row>
-    <row r="152" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="152" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D152" s="15"/>
+      <c r="AX152" s="18"/>
       <c r="AY152" s="18"/>
       <c r="AZ152" s="18"/>
       <c r="BA152" s="18"/>
-      <c r="BB152" s="18"/>
-    </row>
-    <row r="153" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="153" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D153" s="15"/>
+      <c r="AX153" s="18"/>
       <c r="AY153" s="18"/>
       <c r="AZ153" s="18"/>
       <c r="BA153" s="18"/>
-      <c r="BB153" s="18"/>
-    </row>
-    <row r="154" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="154" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D154" s="15"/>
+      <c r="AX154" s="18"/>
       <c r="AY154" s="18"/>
       <c r="AZ154" s="18"/>
       <c r="BA154" s="18"/>
-      <c r="BB154" s="18"/>
-    </row>
-    <row r="155" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="155" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D155" s="15"/>
+      <c r="AX155" s="18"/>
       <c r="AY155" s="18"/>
       <c r="AZ155" s="18"/>
       <c r="BA155" s="18"/>
-      <c r="BB155" s="18"/>
-    </row>
-    <row r="156" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="156" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D156" s="15"/>
+      <c r="AX156" s="18"/>
       <c r="AY156" s="18"/>
       <c r="AZ156" s="18"/>
       <c r="BA156" s="18"/>
-      <c r="BB156" s="18"/>
-    </row>
-    <row r="157" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="157" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D157" s="15"/>
+      <c r="AX157" s="18"/>
       <c r="AY157" s="18"/>
       <c r="AZ157" s="18"/>
       <c r="BA157" s="18"/>
-      <c r="BB157" s="18"/>
-    </row>
-    <row r="158" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="158" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D158" s="15"/>
+      <c r="AX158" s="18"/>
       <c r="AY158" s="18"/>
       <c r="AZ158" s="18"/>
       <c r="BA158" s="18"/>
-      <c r="BB158" s="18"/>
-    </row>
-    <row r="159" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="159" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D159" s="15"/>
+      <c r="AX159" s="18"/>
       <c r="AY159" s="18"/>
       <c r="AZ159" s="18"/>
       <c r="BA159" s="18"/>
-      <c r="BB159" s="18"/>
-    </row>
-    <row r="160" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="160" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D160" s="15"/>
+      <c r="AX160" s="18"/>
       <c r="AY160" s="18"/>
       <c r="AZ160" s="18"/>
       <c r="BA160" s="18"/>
-      <c r="BB160" s="18"/>
-    </row>
-    <row r="161" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="161" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D161" s="15"/>
+      <c r="AX161" s="18"/>
       <c r="AY161" s="18"/>
       <c r="AZ161" s="18"/>
       <c r="BA161" s="18"/>
-      <c r="BB161" s="18"/>
-    </row>
-    <row r="162" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="162" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D162" s="15"/>
+      <c r="AX162" s="18"/>
       <c r="AY162" s="18"/>
       <c r="AZ162" s="18"/>
       <c r="BA162" s="18"/>
-      <c r="BB162" s="18"/>
-    </row>
-    <row r="163" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="163" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D163" s="15"/>
+      <c r="AX163" s="18"/>
       <c r="AY163" s="18"/>
       <c r="AZ163" s="18"/>
       <c r="BA163" s="18"/>
-      <c r="BB163" s="18"/>
-    </row>
-    <row r="164" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="164" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D164" s="15"/>
+      <c r="AX164" s="18"/>
       <c r="AY164" s="18"/>
       <c r="AZ164" s="18"/>
       <c r="BA164" s="18"/>
-      <c r="BB164" s="18"/>
-    </row>
-    <row r="165" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="165" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D165" s="15"/>
+      <c r="AX165" s="18"/>
       <c r="AY165" s="18"/>
       <c r="AZ165" s="18"/>
       <c r="BA165" s="18"/>
-      <c r="BB165" s="18"/>
-    </row>
-    <row r="166" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="166" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D166" s="15"/>
+      <c r="AX166" s="18"/>
       <c r="AY166" s="18"/>
       <c r="AZ166" s="18"/>
       <c r="BA166" s="18"/>
-      <c r="BB166" s="18"/>
-    </row>
-    <row r="167" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="167" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D167" s="15"/>
+      <c r="AX167" s="18"/>
       <c r="AY167" s="18"/>
       <c r="AZ167" s="18"/>
       <c r="BA167" s="18"/>
-      <c r="BB167" s="18"/>
-    </row>
-    <row r="168" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="168" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D168" s="15"/>
+      <c r="AX168" s="18"/>
       <c r="AY168" s="18"/>
       <c r="AZ168" s="18"/>
       <c r="BA168" s="18"/>
-      <c r="BB168" s="18"/>
-    </row>
-    <row r="169" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="169" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D169" s="15"/>
+      <c r="AX169" s="18"/>
       <c r="AY169" s="18"/>
       <c r="AZ169" s="18"/>
       <c r="BA169" s="18"/>
-      <c r="BB169" s="18"/>
-    </row>
-    <row r="170" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="170" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D170" s="15"/>
+      <c r="AX170" s="18"/>
       <c r="AY170" s="18"/>
       <c r="AZ170" s="18"/>
       <c r="BA170" s="18"/>
-      <c r="BB170" s="18"/>
-    </row>
-    <row r="171" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="171" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D171" s="15"/>
+      <c r="AX171" s="18"/>
       <c r="AY171" s="18"/>
       <c r="AZ171" s="18"/>
       <c r="BA171" s="18"/>
-      <c r="BB171" s="18"/>
-    </row>
-    <row r="172" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="172" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D172" s="15"/>
+      <c r="AX172" s="18"/>
       <c r="AY172" s="18"/>
       <c r="AZ172" s="18"/>
       <c r="BA172" s="18"/>
-      <c r="BB172" s="18"/>
-    </row>
-    <row r="173" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="173" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D173" s="15"/>
+      <c r="AX173" s="18"/>
       <c r="AY173" s="18"/>
       <c r="AZ173" s="18"/>
       <c r="BA173" s="18"/>
-      <c r="BB173" s="18"/>
-    </row>
-    <row r="174" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="174" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D174" s="15"/>
+      <c r="AX174" s="18"/>
       <c r="AY174" s="18"/>
       <c r="AZ174" s="18"/>
       <c r="BA174" s="18"/>
-      <c r="BB174" s="18"/>
-    </row>
-    <row r="175" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="175" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D175" s="15"/>
+      <c r="AX175" s="18"/>
       <c r="AY175" s="18"/>
       <c r="AZ175" s="18"/>
       <c r="BA175" s="18"/>
-      <c r="BB175" s="18"/>
-    </row>
-    <row r="176" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="176" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D176" s="15"/>
+      <c r="AX176" s="18"/>
       <c r="AY176" s="18"/>
       <c r="AZ176" s="18"/>
       <c r="BA176" s="18"/>
-      <c r="BB176" s="18"/>
-    </row>
-    <row r="177" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="177" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D177" s="15"/>
+      <c r="AX177" s="18"/>
       <c r="AY177" s="18"/>
       <c r="AZ177" s="18"/>
       <c r="BA177" s="18"/>
-      <c r="BB177" s="18"/>
-    </row>
-    <row r="178" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="178" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D178" s="15"/>
+      <c r="AX178" s="18"/>
       <c r="AY178" s="18"/>
       <c r="AZ178" s="18"/>
       <c r="BA178" s="18"/>
-      <c r="BB178" s="18"/>
-    </row>
-    <row r="179" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="179" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D179" s="15"/>
+      <c r="AX179" s="18"/>
       <c r="AY179" s="18"/>
       <c r="AZ179" s="18"/>
       <c r="BA179" s="18"/>
-      <c r="BB179" s="18"/>
-    </row>
-    <row r="180" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="180" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D180" s="15"/>
+      <c r="AX180" s="18"/>
       <c r="AY180" s="18"/>
       <c r="AZ180" s="18"/>
       <c r="BA180" s="18"/>
-      <c r="BB180" s="18"/>
-    </row>
-    <row r="181" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="181" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D181" s="15"/>
+      <c r="AX181" s="18"/>
       <c r="AY181" s="18"/>
       <c r="AZ181" s="18"/>
       <c r="BA181" s="18"/>
-      <c r="BB181" s="18"/>
-    </row>
-    <row r="182" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="182" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D182" s="15"/>
+      <c r="AX182" s="18"/>
       <c r="AY182" s="18"/>
       <c r="AZ182" s="18"/>
       <c r="BA182" s="18"/>
-      <c r="BB182" s="18"/>
-    </row>
-    <row r="183" spans="4:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="183" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D183" s="15"/>
     </row>
-    <row r="184" spans="4:54" x14ac:dyDescent="0.2">
+    <row r="184" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D184" s="15"/>
     </row>
-    <row r="185" spans="4:54" x14ac:dyDescent="0.2">
+    <row r="185" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D185" s="15"/>
     </row>
-    <row r="186" spans="4:54" x14ac:dyDescent="0.2">
+    <row r="186" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D186" s="15"/>
     </row>
-    <row r="187" spans="4:54" x14ac:dyDescent="0.2">
+    <row r="187" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D187" s="15"/>
     </row>
-    <row r="188" spans="4:54" x14ac:dyDescent="0.2">
+    <row r="188" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D188" s="15"/>
     </row>
-    <row r="189" spans="4:54" x14ac:dyDescent="0.2">
+    <row r="189" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D189" s="15"/>
     </row>
   </sheetData>
@@ -7014,13 +7004,13 @@
           <x14:formula1>
             <xm:f>lists!$C$1:$C$2</xm:f>
           </x14:formula1>
-          <xm:sqref>BS5:BS1108</xm:sqref>
+          <xm:sqref>BR5:BR1108</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>lists!$D$1:$D$4</xm:f>
           </x14:formula1>
-          <xm:sqref>BX5:BX1269</xm:sqref>
+          <xm:sqref>BW5:BW1269</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7044,10 +7034,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>1457</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>1458</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -33182,10 +33172,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1462</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1463</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -33206,10 +33196,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -33230,7 +33220,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>1383</v>
@@ -33313,43 +33303,43 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="B1" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="C1" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="D1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="B2" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="C2" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="D2" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="D3" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
   </sheetData>

--- a/template.xlsx
+++ b/template.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26709"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6650" uniqueCount="1494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6650" uniqueCount="1493">
   <si>
     <t>HAB region</t>
   </si>
@@ -4394,9 +4394,6 @@
     <t>Verbatim depth</t>
   </si>
   <si>
-    <t>measurementUnits</t>
-  </si>
-  <si>
     <t>Other measurements</t>
   </si>
   <si>
@@ -4505,9 +4502,6 @@
     <t>method</t>
   </si>
   <si>
-    <t>units</t>
-  </si>
-  <si>
     <t>Salinity</t>
   </si>
   <si>
@@ -4515,15 +4509,15 @@
   </si>
   <si>
     <t>type</t>
+  </si>
+  <si>
+    <t>unit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -4605,7 +4599,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -4644,9 +4638,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -5007,10 +4998,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CL189"/>
+  <dimension ref="A1:CL1074"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AJ7" sqref="AJ7"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5022,9 +5013,9 @@
     <col min="5" max="5" width="18.6640625" style="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.6640625" style="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.83203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" style="15" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="9.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="9.5" style="16" bestFit="1" customWidth="1"/>
     <col min="13" max="15" width="9.5" style="13" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.5" style="13" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16.1640625" style="13" bestFit="1" customWidth="1"/>
@@ -5093,7 +5084,7 @@
       <c r="A1" s="6" t="s">
         <v>1066</v>
       </c>
-      <c r="E1" s="19"/>
+      <c r="E1" s="18"/>
       <c r="H1" s="7" t="s">
         <v>1117</v>
       </c>
@@ -5121,7 +5112,7 @@
     </row>
     <row r="2" spans="1:90" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>0</v>
@@ -5130,7 +5121,7 @@
         <v>1067</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>1068</v>
@@ -5163,10 +5154,10 @@
         <v>1112</v>
       </c>
       <c r="S2" s="8" t="s">
+        <v>1469</v>
+      </c>
+      <c r="T2" s="8" t="s">
         <v>1470</v>
-      </c>
-      <c r="T2" s="8" t="s">
-        <v>1471</v>
       </c>
       <c r="U2" s="8" t="s">
         <v>1107</v>
@@ -5175,13 +5166,13 @@
         <v>1108</v>
       </c>
       <c r="W2" s="8" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="X2" s="8" t="s">
         <v>1114</v>
       </c>
       <c r="Y2" s="8" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="Z2" s="8" t="s">
         <v>1074</v>
@@ -5277,16 +5268,16 @@
         <v>1451</v>
       </c>
       <c r="BH2" s="8" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="BI2" s="8" t="s">
         <v>1099</v>
       </c>
       <c r="BJ2" s="8" t="s">
+        <v>1482</v>
+      </c>
+      <c r="BK2" s="8" t="s">
         <v>1483</v>
-      </c>
-      <c r="BK2" s="8" t="s">
-        <v>1484</v>
       </c>
       <c r="BL2" s="8" t="s">
         <v>1404</v>
@@ -5295,22 +5286,22 @@
         <v>1100</v>
       </c>
       <c r="BN2" s="8" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="BO2" s="8" t="s">
         <v>1101</v>
       </c>
       <c r="BP2" s="8" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="BQ2" s="8" t="s">
+        <v>1474</v>
+      </c>
+      <c r="BR2" s="8" t="s">
+        <v>1473</v>
+      </c>
+      <c r="BS2" s="8" t="s">
         <v>1475</v>
-      </c>
-      <c r="BR2" s="8" t="s">
-        <v>1474</v>
-      </c>
-      <c r="BS2" s="8" t="s">
-        <v>1476</v>
       </c>
       <c r="BT2" s="8" t="s">
         <v>1102</v>
@@ -5322,28 +5313,28 @@
         <v>1452</v>
       </c>
       <c r="BW2" s="8" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="BX2" s="8" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="BY2" s="8" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="CA2" s="8" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="CC2" s="10" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="CG2" s="8" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="CK2" s="8" t="s">
         <v>1110</v>
       </c>
       <c r="CL2" s="8" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="3" spans="1:90" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -5383,1559 +5374,1555 @@
         <v>1445</v>
       </c>
       <c r="BY3" s="8" t="s">
+        <v>1487</v>
+      </c>
+      <c r="BZ3" s="8" t="s">
         <v>1488</v>
       </c>
-      <c r="BZ3" s="8" t="s">
-        <v>1489</v>
-      </c>
       <c r="CA3" s="10" t="s">
+        <v>1487</v>
+      </c>
+      <c r="CB3" s="10" t="s">
         <v>1488</v>
       </c>
-      <c r="CB3" s="10" t="s">
-        <v>1489</v>
-      </c>
       <c r="CC3" s="10" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="CD3" s="10" t="s">
+        <v>1487</v>
+      </c>
+      <c r="CE3" s="10" t="s">
+        <v>1492</v>
+      </c>
+      <c r="CF3" s="10" t="s">
         <v>1488</v>
       </c>
-      <c r="CE3" s="10" t="s">
-        <v>1490</v>
-      </c>
-      <c r="CF3" s="10" t="s">
-        <v>1489</v>
-      </c>
       <c r="CG3" s="10" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="CH3" s="10" t="s">
+        <v>1487</v>
+      </c>
+      <c r="CI3" s="10" t="s">
+        <v>1492</v>
+      </c>
+      <c r="CJ3" s="10" t="s">
         <v>1488</v>
       </c>
-      <c r="CI3" s="10" t="s">
-        <v>1490</v>
-      </c>
-      <c r="CJ3" s="10" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="4" spans="1:90" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
+    </row>
+    <row r="4" spans="1:90" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
         <v>1432</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="20" t="s">
         <v>1410</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="20" t="s">
         <v>1410</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="19" t="s">
         <v>1392</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="20" t="s">
         <v>1393</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="20" t="s">
         <v>1393</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="20" t="s">
         <v>1394</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="21" t="s">
         <v>1395</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="20" t="s">
         <v>1396</v>
       </c>
-      <c r="J4" s="22" t="s">
+      <c r="J4" s="21" t="s">
         <v>1395</v>
       </c>
-      <c r="K4" s="22" t="s">
+      <c r="K4" s="21" t="s">
         <v>1395</v>
       </c>
-      <c r="L4" s="22" t="s">
+      <c r="L4" s="21" t="s">
         <v>1395</v>
       </c>
-      <c r="M4" s="22" t="s">
+      <c r="M4" s="21" t="s">
         <v>1395</v>
       </c>
-      <c r="N4" s="22" t="s">
+      <c r="N4" s="21" t="s">
         <v>1395</v>
       </c>
-      <c r="O4" s="22" t="s">
+      <c r="O4" s="21" t="s">
         <v>1395</v>
       </c>
-      <c r="P4" s="21" t="s">
+      <c r="P4" s="20" t="s">
         <v>1411</v>
       </c>
-      <c r="Q4" s="21" t="s">
+      <c r="Q4" s="20" t="s">
         <v>1412</v>
       </c>
-      <c r="R4" s="21" t="s">
+      <c r="R4" s="20" t="s">
         <v>1413</v>
       </c>
-      <c r="S4" s="21" t="s">
+      <c r="S4" s="20" t="s">
         <v>1414</v>
       </c>
-      <c r="T4" s="21" t="s">
+      <c r="T4" s="20" t="s">
         <v>1415</v>
       </c>
-      <c r="U4" s="21" t="s">
+      <c r="U4" s="20" t="s">
         <v>1416</v>
       </c>
-      <c r="V4" s="21" t="s">
+      <c r="V4" s="20" t="s">
         <v>1417</v>
       </c>
-      <c r="W4" s="21" t="s">
+      <c r="W4" s="20" t="s">
         <v>1418</v>
       </c>
-      <c r="X4" s="21" t="s">
+      <c r="X4" s="20" t="s">
         <v>1419</v>
       </c>
-      <c r="Y4" s="20" t="s">
+      <c r="Y4" s="19" t="s">
         <v>1420</v>
       </c>
-      <c r="Z4" s="20" t="s">
+      <c r="Z4" s="19" t="s">
         <v>1443</v>
       </c>
-      <c r="AA4" s="20" t="s">
+      <c r="AA4" s="19" t="s">
         <v>1443</v>
       </c>
-      <c r="AB4" s="20" t="s">
+      <c r="AB4" s="19" t="s">
         <v>1443</v>
       </c>
-      <c r="AC4" s="20" t="s">
+      <c r="AC4" s="19" t="s">
         <v>1443</v>
       </c>
-      <c r="AD4" s="20" t="s">
+      <c r="AD4" s="19" t="s">
         <v>1443</v>
       </c>
-      <c r="AE4" s="20" t="s">
+      <c r="AE4" s="19" t="s">
         <v>1443</v>
       </c>
-      <c r="AF4" s="20" t="s">
+      <c r="AF4" s="19" t="s">
         <v>1443</v>
       </c>
-      <c r="AG4" s="20" t="s">
+      <c r="AG4" s="19" t="s">
         <v>1443</v>
       </c>
-      <c r="AH4" s="20" t="s">
+      <c r="AH4" s="19" t="s">
         <v>1443</v>
       </c>
-      <c r="AI4" s="20" t="s">
+      <c r="AI4" s="19" t="s">
         <v>1443</v>
       </c>
-      <c r="AJ4" s="21" t="s">
+      <c r="AJ4" s="20" t="s">
         <v>1422</v>
       </c>
-      <c r="AK4" s="21" t="s">
+      <c r="AK4" s="20" t="s">
         <v>1423</v>
       </c>
-      <c r="AL4" s="21" t="s">
+      <c r="AL4" s="20" t="s">
         <v>1424</v>
       </c>
-      <c r="AM4" s="21" t="s">
+      <c r="AM4" s="20" t="s">
         <v>1425</v>
       </c>
-      <c r="AN4" s="20" t="s">
+      <c r="AN4" s="19" t="s">
         <v>1443</v>
       </c>
-      <c r="AO4" s="20" t="s">
+      <c r="AO4" s="19" t="s">
         <v>1443</v>
       </c>
-      <c r="AP4" s="20" t="s">
+      <c r="AP4" s="19" t="s">
         <v>1443</v>
       </c>
-      <c r="AQ4" s="20" t="s">
+      <c r="AQ4" s="19" t="s">
         <v>1443</v>
       </c>
-      <c r="AR4" s="20" t="s">
+      <c r="AR4" s="19" t="s">
         <v>1443</v>
       </c>
-      <c r="AS4" s="20" t="s">
+      <c r="AS4" s="19" t="s">
         <v>1443</v>
       </c>
-      <c r="AT4" s="20" t="s">
+      <c r="AT4" s="19" t="s">
         <v>1443</v>
       </c>
-      <c r="AU4" s="20" t="s">
+      <c r="AU4" s="19" t="s">
         <v>1443</v>
       </c>
-      <c r="AV4" s="20" t="s">
+      <c r="AV4" s="19" t="s">
         <v>1443</v>
       </c>
-      <c r="AW4" s="20" t="s">
+      <c r="AW4" s="19" t="s">
         <v>1443</v>
       </c>
-      <c r="AX4" s="20" t="s">
+      <c r="AX4" s="19" t="s">
         <v>1443</v>
       </c>
-      <c r="AY4" s="21" t="s">
+      <c r="AY4" s="20" t="s">
         <v>1426</v>
       </c>
-      <c r="AZ4" s="21" t="s">
+      <c r="AZ4" s="20" t="s">
         <v>1428</v>
       </c>
-      <c r="BA4" s="21" t="s">
+      <c r="BA4" s="20" t="s">
         <v>1427</v>
       </c>
-      <c r="BB4" s="21" t="s">
+      <c r="BB4" s="20" t="s">
         <v>1429</v>
       </c>
-      <c r="BC4" s="21" t="s">
+      <c r="BC4" s="20" t="s">
         <v>1430</v>
       </c>
-      <c r="BD4" s="21" t="s">
+      <c r="BD4" s="20" t="s">
         <v>1431</v>
       </c>
-      <c r="BE4" s="21" t="s">
+      <c r="BE4" s="20" t="s">
         <v>1372</v>
       </c>
-      <c r="BF4" s="21" t="s">
+      <c r="BF4" s="20" t="s">
         <v>1433</v>
       </c>
-      <c r="BG4" s="21" t="s">
+      <c r="BG4" s="20" t="s">
         <v>1434</v>
       </c>
-      <c r="BH4" s="21" t="s">
+      <c r="BH4" s="20" t="s">
         <v>1400</v>
       </c>
-      <c r="BI4" s="21" t="s">
+      <c r="BI4" s="20" t="s">
         <v>1401</v>
       </c>
-      <c r="BJ4" s="21" t="s">
+      <c r="BJ4" s="20" t="s">
         <v>1402</v>
       </c>
-      <c r="BK4" s="21" t="s">
+      <c r="BK4" s="20" t="s">
         <v>1403</v>
       </c>
-      <c r="BL4" s="21" t="s">
+      <c r="BL4" s="20" t="s">
         <v>1404</v>
       </c>
-      <c r="BM4" s="21" t="s">
+      <c r="BM4" s="20" t="s">
         <v>1405</v>
       </c>
-      <c r="BN4" s="21" t="s">
+      <c r="BN4" s="20" t="s">
         <v>1406</v>
       </c>
-      <c r="BO4" s="21" t="s">
+      <c r="BO4" s="20" t="s">
         <v>1435</v>
       </c>
-      <c r="BP4" s="20" t="s">
+      <c r="BP4" s="19" t="s">
         <v>1436</v>
       </c>
-      <c r="BQ4" s="21" t="s">
+      <c r="BQ4" s="20" t="s">
         <v>1407</v>
       </c>
-      <c r="BR4" s="21" t="s">
+      <c r="BR4" s="20" t="s">
         <v>1438</v>
       </c>
-      <c r="BS4" s="20" t="s">
+      <c r="BS4" s="19" t="s">
         <v>1443</v>
       </c>
-      <c r="BT4" s="21" t="s">
+      <c r="BT4" s="20" t="s">
         <v>1408</v>
       </c>
-      <c r="BU4" s="21" t="s">
+      <c r="BU4" s="20" t="s">
         <v>1437</v>
       </c>
-      <c r="BV4" s="21" t="s">
+      <c r="BV4" s="20" t="s">
         <v>1409</v>
       </c>
-      <c r="BW4" s="21" t="s">
+      <c r="BW4" s="20" t="s">
         <v>1420</v>
       </c>
-      <c r="BX4" s="21" t="s">
+      <c r="BX4" s="20" t="s">
         <v>1438</v>
       </c>
-      <c r="BY4" s="20" t="s">
+      <c r="BY4" s="19" t="s">
         <v>1423</v>
       </c>
-      <c r="BZ4" s="20" t="s">
+      <c r="BZ4" s="19" t="s">
         <v>1422</v>
       </c>
-      <c r="CA4" s="20" t="s">
+      <c r="CA4" s="19" t="s">
         <v>1423</v>
       </c>
-      <c r="CB4" s="20" t="s">
+      <c r="CB4" s="19" t="s">
         <v>1422</v>
       </c>
-      <c r="CC4" s="21" t="s">
+      <c r="CC4" s="20" t="s">
         <v>1421</v>
       </c>
-      <c r="CD4" s="21" t="s">
+      <c r="CD4" s="20" t="s">
         <v>1423</v>
       </c>
-      <c r="CE4" s="21" t="s">
-        <v>1453</v>
-      </c>
-      <c r="CF4" s="21" t="s">
+      <c r="CE4" s="20" t="s">
+        <v>1424</v>
+      </c>
+      <c r="CF4" s="20" t="s">
         <v>1422</v>
       </c>
-      <c r="CG4" s="21" t="s">
+      <c r="CG4" s="20" t="s">
         <v>1421</v>
       </c>
-      <c r="CH4" s="21" t="s">
+      <c r="CH4" s="20" t="s">
         <v>1423</v>
       </c>
-      <c r="CI4" s="21" t="s">
-        <v>1453</v>
-      </c>
-      <c r="CJ4" s="21" t="s">
+      <c r="CI4" s="20" t="s">
+        <v>1424</v>
+      </c>
+      <c r="CJ4" s="20" t="s">
         <v>1422</v>
       </c>
-      <c r="CK4" s="20" t="s">
+      <c r="CK4" s="19" t="s">
         <v>1438</v>
       </c>
-      <c r="CL4" s="20" t="s">
+      <c r="CL4" s="19" t="s">
         <v>1438</v>
       </c>
     </row>
     <row r="5" spans="1:90" x14ac:dyDescent="0.2">
       <c r="D5" s="15"/>
-      <c r="AX5" s="18"/>
-      <c r="AY5" s="18"/>
-      <c r="AZ5" s="18"/>
-      <c r="BA5" s="18"/>
+      <c r="AX5" s="17"/>
+      <c r="AY5" s="17"/>
+      <c r="AZ5" s="17"/>
+      <c r="BA5" s="17"/>
     </row>
     <row r="6" spans="1:90" x14ac:dyDescent="0.2">
       <c r="D6" s="15"/>
-      <c r="AX6" s="18"/>
-      <c r="AY6" s="18"/>
-      <c r="AZ6" s="18"/>
-      <c r="BA6" s="18"/>
+      <c r="AX6" s="17"/>
+      <c r="AY6" s="17"/>
+      <c r="AZ6" s="17"/>
+      <c r="BA6" s="17"/>
     </row>
     <row r="7" spans="1:90" x14ac:dyDescent="0.2">
       <c r="D7" s="15"/>
-      <c r="AX7" s="18"/>
-      <c r="AY7" s="18"/>
-      <c r="AZ7" s="18"/>
-      <c r="BA7" s="18"/>
+      <c r="AX7" s="17"/>
+      <c r="AY7" s="17"/>
+      <c r="AZ7" s="17"/>
+      <c r="BA7" s="17"/>
     </row>
     <row r="8" spans="1:90" x14ac:dyDescent="0.2">
       <c r="D8" s="15"/>
-      <c r="AX8" s="18"/>
-      <c r="AY8" s="18"/>
-      <c r="AZ8" s="18"/>
-      <c r="BA8" s="18"/>
+      <c r="AX8" s="17"/>
+      <c r="AY8" s="17"/>
+      <c r="AZ8" s="17"/>
+      <c r="BA8" s="17"/>
     </row>
     <row r="9" spans="1:90" x14ac:dyDescent="0.2">
       <c r="D9" s="15"/>
-      <c r="AX9" s="18"/>
-      <c r="AY9" s="18"/>
-      <c r="AZ9" s="18"/>
-      <c r="BA9" s="18"/>
+      <c r="AX9" s="17"/>
+      <c r="AY9" s="17"/>
+      <c r="AZ9" s="17"/>
+      <c r="BA9" s="17"/>
     </row>
     <row r="10" spans="1:90" x14ac:dyDescent="0.2">
       <c r="D10" s="15"/>
-      <c r="AX10" s="18"/>
-      <c r="AY10" s="18"/>
-      <c r="AZ10" s="18"/>
-      <c r="BA10" s="18"/>
+      <c r="AX10" s="17"/>
+      <c r="AY10" s="17"/>
+      <c r="AZ10" s="17"/>
+      <c r="BA10" s="17"/>
     </row>
     <row r="11" spans="1:90" x14ac:dyDescent="0.2">
       <c r="D11" s="15"/>
-      <c r="AX11" s="18"/>
-      <c r="AY11" s="18"/>
-      <c r="AZ11" s="18"/>
-      <c r="BA11" s="18"/>
+      <c r="AX11" s="17"/>
+      <c r="AY11" s="17"/>
+      <c r="AZ11" s="17"/>
+      <c r="BA11" s="17"/>
     </row>
     <row r="12" spans="1:90" x14ac:dyDescent="0.2">
       <c r="D12" s="15"/>
-      <c r="AX12" s="18"/>
-      <c r="AY12" s="18"/>
-      <c r="AZ12" s="18"/>
-      <c r="BA12" s="18"/>
+      <c r="AX12" s="17"/>
+      <c r="AY12" s="17"/>
+      <c r="AZ12" s="17"/>
+      <c r="BA12" s="17"/>
     </row>
     <row r="13" spans="1:90" x14ac:dyDescent="0.2">
       <c r="D13" s="15"/>
-      <c r="AX13" s="18"/>
-      <c r="AY13" s="18"/>
-      <c r="AZ13" s="18"/>
-      <c r="BA13" s="18"/>
+      <c r="AX13" s="17"/>
+      <c r="AY13" s="17"/>
+      <c r="AZ13" s="17"/>
+      <c r="BA13" s="17"/>
     </row>
     <row r="14" spans="1:90" x14ac:dyDescent="0.2">
       <c r="D14" s="15"/>
-      <c r="AX14" s="18"/>
-      <c r="AY14" s="18"/>
-      <c r="AZ14" s="18"/>
-      <c r="BA14" s="18"/>
+      <c r="AX14" s="17"/>
+      <c r="AY14" s="17"/>
+      <c r="AZ14" s="17"/>
+      <c r="BA14" s="17"/>
     </row>
     <row r="15" spans="1:90" x14ac:dyDescent="0.2">
       <c r="D15" s="15"/>
-      <c r="AX15" s="18"/>
-      <c r="AY15" s="18"/>
-      <c r="AZ15" s="18"/>
-      <c r="BA15" s="18"/>
+      <c r="AX15" s="17"/>
+      <c r="AY15" s="17"/>
+      <c r="AZ15" s="17"/>
+      <c r="BA15" s="17"/>
     </row>
     <row r="16" spans="1:90" x14ac:dyDescent="0.2">
       <c r="D16" s="15"/>
-      <c r="AX16" s="18"/>
-      <c r="AY16" s="18"/>
-      <c r="AZ16" s="18"/>
-      <c r="BA16" s="18"/>
+      <c r="AX16" s="17"/>
+      <c r="AY16" s="17"/>
+      <c r="AZ16" s="17"/>
+      <c r="BA16" s="17"/>
     </row>
     <row r="17" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D17" s="15"/>
-      <c r="AX17" s="18"/>
-      <c r="AY17" s="18"/>
-      <c r="AZ17" s="18"/>
-      <c r="BA17" s="18"/>
+      <c r="AX17" s="17"/>
+      <c r="AY17" s="17"/>
+      <c r="AZ17" s="17"/>
+      <c r="BA17" s="17"/>
     </row>
     <row r="18" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D18" s="15"/>
-      <c r="AX18" s="18"/>
-      <c r="AY18" s="18"/>
-      <c r="AZ18" s="18"/>
-      <c r="BA18" s="18"/>
+      <c r="AX18" s="17"/>
+      <c r="AY18" s="17"/>
+      <c r="AZ18" s="17"/>
+      <c r="BA18" s="17"/>
     </row>
     <row r="19" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D19" s="15"/>
-      <c r="AX19" s="18"/>
-      <c r="AY19" s="18"/>
-      <c r="AZ19" s="18"/>
-      <c r="BA19" s="18"/>
+      <c r="AX19" s="17"/>
+      <c r="AY19" s="17"/>
+      <c r="AZ19" s="17"/>
+      <c r="BA19" s="17"/>
     </row>
     <row r="20" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D20" s="15"/>
-      <c r="AX20" s="18"/>
-      <c r="AY20" s="18"/>
-      <c r="AZ20" s="18"/>
-      <c r="BA20" s="18"/>
+      <c r="AX20" s="17"/>
+      <c r="AY20" s="17"/>
+      <c r="AZ20" s="17"/>
+      <c r="BA20" s="17"/>
     </row>
     <row r="21" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D21" s="15"/>
-      <c r="AX21" s="18"/>
-      <c r="AY21" s="18"/>
-      <c r="AZ21" s="18"/>
-      <c r="BA21" s="18"/>
+      <c r="AX21" s="17"/>
+      <c r="AY21" s="17"/>
+      <c r="AZ21" s="17"/>
+      <c r="BA21" s="17"/>
     </row>
     <row r="22" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D22" s="15"/>
-      <c r="AX22" s="18"/>
-      <c r="AY22" s="18"/>
-      <c r="AZ22" s="18"/>
-      <c r="BA22" s="18"/>
+      <c r="AX22" s="17"/>
+      <c r="AY22" s="17"/>
+      <c r="AZ22" s="17"/>
+      <c r="BA22" s="17"/>
     </row>
     <row r="23" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D23" s="15"/>
-      <c r="AX23" s="18"/>
-      <c r="AY23" s="18"/>
-      <c r="AZ23" s="18"/>
-      <c r="BA23" s="18"/>
+      <c r="AX23" s="17"/>
+      <c r="AY23" s="17"/>
+      <c r="AZ23" s="17"/>
+      <c r="BA23" s="17"/>
     </row>
     <row r="24" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D24" s="15"/>
-      <c r="AX24" s="18"/>
-      <c r="AY24" s="18"/>
-      <c r="AZ24" s="18"/>
-      <c r="BA24" s="18"/>
+      <c r="AX24" s="17"/>
+      <c r="AY24" s="17"/>
+      <c r="AZ24" s="17"/>
+      <c r="BA24" s="17"/>
     </row>
     <row r="25" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D25" s="15"/>
-      <c r="AX25" s="18"/>
-      <c r="AY25" s="18"/>
-      <c r="AZ25" s="18"/>
-      <c r="BA25" s="18"/>
+      <c r="AX25" s="17"/>
+      <c r="AY25" s="17"/>
+      <c r="AZ25" s="17"/>
+      <c r="BA25" s="17"/>
     </row>
     <row r="26" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D26" s="15"/>
-      <c r="AX26" s="18"/>
-      <c r="AY26" s="18"/>
-      <c r="AZ26" s="18"/>
-      <c r="BA26" s="18"/>
+      <c r="AX26" s="17"/>
+      <c r="AY26" s="17"/>
+      <c r="AZ26" s="17"/>
+      <c r="BA26" s="17"/>
     </row>
     <row r="27" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D27" s="15"/>
-      <c r="AX27" s="18"/>
-      <c r="AY27" s="18"/>
-      <c r="AZ27" s="18"/>
-      <c r="BA27" s="18"/>
+      <c r="AX27" s="17"/>
+      <c r="AY27" s="17"/>
+      <c r="AZ27" s="17"/>
+      <c r="BA27" s="17"/>
     </row>
     <row r="28" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D28" s="15"/>
-      <c r="AX28" s="18"/>
-      <c r="AY28" s="18"/>
-      <c r="AZ28" s="18"/>
-      <c r="BA28" s="18"/>
+      <c r="AX28" s="17"/>
+      <c r="AY28" s="17"/>
+      <c r="AZ28" s="17"/>
+      <c r="BA28" s="17"/>
     </row>
     <row r="29" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D29" s="15"/>
-      <c r="AX29" s="18"/>
-      <c r="AY29" s="18"/>
-      <c r="AZ29" s="18"/>
-      <c r="BA29" s="18"/>
+      <c r="AX29" s="17"/>
+      <c r="AY29" s="17"/>
+      <c r="AZ29" s="17"/>
+      <c r="BA29" s="17"/>
     </row>
     <row r="30" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D30" s="15"/>
-      <c r="AX30" s="18"/>
-      <c r="AY30" s="18"/>
-      <c r="AZ30" s="18"/>
-      <c r="BA30" s="18"/>
+      <c r="AX30" s="17"/>
+      <c r="AY30" s="17"/>
+      <c r="AZ30" s="17"/>
+      <c r="BA30" s="17"/>
     </row>
     <row r="31" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D31" s="15"/>
-      <c r="AX31" s="18"/>
-      <c r="AY31" s="18"/>
-      <c r="AZ31" s="18"/>
-      <c r="BA31" s="18"/>
+      <c r="AX31" s="17"/>
+      <c r="AY31" s="17"/>
+      <c r="AZ31" s="17"/>
+      <c r="BA31" s="17"/>
     </row>
     <row r="32" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D32" s="15"/>
-      <c r="AX32" s="18"/>
-      <c r="AY32" s="18"/>
-      <c r="AZ32" s="18"/>
-      <c r="BA32" s="18"/>
+      <c r="AX32" s="17"/>
+      <c r="AY32" s="17"/>
+      <c r="AZ32" s="17"/>
+      <c r="BA32" s="17"/>
     </row>
     <row r="33" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D33" s="15"/>
-      <c r="AX33" s="18"/>
-      <c r="AY33" s="18"/>
-      <c r="AZ33" s="18"/>
-      <c r="BA33" s="18"/>
+      <c r="AX33" s="17"/>
+      <c r="AY33" s="17"/>
+      <c r="AZ33" s="17"/>
+      <c r="BA33" s="17"/>
     </row>
     <row r="34" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D34" s="15"/>
-      <c r="AX34" s="18"/>
-      <c r="AY34" s="18"/>
-      <c r="AZ34" s="18"/>
-      <c r="BA34" s="18"/>
+      <c r="AX34" s="17"/>
+      <c r="AY34" s="17"/>
+      <c r="AZ34" s="17"/>
+      <c r="BA34" s="17"/>
     </row>
     <row r="35" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D35" s="15"/>
-      <c r="AX35" s="18"/>
-      <c r="AY35" s="18"/>
-      <c r="AZ35" s="18"/>
-      <c r="BA35" s="18"/>
+      <c r="AX35" s="17"/>
+      <c r="AY35" s="17"/>
+      <c r="AZ35" s="17"/>
+      <c r="BA35" s="17"/>
     </row>
     <row r="36" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D36" s="15"/>
-      <c r="AX36" s="18"/>
-      <c r="AY36" s="18"/>
-      <c r="AZ36" s="18"/>
-      <c r="BA36" s="18"/>
+      <c r="AX36" s="17"/>
+      <c r="AY36" s="17"/>
+      <c r="AZ36" s="17"/>
+      <c r="BA36" s="17"/>
     </row>
     <row r="37" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D37" s="15"/>
-      <c r="AX37" s="18"/>
-      <c r="AY37" s="18"/>
-      <c r="AZ37" s="18"/>
-      <c r="BA37" s="18"/>
+      <c r="AX37" s="17"/>
+      <c r="AY37" s="17"/>
+      <c r="AZ37" s="17"/>
+      <c r="BA37" s="17"/>
     </row>
     <row r="38" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D38" s="15"/>
-      <c r="AX38" s="18"/>
-      <c r="AY38" s="18"/>
-      <c r="AZ38" s="18"/>
-      <c r="BA38" s="18"/>
+      <c r="AX38" s="17"/>
+      <c r="AY38" s="17"/>
+      <c r="AZ38" s="17"/>
+      <c r="BA38" s="17"/>
     </row>
     <row r="39" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D39" s="15"/>
-      <c r="AX39" s="18"/>
-      <c r="AY39" s="18"/>
-      <c r="AZ39" s="18"/>
-      <c r="BA39" s="18"/>
+      <c r="AX39" s="17"/>
+      <c r="AY39" s="17"/>
+      <c r="AZ39" s="17"/>
+      <c r="BA39" s="17"/>
     </row>
     <row r="40" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D40" s="15"/>
-      <c r="AX40" s="18"/>
-      <c r="AY40" s="18"/>
-      <c r="AZ40" s="18"/>
-      <c r="BA40" s="18"/>
+      <c r="AX40" s="17"/>
+      <c r="AY40" s="17"/>
+      <c r="AZ40" s="17"/>
+      <c r="BA40" s="17"/>
     </row>
     <row r="41" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D41" s="15"/>
-      <c r="AX41" s="18"/>
-      <c r="AY41" s="18"/>
-      <c r="AZ41" s="18"/>
-      <c r="BA41" s="18"/>
+      <c r="AX41" s="17"/>
+      <c r="AY41" s="17"/>
+      <c r="AZ41" s="17"/>
+      <c r="BA41" s="17"/>
     </row>
     <row r="42" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D42" s="15"/>
-      <c r="AX42" s="18"/>
-      <c r="AY42" s="18"/>
-      <c r="AZ42" s="18"/>
-      <c r="BA42" s="18"/>
+      <c r="AX42" s="17"/>
+      <c r="AY42" s="17"/>
+      <c r="AZ42" s="17"/>
+      <c r="BA42" s="17"/>
     </row>
     <row r="43" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D43" s="15"/>
-      <c r="AX43" s="18"/>
-      <c r="AY43" s="18"/>
-      <c r="AZ43" s="18"/>
-      <c r="BA43" s="18"/>
+      <c r="AX43" s="17"/>
+      <c r="AY43" s="17"/>
+      <c r="AZ43" s="17"/>
+      <c r="BA43" s="17"/>
     </row>
     <row r="44" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D44" s="15"/>
-      <c r="AX44" s="18"/>
-      <c r="AY44" s="18"/>
-      <c r="AZ44" s="18"/>
-      <c r="BA44" s="18"/>
+      <c r="AX44" s="17"/>
+      <c r="AY44" s="17"/>
+      <c r="AZ44" s="17"/>
+      <c r="BA44" s="17"/>
     </row>
     <row r="45" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D45" s="15"/>
-      <c r="AX45" s="18"/>
-      <c r="AY45" s="18"/>
-      <c r="AZ45" s="18"/>
-      <c r="BA45" s="18"/>
+      <c r="AX45" s="17"/>
+      <c r="AY45" s="17"/>
+      <c r="AZ45" s="17"/>
+      <c r="BA45" s="17"/>
     </row>
     <row r="46" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D46" s="15"/>
-      <c r="AX46" s="18"/>
-      <c r="AY46" s="18"/>
-      <c r="AZ46" s="18"/>
-      <c r="BA46" s="18"/>
+      <c r="AX46" s="17"/>
+      <c r="AY46" s="17"/>
+      <c r="AZ46" s="17"/>
+      <c r="BA46" s="17"/>
     </row>
     <row r="47" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D47" s="15"/>
-      <c r="AX47" s="18"/>
-      <c r="AY47" s="18"/>
-      <c r="AZ47" s="18"/>
-      <c r="BA47" s="18"/>
+      <c r="AX47" s="17"/>
+      <c r="AY47" s="17"/>
+      <c r="AZ47" s="17"/>
+      <c r="BA47" s="17"/>
     </row>
     <row r="48" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D48" s="15"/>
-      <c r="AX48" s="18"/>
-      <c r="AY48" s="18"/>
-      <c r="AZ48" s="18"/>
-      <c r="BA48" s="18"/>
+      <c r="AX48" s="17"/>
+      <c r="AY48" s="17"/>
+      <c r="AZ48" s="17"/>
+      <c r="BA48" s="17"/>
     </row>
     <row r="49" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D49" s="15"/>
-      <c r="AX49" s="18"/>
-      <c r="AY49" s="18"/>
-      <c r="AZ49" s="18"/>
-      <c r="BA49" s="18"/>
+      <c r="AX49" s="17"/>
+      <c r="AY49" s="17"/>
+      <c r="AZ49" s="17"/>
+      <c r="BA49" s="17"/>
     </row>
     <row r="50" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D50" s="15"/>
-      <c r="AX50" s="18"/>
-      <c r="AY50" s="18"/>
-      <c r="AZ50" s="18"/>
-      <c r="BA50" s="18"/>
+      <c r="AX50" s="17"/>
+      <c r="AY50" s="17"/>
+      <c r="AZ50" s="17"/>
+      <c r="BA50" s="17"/>
     </row>
     <row r="51" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D51" s="15"/>
-      <c r="AX51" s="18"/>
-      <c r="AY51" s="18"/>
-      <c r="AZ51" s="18"/>
-      <c r="BA51" s="18"/>
+      <c r="AX51" s="17"/>
+      <c r="AY51" s="17"/>
+      <c r="AZ51" s="17"/>
+      <c r="BA51" s="17"/>
     </row>
     <row r="52" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D52" s="15"/>
-      <c r="AX52" s="18"/>
-      <c r="AY52" s="18"/>
-      <c r="AZ52" s="18"/>
-      <c r="BA52" s="18"/>
+      <c r="AX52" s="17"/>
+      <c r="AY52" s="17"/>
+      <c r="AZ52" s="17"/>
+      <c r="BA52" s="17"/>
     </row>
     <row r="53" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D53" s="15"/>
-      <c r="AX53" s="18"/>
-      <c r="AY53" s="18"/>
-      <c r="AZ53" s="18"/>
-      <c r="BA53" s="18"/>
+      <c r="AX53" s="17"/>
+      <c r="AY53" s="17"/>
+      <c r="AZ53" s="17"/>
+      <c r="BA53" s="17"/>
     </row>
     <row r="54" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D54" s="15"/>
-      <c r="AX54" s="18"/>
-      <c r="AY54" s="18"/>
-      <c r="AZ54" s="18"/>
-      <c r="BA54" s="18"/>
+      <c r="AX54" s="17"/>
+      <c r="AY54" s="17"/>
+      <c r="AZ54" s="17"/>
+      <c r="BA54" s="17"/>
     </row>
     <row r="55" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D55" s="15"/>
-      <c r="AX55" s="18"/>
-      <c r="AY55" s="18"/>
-      <c r="AZ55" s="18"/>
-      <c r="BA55" s="18"/>
+      <c r="AX55" s="17"/>
+      <c r="AY55" s="17"/>
+      <c r="AZ55" s="17"/>
+      <c r="BA55" s="17"/>
     </row>
     <row r="56" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D56" s="15"/>
-      <c r="AX56" s="18"/>
-      <c r="AY56" s="18"/>
-      <c r="AZ56" s="18"/>
-      <c r="BA56" s="18"/>
+      <c r="AX56" s="17"/>
+      <c r="AY56" s="17"/>
+      <c r="AZ56" s="17"/>
+      <c r="BA56" s="17"/>
     </row>
     <row r="57" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D57" s="15"/>
-      <c r="AX57" s="18"/>
-      <c r="AY57" s="18"/>
-      <c r="AZ57" s="18"/>
-      <c r="BA57" s="18"/>
+      <c r="AX57" s="17"/>
+      <c r="AY57" s="17"/>
+      <c r="AZ57" s="17"/>
+      <c r="BA57" s="17"/>
     </row>
     <row r="58" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D58" s="15"/>
-      <c r="AX58" s="18"/>
-      <c r="AY58" s="18"/>
-      <c r="AZ58" s="18"/>
-      <c r="BA58" s="18"/>
+      <c r="AX58" s="17"/>
+      <c r="AY58" s="17"/>
+      <c r="AZ58" s="17"/>
+      <c r="BA58" s="17"/>
     </row>
     <row r="59" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D59" s="15"/>
-      <c r="AX59" s="18"/>
-      <c r="AY59" s="18"/>
-      <c r="AZ59" s="18"/>
-      <c r="BA59" s="18"/>
+      <c r="AX59" s="17"/>
+      <c r="AY59" s="17"/>
+      <c r="AZ59" s="17"/>
+      <c r="BA59" s="17"/>
     </row>
     <row r="60" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D60" s="15"/>
-      <c r="AX60" s="18"/>
-      <c r="AY60" s="18"/>
-      <c r="AZ60" s="18"/>
-      <c r="BA60" s="18"/>
+      <c r="AX60" s="17"/>
+      <c r="AY60" s="17"/>
+      <c r="AZ60" s="17"/>
+      <c r="BA60" s="17"/>
     </row>
     <row r="61" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D61" s="15"/>
-      <c r="AX61" s="18"/>
-      <c r="AY61" s="18"/>
-      <c r="AZ61" s="18"/>
-      <c r="BA61" s="18"/>
+      <c r="AX61" s="17"/>
+      <c r="AY61" s="17"/>
+      <c r="AZ61" s="17"/>
+      <c r="BA61" s="17"/>
     </row>
     <row r="62" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D62" s="15"/>
-      <c r="AX62" s="18"/>
-      <c r="AY62" s="18"/>
-      <c r="AZ62" s="18"/>
-      <c r="BA62" s="18"/>
+      <c r="AX62" s="17"/>
+      <c r="AY62" s="17"/>
+      <c r="AZ62" s="17"/>
+      <c r="BA62" s="17"/>
     </row>
     <row r="63" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D63" s="15"/>
-      <c r="AX63" s="18"/>
-      <c r="AY63" s="18"/>
-      <c r="AZ63" s="18"/>
-      <c r="BA63" s="18"/>
+      <c r="AX63" s="17"/>
+      <c r="AY63" s="17"/>
+      <c r="AZ63" s="17"/>
+      <c r="BA63" s="17"/>
     </row>
     <row r="64" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D64" s="15"/>
-      <c r="AX64" s="18"/>
-      <c r="AY64" s="18"/>
-      <c r="AZ64" s="18"/>
-      <c r="BA64" s="18"/>
+      <c r="AX64" s="17"/>
+      <c r="AY64" s="17"/>
+      <c r="AZ64" s="17"/>
+      <c r="BA64" s="17"/>
     </row>
     <row r="65" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D65" s="15"/>
-      <c r="AX65" s="18"/>
-      <c r="AY65" s="18"/>
-      <c r="AZ65" s="18"/>
-      <c r="BA65" s="18"/>
+      <c r="AX65" s="17"/>
+      <c r="AY65" s="17"/>
+      <c r="AZ65" s="17"/>
+      <c r="BA65" s="17"/>
     </row>
     <row r="66" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D66" s="15"/>
-      <c r="AX66" s="18"/>
-      <c r="AY66" s="18"/>
-      <c r="AZ66" s="18"/>
-      <c r="BA66" s="18"/>
+      <c r="AX66" s="17"/>
+      <c r="AY66" s="17"/>
+      <c r="AZ66" s="17"/>
+      <c r="BA66" s="17"/>
     </row>
     <row r="67" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D67" s="15"/>
-      <c r="AX67" s="18"/>
-      <c r="AY67" s="18"/>
-      <c r="AZ67" s="18"/>
-      <c r="BA67" s="18"/>
+      <c r="AX67" s="17"/>
+      <c r="AY67" s="17"/>
+      <c r="AZ67" s="17"/>
+      <c r="BA67" s="17"/>
     </row>
     <row r="68" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D68" s="15"/>
-      <c r="AX68" s="18"/>
-      <c r="AY68" s="18"/>
-      <c r="AZ68" s="18"/>
-      <c r="BA68" s="18"/>
+      <c r="AX68" s="17"/>
+      <c r="AY68" s="17"/>
+      <c r="AZ68" s="17"/>
+      <c r="BA68" s="17"/>
     </row>
     <row r="69" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D69" s="15"/>
-      <c r="AX69" s="18"/>
-      <c r="AY69" s="18"/>
-      <c r="AZ69" s="18"/>
-      <c r="BA69" s="18"/>
+      <c r="AX69" s="17"/>
+      <c r="AY69" s="17"/>
+      <c r="AZ69" s="17"/>
+      <c r="BA69" s="17"/>
     </row>
     <row r="70" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D70" s="15"/>
-      <c r="AX70" s="18"/>
-      <c r="AY70" s="18"/>
-      <c r="AZ70" s="18"/>
-      <c r="BA70" s="18"/>
+      <c r="AX70" s="17"/>
+      <c r="AY70" s="17"/>
+      <c r="AZ70" s="17"/>
+      <c r="BA70" s="17"/>
     </row>
     <row r="71" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D71" s="15"/>
-      <c r="AX71" s="18"/>
-      <c r="AY71" s="18"/>
-      <c r="AZ71" s="18"/>
-      <c r="BA71" s="18"/>
+      <c r="AX71" s="17"/>
+      <c r="AY71" s="17"/>
+      <c r="AZ71" s="17"/>
+      <c r="BA71" s="17"/>
     </row>
     <row r="72" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D72" s="15"/>
-      <c r="AX72" s="18"/>
-      <c r="AY72" s="18"/>
-      <c r="AZ72" s="18"/>
-      <c r="BA72" s="18"/>
+      <c r="AX72" s="17"/>
+      <c r="AY72" s="17"/>
+      <c r="AZ72" s="17"/>
+      <c r="BA72" s="17"/>
     </row>
     <row r="73" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D73" s="15"/>
-      <c r="AX73" s="18"/>
-      <c r="AY73" s="18"/>
-      <c r="AZ73" s="18"/>
-      <c r="BA73" s="18"/>
+      <c r="AX73" s="17"/>
+      <c r="AY73" s="17"/>
+      <c r="AZ73" s="17"/>
+      <c r="BA73" s="17"/>
     </row>
     <row r="74" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D74" s="15"/>
-      <c r="AX74" s="18"/>
-      <c r="AY74" s="18"/>
-      <c r="AZ74" s="18"/>
-      <c r="BA74" s="18"/>
+      <c r="AX74" s="17"/>
+      <c r="AY74" s="17"/>
+      <c r="AZ74" s="17"/>
+      <c r="BA74" s="17"/>
     </row>
     <row r="75" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D75" s="15"/>
-      <c r="AX75" s="18"/>
-      <c r="AY75" s="18"/>
-      <c r="AZ75" s="18"/>
-      <c r="BA75" s="18"/>
+      <c r="AX75" s="17"/>
+      <c r="AY75" s="17"/>
+      <c r="AZ75" s="17"/>
+      <c r="BA75" s="17"/>
     </row>
     <row r="76" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D76" s="15"/>
-      <c r="AX76" s="18"/>
-      <c r="AY76" s="18"/>
-      <c r="AZ76" s="18"/>
-      <c r="BA76" s="18"/>
+      <c r="AX76" s="17"/>
+      <c r="AY76" s="17"/>
+      <c r="AZ76" s="17"/>
+      <c r="BA76" s="17"/>
     </row>
     <row r="77" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D77" s="15"/>
-      <c r="AX77" s="18"/>
-      <c r="AY77" s="18"/>
-      <c r="AZ77" s="18"/>
-      <c r="BA77" s="18"/>
+      <c r="AX77" s="17"/>
+      <c r="AY77" s="17"/>
+      <c r="AZ77" s="17"/>
+      <c r="BA77" s="17"/>
     </row>
     <row r="78" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D78" s="15"/>
-      <c r="AX78" s="18"/>
-      <c r="AY78" s="18"/>
-      <c r="AZ78" s="18"/>
-      <c r="BA78" s="18"/>
+      <c r="AX78" s="17"/>
+      <c r="AY78" s="17"/>
+      <c r="AZ78" s="17"/>
+      <c r="BA78" s="17"/>
     </row>
     <row r="79" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D79" s="15"/>
-      <c r="AX79" s="18"/>
-      <c r="AY79" s="18"/>
-      <c r="AZ79" s="18"/>
-      <c r="BA79" s="18"/>
+      <c r="AX79" s="17"/>
+      <c r="AY79" s="17"/>
+      <c r="AZ79" s="17"/>
+      <c r="BA79" s="17"/>
     </row>
     <row r="80" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D80" s="15"/>
-      <c r="AX80" s="18"/>
-      <c r="AY80" s="18"/>
-      <c r="AZ80" s="18"/>
-      <c r="BA80" s="18"/>
+      <c r="AX80" s="17"/>
+      <c r="AY80" s="17"/>
+      <c r="AZ80" s="17"/>
+      <c r="BA80" s="17"/>
     </row>
     <row r="81" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D81" s="15"/>
-      <c r="AX81" s="18"/>
-      <c r="AY81" s="18"/>
-      <c r="AZ81" s="18"/>
-      <c r="BA81" s="18"/>
+      <c r="AX81" s="17"/>
+      <c r="AY81" s="17"/>
+      <c r="AZ81" s="17"/>
+      <c r="BA81" s="17"/>
     </row>
     <row r="82" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D82" s="15"/>
-      <c r="AX82" s="18"/>
-      <c r="AY82" s="18"/>
-      <c r="AZ82" s="18"/>
-      <c r="BA82" s="18"/>
+      <c r="AX82" s="17"/>
+      <c r="AY82" s="17"/>
+      <c r="AZ82" s="17"/>
+      <c r="BA82" s="17"/>
     </row>
     <row r="83" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D83" s="15"/>
-      <c r="AX83" s="18"/>
-      <c r="AY83" s="18"/>
-      <c r="AZ83" s="18"/>
-      <c r="BA83" s="18"/>
+      <c r="AX83" s="17"/>
+      <c r="AY83" s="17"/>
+      <c r="AZ83" s="17"/>
+      <c r="BA83" s="17"/>
     </row>
     <row r="84" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D84" s="15"/>
-      <c r="AX84" s="18"/>
-      <c r="AY84" s="18"/>
-      <c r="AZ84" s="18"/>
-      <c r="BA84" s="18"/>
+      <c r="AX84" s="17"/>
+      <c r="AY84" s="17"/>
+      <c r="AZ84" s="17"/>
+      <c r="BA84" s="17"/>
     </row>
     <row r="85" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D85" s="15"/>
-      <c r="AX85" s="18"/>
-      <c r="AY85" s="18"/>
-      <c r="AZ85" s="18"/>
-      <c r="BA85" s="18"/>
+      <c r="AX85" s="17"/>
+      <c r="AY85" s="17"/>
+      <c r="AZ85" s="17"/>
+      <c r="BA85" s="17"/>
     </row>
     <row r="86" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D86" s="15"/>
-      <c r="AX86" s="18"/>
-      <c r="AY86" s="18"/>
-      <c r="AZ86" s="18"/>
-      <c r="BA86" s="18"/>
+      <c r="AX86" s="17"/>
+      <c r="AY86" s="17"/>
+      <c r="AZ86" s="17"/>
+      <c r="BA86" s="17"/>
     </row>
     <row r="87" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D87" s="15"/>
-      <c r="AX87" s="18"/>
-      <c r="AY87" s="18"/>
-      <c r="AZ87" s="18"/>
-      <c r="BA87" s="18"/>
+      <c r="AX87" s="17"/>
+      <c r="AY87" s="17"/>
+      <c r="AZ87" s="17"/>
+      <c r="BA87" s="17"/>
     </row>
     <row r="88" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D88" s="15"/>
-      <c r="AX88" s="18"/>
-      <c r="AY88" s="18"/>
-      <c r="AZ88" s="18"/>
-      <c r="BA88" s="18"/>
+      <c r="AX88" s="17"/>
+      <c r="AY88" s="17"/>
+      <c r="AZ88" s="17"/>
+      <c r="BA88" s="17"/>
     </row>
     <row r="89" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D89" s="15"/>
-      <c r="AX89" s="18"/>
-      <c r="AY89" s="18"/>
-      <c r="AZ89" s="18"/>
-      <c r="BA89" s="18"/>
+      <c r="AX89" s="17"/>
+      <c r="AY89" s="17"/>
+      <c r="AZ89" s="17"/>
+      <c r="BA89" s="17"/>
     </row>
     <row r="90" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D90" s="15"/>
-      <c r="AX90" s="18"/>
-      <c r="AY90" s="18"/>
-      <c r="AZ90" s="18"/>
-      <c r="BA90" s="18"/>
+      <c r="AX90" s="17"/>
+      <c r="AY90" s="17"/>
+      <c r="AZ90" s="17"/>
+      <c r="BA90" s="17"/>
     </row>
     <row r="91" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D91" s="15"/>
-      <c r="AX91" s="18"/>
-      <c r="AY91" s="18"/>
-      <c r="AZ91" s="18"/>
-      <c r="BA91" s="18"/>
+      <c r="AX91" s="17"/>
+      <c r="AY91" s="17"/>
+      <c r="AZ91" s="17"/>
+      <c r="BA91" s="17"/>
     </row>
     <row r="92" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D92" s="15"/>
-      <c r="AX92" s="18"/>
-      <c r="AY92" s="18"/>
-      <c r="AZ92" s="18"/>
-      <c r="BA92" s="18"/>
+      <c r="AX92" s="17"/>
+      <c r="AY92" s="17"/>
+      <c r="AZ92" s="17"/>
+      <c r="BA92" s="17"/>
     </row>
     <row r="93" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D93" s="15"/>
-      <c r="AX93" s="18"/>
-      <c r="AY93" s="18"/>
-      <c r="AZ93" s="18"/>
-      <c r="BA93" s="18"/>
+      <c r="AX93" s="17"/>
+      <c r="AY93" s="17"/>
+      <c r="AZ93" s="17"/>
+      <c r="BA93" s="17"/>
     </row>
     <row r="94" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D94" s="15"/>
-      <c r="AX94" s="18"/>
-      <c r="AY94" s="18"/>
-      <c r="AZ94" s="18"/>
-      <c r="BA94" s="18"/>
+      <c r="AX94" s="17"/>
+      <c r="AY94" s="17"/>
+      <c r="AZ94" s="17"/>
+      <c r="BA94" s="17"/>
     </row>
     <row r="95" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D95" s="15"/>
-      <c r="AX95" s="18"/>
-      <c r="AY95" s="18"/>
-      <c r="AZ95" s="18"/>
-      <c r="BA95" s="18"/>
+      <c r="AX95" s="17"/>
+      <c r="AY95" s="17"/>
+      <c r="AZ95" s="17"/>
+      <c r="BA95" s="17"/>
     </row>
     <row r="96" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D96" s="15"/>
-      <c r="AX96" s="18"/>
-      <c r="AY96" s="18"/>
-      <c r="AZ96" s="18"/>
-      <c r="BA96" s="18"/>
+      <c r="AX96" s="17"/>
+      <c r="AY96" s="17"/>
+      <c r="AZ96" s="17"/>
+      <c r="BA96" s="17"/>
     </row>
     <row r="97" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D97" s="15"/>
-      <c r="AX97" s="18"/>
-      <c r="AY97" s="18"/>
-      <c r="AZ97" s="18"/>
-      <c r="BA97" s="18"/>
+      <c r="AX97" s="17"/>
+      <c r="AY97" s="17"/>
+      <c r="AZ97" s="17"/>
+      <c r="BA97" s="17"/>
     </row>
     <row r="98" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D98" s="15"/>
-      <c r="AX98" s="18"/>
-      <c r="AY98" s="18"/>
-      <c r="AZ98" s="18"/>
-      <c r="BA98" s="18"/>
+      <c r="AX98" s="17"/>
+      <c r="AY98" s="17"/>
+      <c r="AZ98" s="17"/>
+      <c r="BA98" s="17"/>
     </row>
     <row r="99" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D99" s="15"/>
-      <c r="AX99" s="18"/>
-      <c r="AY99" s="18"/>
-      <c r="AZ99" s="18"/>
-      <c r="BA99" s="18"/>
+      <c r="AX99" s="17"/>
+      <c r="AY99" s="17"/>
+      <c r="AZ99" s="17"/>
+      <c r="BA99" s="17"/>
     </row>
     <row r="100" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D100" s="15"/>
-      <c r="AX100" s="18"/>
-      <c r="AY100" s="18"/>
-      <c r="AZ100" s="18"/>
-      <c r="BA100" s="18"/>
+      <c r="AX100" s="17"/>
+      <c r="AY100" s="17"/>
+      <c r="AZ100" s="17"/>
+      <c r="BA100" s="17"/>
     </row>
     <row r="101" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D101" s="15"/>
-      <c r="AX101" s="18"/>
-      <c r="AY101" s="18"/>
-      <c r="AZ101" s="18"/>
-      <c r="BA101" s="18"/>
+      <c r="AX101" s="17"/>
+      <c r="AY101" s="17"/>
+      <c r="AZ101" s="17"/>
+      <c r="BA101" s="17"/>
     </row>
     <row r="102" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D102" s="15"/>
-      <c r="AX102" s="18"/>
-      <c r="AY102" s="18"/>
-      <c r="AZ102" s="18"/>
-      <c r="BA102" s="18"/>
+      <c r="AX102" s="17"/>
+      <c r="AY102" s="17"/>
+      <c r="AZ102" s="17"/>
+      <c r="BA102" s="17"/>
     </row>
     <row r="103" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D103" s="15"/>
-      <c r="AX103" s="18"/>
-      <c r="AY103" s="18"/>
-      <c r="AZ103" s="18"/>
-      <c r="BA103" s="18"/>
+      <c r="AX103" s="17"/>
+      <c r="AY103" s="17"/>
+      <c r="AZ103" s="17"/>
+      <c r="BA103" s="17"/>
     </row>
     <row r="104" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D104" s="15"/>
-      <c r="AX104" s="18"/>
-      <c r="AY104" s="18"/>
-      <c r="AZ104" s="18"/>
-      <c r="BA104" s="18"/>
+      <c r="AX104" s="17"/>
+      <c r="AY104" s="17"/>
+      <c r="AZ104" s="17"/>
+      <c r="BA104" s="17"/>
     </row>
     <row r="105" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D105" s="15"/>
-      <c r="AX105" s="18"/>
-      <c r="AY105" s="18"/>
-      <c r="AZ105" s="18"/>
-      <c r="BA105" s="18"/>
+      <c r="AX105" s="17"/>
+      <c r="AY105" s="17"/>
+      <c r="AZ105" s="17"/>
+      <c r="BA105" s="17"/>
     </row>
     <row r="106" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D106" s="15"/>
-      <c r="AX106" s="18"/>
-      <c r="AY106" s="18"/>
-      <c r="AZ106" s="18"/>
-      <c r="BA106" s="18"/>
+      <c r="AX106" s="17"/>
+      <c r="AY106" s="17"/>
+      <c r="AZ106" s="17"/>
+      <c r="BA106" s="17"/>
     </row>
     <row r="107" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D107" s="15"/>
-      <c r="AX107" s="18"/>
-      <c r="AY107" s="18"/>
-      <c r="AZ107" s="18"/>
-      <c r="BA107" s="18"/>
+      <c r="AX107" s="17"/>
+      <c r="AY107" s="17"/>
+      <c r="AZ107" s="17"/>
+      <c r="BA107" s="17"/>
     </row>
     <row r="108" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D108" s="15"/>
-      <c r="AX108" s="18"/>
-      <c r="AY108" s="18"/>
-      <c r="AZ108" s="18"/>
-      <c r="BA108" s="18"/>
+      <c r="AX108" s="17"/>
+      <c r="AY108" s="17"/>
+      <c r="AZ108" s="17"/>
+      <c r="BA108" s="17"/>
     </row>
     <row r="109" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D109" s="15"/>
-      <c r="AX109" s="18"/>
-      <c r="AY109" s="18"/>
-      <c r="AZ109" s="18"/>
-      <c r="BA109" s="18"/>
+      <c r="AX109" s="17"/>
+      <c r="AY109" s="17"/>
+      <c r="AZ109" s="17"/>
+      <c r="BA109" s="17"/>
     </row>
     <row r="110" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D110" s="15"/>
-      <c r="AX110" s="18"/>
-      <c r="AY110" s="18"/>
-      <c r="AZ110" s="18"/>
-      <c r="BA110" s="18"/>
+      <c r="AX110" s="17"/>
+      <c r="AY110" s="17"/>
+      <c r="AZ110" s="17"/>
+      <c r="BA110" s="17"/>
     </row>
     <row r="111" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D111" s="15"/>
-      <c r="AX111" s="18"/>
-      <c r="AY111" s="18"/>
-      <c r="AZ111" s="18"/>
-      <c r="BA111" s="18"/>
+      <c r="AX111" s="17"/>
+      <c r="AY111" s="17"/>
+      <c r="AZ111" s="17"/>
+      <c r="BA111" s="17"/>
     </row>
     <row r="112" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D112" s="15"/>
-      <c r="AX112" s="18"/>
-      <c r="AY112" s="18"/>
-      <c r="AZ112" s="18"/>
-      <c r="BA112" s="18"/>
+      <c r="AX112" s="17"/>
+      <c r="AY112" s="17"/>
+      <c r="AZ112" s="17"/>
+      <c r="BA112" s="17"/>
     </row>
     <row r="113" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D113" s="15"/>
-      <c r="AX113" s="18"/>
-      <c r="AY113" s="18"/>
-      <c r="AZ113" s="18"/>
-      <c r="BA113" s="18"/>
+      <c r="AX113" s="17"/>
+      <c r="AY113" s="17"/>
+      <c r="AZ113" s="17"/>
+      <c r="BA113" s="17"/>
     </row>
     <row r="114" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D114" s="15"/>
-      <c r="AX114" s="18"/>
-      <c r="AY114" s="18"/>
-      <c r="AZ114" s="18"/>
-      <c r="BA114" s="18"/>
+      <c r="AX114" s="17"/>
+      <c r="AY114" s="17"/>
+      <c r="AZ114" s="17"/>
+      <c r="BA114" s="17"/>
     </row>
     <row r="115" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D115" s="15"/>
-      <c r="AX115" s="18"/>
-      <c r="AY115" s="18"/>
-      <c r="AZ115" s="18"/>
-      <c r="BA115" s="18"/>
+      <c r="AX115" s="17"/>
+      <c r="AY115" s="17"/>
+      <c r="AZ115" s="17"/>
+      <c r="BA115" s="17"/>
     </row>
     <row r="116" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D116" s="15"/>
-      <c r="AX116" s="18"/>
-      <c r="AY116" s="18"/>
-      <c r="AZ116" s="18"/>
-      <c r="BA116" s="18"/>
+      <c r="AX116" s="17"/>
+      <c r="AY116" s="17"/>
+      <c r="AZ116" s="17"/>
+      <c r="BA116" s="17"/>
     </row>
     <row r="117" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D117" s="15"/>
-      <c r="AX117" s="18"/>
-      <c r="AY117" s="18"/>
-      <c r="AZ117" s="18"/>
-      <c r="BA117" s="18"/>
+      <c r="AX117" s="17"/>
+      <c r="AY117" s="17"/>
+      <c r="AZ117" s="17"/>
+      <c r="BA117" s="17"/>
     </row>
     <row r="118" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D118" s="15"/>
-      <c r="AX118" s="18"/>
-      <c r="AY118" s="18"/>
-      <c r="AZ118" s="18"/>
-      <c r="BA118" s="18"/>
+      <c r="AX118" s="17"/>
+      <c r="AY118" s="17"/>
+      <c r="AZ118" s="17"/>
+      <c r="BA118" s="17"/>
     </row>
     <row r="119" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D119" s="15"/>
-      <c r="AX119" s="18"/>
-      <c r="AY119" s="18"/>
-      <c r="AZ119" s="18"/>
-      <c r="BA119" s="18"/>
+      <c r="AX119" s="17"/>
+      <c r="AY119" s="17"/>
+      <c r="AZ119" s="17"/>
+      <c r="BA119" s="17"/>
     </row>
     <row r="120" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D120" s="15"/>
-      <c r="AX120" s="18"/>
-      <c r="AY120" s="18"/>
-      <c r="AZ120" s="18"/>
-      <c r="BA120" s="18"/>
+      <c r="AX120" s="17"/>
+      <c r="AY120" s="17"/>
+      <c r="AZ120" s="17"/>
+      <c r="BA120" s="17"/>
     </row>
     <row r="121" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D121" s="15"/>
-      <c r="AX121" s="18"/>
-      <c r="AY121" s="18"/>
-      <c r="AZ121" s="18"/>
-      <c r="BA121" s="18"/>
+      <c r="AX121" s="17"/>
+      <c r="AY121" s="17"/>
+      <c r="AZ121" s="17"/>
+      <c r="BA121" s="17"/>
     </row>
     <row r="122" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D122" s="15"/>
-      <c r="AX122" s="18"/>
-      <c r="AY122" s="18"/>
-      <c r="AZ122" s="18"/>
-      <c r="BA122" s="18"/>
+      <c r="AX122" s="17"/>
+      <c r="AY122" s="17"/>
+      <c r="AZ122" s="17"/>
+      <c r="BA122" s="17"/>
     </row>
     <row r="123" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D123" s="15"/>
-      <c r="AX123" s="18"/>
-      <c r="AY123" s="18"/>
-      <c r="AZ123" s="18"/>
-      <c r="BA123" s="18"/>
+      <c r="AX123" s="17"/>
+      <c r="AY123" s="17"/>
+      <c r="AZ123" s="17"/>
+      <c r="BA123" s="17"/>
     </row>
     <row r="124" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D124" s="15"/>
-      <c r="AX124" s="18"/>
-      <c r="AY124" s="18"/>
-      <c r="AZ124" s="18"/>
-      <c r="BA124" s="18"/>
+      <c r="AX124" s="17"/>
+      <c r="AY124" s="17"/>
+      <c r="AZ124" s="17"/>
+      <c r="BA124" s="17"/>
     </row>
     <row r="125" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D125" s="15"/>
-      <c r="AX125" s="18"/>
-      <c r="AY125" s="18"/>
-      <c r="AZ125" s="18"/>
-      <c r="BA125" s="18"/>
+      <c r="AX125" s="17"/>
+      <c r="AY125" s="17"/>
+      <c r="AZ125" s="17"/>
+      <c r="BA125" s="17"/>
     </row>
     <row r="126" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D126" s="15"/>
-      <c r="AX126" s="18"/>
-      <c r="AY126" s="18"/>
-      <c r="AZ126" s="18"/>
-      <c r="BA126" s="18"/>
+      <c r="AX126" s="17"/>
+      <c r="AY126" s="17"/>
+      <c r="AZ126" s="17"/>
+      <c r="BA126" s="17"/>
     </row>
     <row r="127" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D127" s="15"/>
-      <c r="AX127" s="18"/>
-      <c r="AY127" s="18"/>
-      <c r="AZ127" s="18"/>
-      <c r="BA127" s="18"/>
+      <c r="AX127" s="17"/>
+      <c r="AY127" s="17"/>
+      <c r="AZ127" s="17"/>
+      <c r="BA127" s="17"/>
     </row>
     <row r="128" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D128" s="15"/>
-      <c r="AX128" s="18"/>
-      <c r="AY128" s="18"/>
-      <c r="AZ128" s="18"/>
-      <c r="BA128" s="18"/>
+      <c r="AX128" s="17"/>
+      <c r="AY128" s="17"/>
+      <c r="AZ128" s="17"/>
+      <c r="BA128" s="17"/>
     </row>
     <row r="129" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D129" s="15"/>
-      <c r="AX129" s="18"/>
-      <c r="AY129" s="18"/>
-      <c r="AZ129" s="18"/>
-      <c r="BA129" s="18"/>
+      <c r="AX129" s="17"/>
+      <c r="AY129" s="17"/>
+      <c r="AZ129" s="17"/>
+      <c r="BA129" s="17"/>
     </row>
     <row r="130" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D130" s="15"/>
-      <c r="AX130" s="18"/>
-      <c r="AY130" s="18"/>
-      <c r="AZ130" s="18"/>
-      <c r="BA130" s="18"/>
+      <c r="AX130" s="17"/>
+      <c r="AY130" s="17"/>
+      <c r="AZ130" s="17"/>
+      <c r="BA130" s="17"/>
     </row>
     <row r="131" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D131" s="15"/>
-      <c r="AX131" s="18"/>
-      <c r="AY131" s="18"/>
-      <c r="AZ131" s="18"/>
-      <c r="BA131" s="18"/>
+      <c r="AX131" s="17"/>
+      <c r="AY131" s="17"/>
+      <c r="AZ131" s="17"/>
+      <c r="BA131" s="17"/>
     </row>
     <row r="132" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D132" s="15"/>
-      <c r="AX132" s="18"/>
-      <c r="AY132" s="18"/>
-      <c r="AZ132" s="18"/>
-      <c r="BA132" s="18"/>
+      <c r="AX132" s="17"/>
+      <c r="AY132" s="17"/>
+      <c r="AZ132" s="17"/>
+      <c r="BA132" s="17"/>
     </row>
     <row r="133" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D133" s="15"/>
-      <c r="AX133" s="18"/>
-      <c r="AY133" s="18"/>
-      <c r="AZ133" s="18"/>
-      <c r="BA133" s="18"/>
+      <c r="AX133" s="17"/>
+      <c r="AY133" s="17"/>
+      <c r="AZ133" s="17"/>
+      <c r="BA133" s="17"/>
     </row>
     <row r="134" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D134" s="15"/>
-      <c r="AX134" s="18"/>
-      <c r="AY134" s="18"/>
-      <c r="AZ134" s="18"/>
-      <c r="BA134" s="18"/>
+      <c r="AX134" s="17"/>
+      <c r="AY134" s="17"/>
+      <c r="AZ134" s="17"/>
+      <c r="BA134" s="17"/>
     </row>
     <row r="135" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D135" s="15"/>
-      <c r="AX135" s="18"/>
-      <c r="AY135" s="18"/>
-      <c r="AZ135" s="18"/>
-      <c r="BA135" s="18"/>
+      <c r="AX135" s="17"/>
+      <c r="AY135" s="17"/>
+      <c r="AZ135" s="17"/>
+      <c r="BA135" s="17"/>
     </row>
     <row r="136" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D136" s="15"/>
-      <c r="AX136" s="18"/>
-      <c r="AY136" s="18"/>
-      <c r="AZ136" s="18"/>
-      <c r="BA136" s="18"/>
+      <c r="AX136" s="17"/>
+      <c r="AY136" s="17"/>
+      <c r="AZ136" s="17"/>
+      <c r="BA136" s="17"/>
     </row>
     <row r="137" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D137" s="15"/>
-      <c r="AX137" s="18"/>
-      <c r="AY137" s="18"/>
-      <c r="AZ137" s="18"/>
-      <c r="BA137" s="18"/>
+      <c r="AX137" s="17"/>
+      <c r="AY137" s="17"/>
+      <c r="AZ137" s="17"/>
+      <c r="BA137" s="17"/>
     </row>
     <row r="138" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D138" s="15"/>
-      <c r="AX138" s="18"/>
-      <c r="AY138" s="18"/>
-      <c r="AZ138" s="18"/>
-      <c r="BA138" s="18"/>
+      <c r="AX138" s="17"/>
+      <c r="AY138" s="17"/>
+      <c r="AZ138" s="17"/>
+      <c r="BA138" s="17"/>
     </row>
     <row r="139" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D139" s="15"/>
-      <c r="AX139" s="18"/>
-      <c r="AY139" s="18"/>
-      <c r="AZ139" s="18"/>
-      <c r="BA139" s="18"/>
+      <c r="AX139" s="17"/>
+      <c r="AY139" s="17"/>
+      <c r="AZ139" s="17"/>
+      <c r="BA139" s="17"/>
     </row>
     <row r="140" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D140" s="15"/>
-      <c r="AX140" s="18"/>
-      <c r="AY140" s="18"/>
-      <c r="AZ140" s="18"/>
-      <c r="BA140" s="18"/>
+      <c r="AX140" s="17"/>
+      <c r="AY140" s="17"/>
+      <c r="AZ140" s="17"/>
+      <c r="BA140" s="17"/>
     </row>
     <row r="141" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D141" s="15"/>
-      <c r="AX141" s="18"/>
-      <c r="AY141" s="18"/>
-      <c r="AZ141" s="18"/>
-      <c r="BA141" s="18"/>
+      <c r="AX141" s="17"/>
+      <c r="AY141" s="17"/>
+      <c r="AZ141" s="17"/>
+      <c r="BA141" s="17"/>
     </row>
     <row r="142" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D142" s="15"/>
-      <c r="AX142" s="18"/>
-      <c r="AY142" s="18"/>
-      <c r="AZ142" s="18"/>
-      <c r="BA142" s="18"/>
+      <c r="AX142" s="17"/>
+      <c r="AY142" s="17"/>
+      <c r="AZ142" s="17"/>
+      <c r="BA142" s="17"/>
     </row>
     <row r="143" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D143" s="15"/>
-      <c r="AX143" s="18"/>
-      <c r="AY143" s="18"/>
-      <c r="AZ143" s="18"/>
-      <c r="BA143" s="18"/>
+      <c r="AX143" s="17"/>
+      <c r="AY143" s="17"/>
+      <c r="AZ143" s="17"/>
+      <c r="BA143" s="17"/>
     </row>
     <row r="144" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D144" s="15"/>
-      <c r="AX144" s="18"/>
-      <c r="AY144" s="18"/>
-      <c r="AZ144" s="18"/>
-      <c r="BA144" s="18"/>
+      <c r="AX144" s="17"/>
+      <c r="AY144" s="17"/>
+      <c r="AZ144" s="17"/>
+      <c r="BA144" s="17"/>
     </row>
     <row r="145" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D145" s="15"/>
-      <c r="AX145" s="18"/>
-      <c r="AY145" s="18"/>
-      <c r="AZ145" s="18"/>
-      <c r="BA145" s="18"/>
+      <c r="AX145" s="17"/>
+      <c r="AY145" s="17"/>
+      <c r="AZ145" s="17"/>
+      <c r="BA145" s="17"/>
     </row>
     <row r="146" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D146" s="15"/>
-      <c r="AX146" s="18"/>
-      <c r="AY146" s="18"/>
-      <c r="AZ146" s="18"/>
-      <c r="BA146" s="18"/>
+      <c r="AX146" s="17"/>
+      <c r="AY146" s="17"/>
+      <c r="AZ146" s="17"/>
+      <c r="BA146" s="17"/>
     </row>
     <row r="147" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D147" s="15"/>
-      <c r="AX147" s="18"/>
-      <c r="AY147" s="18"/>
-      <c r="AZ147" s="18"/>
-      <c r="BA147" s="18"/>
+      <c r="AX147" s="17"/>
+      <c r="AY147" s="17"/>
+      <c r="AZ147" s="17"/>
+      <c r="BA147" s="17"/>
     </row>
     <row r="148" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D148" s="15"/>
-      <c r="AX148" s="18"/>
-      <c r="AY148" s="18"/>
-      <c r="AZ148" s="18"/>
-      <c r="BA148" s="18"/>
+      <c r="AX148" s="17"/>
+      <c r="AY148" s="17"/>
+      <c r="AZ148" s="17"/>
+      <c r="BA148" s="17"/>
     </row>
     <row r="149" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D149" s="15"/>
-      <c r="AX149" s="18"/>
-      <c r="AY149" s="18"/>
-      <c r="AZ149" s="18"/>
-      <c r="BA149" s="18"/>
+      <c r="AX149" s="17"/>
+      <c r="AY149" s="17"/>
+      <c r="AZ149" s="17"/>
+      <c r="BA149" s="17"/>
     </row>
     <row r="150" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D150" s="15"/>
-      <c r="AX150" s="18"/>
-      <c r="AY150" s="18"/>
-      <c r="AZ150" s="18"/>
-      <c r="BA150" s="18"/>
+      <c r="AX150" s="17"/>
+      <c r="AY150" s="17"/>
+      <c r="AZ150" s="17"/>
+      <c r="BA150" s="17"/>
     </row>
     <row r="151" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D151" s="15"/>
-      <c r="AX151" s="18"/>
-      <c r="AY151" s="18"/>
-      <c r="AZ151" s="18"/>
-      <c r="BA151" s="18"/>
+      <c r="AX151" s="17"/>
+      <c r="AY151" s="17"/>
+      <c r="AZ151" s="17"/>
+      <c r="BA151" s="17"/>
     </row>
     <row r="152" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D152" s="15"/>
-      <c r="AX152" s="18"/>
-      <c r="AY152" s="18"/>
-      <c r="AZ152" s="18"/>
-      <c r="BA152" s="18"/>
+      <c r="AX152" s="17"/>
+      <c r="AY152" s="17"/>
+      <c r="AZ152" s="17"/>
+      <c r="BA152" s="17"/>
     </row>
     <row r="153" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D153" s="15"/>
-      <c r="AX153" s="18"/>
-      <c r="AY153" s="18"/>
-      <c r="AZ153" s="18"/>
-      <c r="BA153" s="18"/>
+      <c r="AX153" s="17"/>
+      <c r="AY153" s="17"/>
+      <c r="AZ153" s="17"/>
+      <c r="BA153" s="17"/>
     </row>
     <row r="154" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D154" s="15"/>
-      <c r="AX154" s="18"/>
-      <c r="AY154" s="18"/>
-      <c r="AZ154" s="18"/>
-      <c r="BA154" s="18"/>
+      <c r="AX154" s="17"/>
+      <c r="AY154" s="17"/>
+      <c r="AZ154" s="17"/>
+      <c r="BA154" s="17"/>
     </row>
     <row r="155" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D155" s="15"/>
-      <c r="AX155" s="18"/>
-      <c r="AY155" s="18"/>
-      <c r="AZ155" s="18"/>
-      <c r="BA155" s="18"/>
+      <c r="AX155" s="17"/>
+      <c r="AY155" s="17"/>
+      <c r="AZ155" s="17"/>
+      <c r="BA155" s="17"/>
     </row>
     <row r="156" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D156" s="15"/>
-      <c r="AX156" s="18"/>
-      <c r="AY156" s="18"/>
-      <c r="AZ156" s="18"/>
-      <c r="BA156" s="18"/>
+      <c r="AX156" s="17"/>
+      <c r="AY156" s="17"/>
+      <c r="AZ156" s="17"/>
+      <c r="BA156" s="17"/>
     </row>
     <row r="157" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D157" s="15"/>
-      <c r="AX157" s="18"/>
-      <c r="AY157" s="18"/>
-      <c r="AZ157" s="18"/>
-      <c r="BA157" s="18"/>
+      <c r="AX157" s="17"/>
+      <c r="AY157" s="17"/>
+      <c r="AZ157" s="17"/>
+      <c r="BA157" s="17"/>
     </row>
     <row r="158" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D158" s="15"/>
-      <c r="AX158" s="18"/>
-      <c r="AY158" s="18"/>
-      <c r="AZ158" s="18"/>
-      <c r="BA158" s="18"/>
+      <c r="AX158" s="17"/>
+      <c r="AY158" s="17"/>
+      <c r="AZ158" s="17"/>
+      <c r="BA158" s="17"/>
     </row>
     <row r="159" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D159" s="15"/>
-      <c r="AX159" s="18"/>
-      <c r="AY159" s="18"/>
-      <c r="AZ159" s="18"/>
-      <c r="BA159" s="18"/>
+      <c r="AX159" s="17"/>
+      <c r="AY159" s="17"/>
+      <c r="AZ159" s="17"/>
+      <c r="BA159" s="17"/>
     </row>
     <row r="160" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D160" s="15"/>
-      <c r="AX160" s="18"/>
-      <c r="AY160" s="18"/>
-      <c r="AZ160" s="18"/>
-      <c r="BA160" s="18"/>
+      <c r="AX160" s="17"/>
+      <c r="AY160" s="17"/>
+      <c r="AZ160" s="17"/>
+      <c r="BA160" s="17"/>
     </row>
     <row r="161" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D161" s="15"/>
-      <c r="AX161" s="18"/>
-      <c r="AY161" s="18"/>
-      <c r="AZ161" s="18"/>
-      <c r="BA161" s="18"/>
+      <c r="AX161" s="17"/>
+      <c r="AY161" s="17"/>
+      <c r="AZ161" s="17"/>
+      <c r="BA161" s="17"/>
     </row>
     <row r="162" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D162" s="15"/>
-      <c r="AX162" s="18"/>
-      <c r="AY162" s="18"/>
-      <c r="AZ162" s="18"/>
-      <c r="BA162" s="18"/>
+      <c r="AX162" s="17"/>
+      <c r="AY162" s="17"/>
+      <c r="AZ162" s="17"/>
+      <c r="BA162" s="17"/>
     </row>
     <row r="163" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D163" s="15"/>
-      <c r="AX163" s="18"/>
-      <c r="AY163" s="18"/>
-      <c r="AZ163" s="18"/>
-      <c r="BA163" s="18"/>
+      <c r="AX163" s="17"/>
+      <c r="AY163" s="17"/>
+      <c r="AZ163" s="17"/>
+      <c r="BA163" s="17"/>
     </row>
     <row r="164" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D164" s="15"/>
-      <c r="AX164" s="18"/>
-      <c r="AY164" s="18"/>
-      <c r="AZ164" s="18"/>
-      <c r="BA164" s="18"/>
+      <c r="AX164" s="17"/>
+      <c r="AY164" s="17"/>
+      <c r="AZ164" s="17"/>
+      <c r="BA164" s="17"/>
     </row>
     <row r="165" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D165" s="15"/>
-      <c r="AX165" s="18"/>
-      <c r="AY165" s="18"/>
-      <c r="AZ165" s="18"/>
-      <c r="BA165" s="18"/>
+      <c r="AX165" s="17"/>
+      <c r="AY165" s="17"/>
+      <c r="AZ165" s="17"/>
+      <c r="BA165" s="17"/>
     </row>
     <row r="166" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D166" s="15"/>
-      <c r="AX166" s="18"/>
-      <c r="AY166" s="18"/>
-      <c r="AZ166" s="18"/>
-      <c r="BA166" s="18"/>
+      <c r="AX166" s="17"/>
+      <c r="AY166" s="17"/>
+      <c r="AZ166" s="17"/>
+      <c r="BA166" s="17"/>
     </row>
     <row r="167" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D167" s="15"/>
-      <c r="AX167" s="18"/>
-      <c r="AY167" s="18"/>
-      <c r="AZ167" s="18"/>
-      <c r="BA167" s="18"/>
+      <c r="AX167" s="17"/>
+      <c r="AY167" s="17"/>
+      <c r="AZ167" s="17"/>
+      <c r="BA167" s="17"/>
     </row>
     <row r="168" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D168" s="15"/>
-      <c r="AX168" s="18"/>
-      <c r="AY168" s="18"/>
-      <c r="AZ168" s="18"/>
-      <c r="BA168" s="18"/>
+      <c r="AX168" s="17"/>
+      <c r="AY168" s="17"/>
+      <c r="AZ168" s="17"/>
+      <c r="BA168" s="17"/>
     </row>
     <row r="169" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D169" s="15"/>
-      <c r="AX169" s="18"/>
-      <c r="AY169" s="18"/>
-      <c r="AZ169" s="18"/>
-      <c r="BA169" s="18"/>
+      <c r="AX169" s="17"/>
+      <c r="AY169" s="17"/>
+      <c r="AZ169" s="17"/>
+      <c r="BA169" s="17"/>
     </row>
     <row r="170" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D170" s="15"/>
-      <c r="AX170" s="18"/>
-      <c r="AY170" s="18"/>
-      <c r="AZ170" s="18"/>
-      <c r="BA170" s="18"/>
+      <c r="AX170" s="17"/>
+      <c r="AY170" s="17"/>
+      <c r="AZ170" s="17"/>
+      <c r="BA170" s="17"/>
     </row>
     <row r="171" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D171" s="15"/>
-      <c r="AX171" s="18"/>
-      <c r="AY171" s="18"/>
-      <c r="AZ171" s="18"/>
-      <c r="BA171" s="18"/>
+      <c r="AX171" s="17"/>
+      <c r="AY171" s="17"/>
+      <c r="AZ171" s="17"/>
+      <c r="BA171" s="17"/>
     </row>
     <row r="172" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D172" s="15"/>
-      <c r="AX172" s="18"/>
-      <c r="AY172" s="18"/>
-      <c r="AZ172" s="18"/>
-      <c r="BA172" s="18"/>
+      <c r="AX172" s="17"/>
+      <c r="AY172" s="17"/>
+      <c r="AZ172" s="17"/>
+      <c r="BA172" s="17"/>
     </row>
     <row r="173" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D173" s="15"/>
-      <c r="AX173" s="18"/>
-      <c r="AY173" s="18"/>
-      <c r="AZ173" s="18"/>
-      <c r="BA173" s="18"/>
+      <c r="AX173" s="17"/>
+      <c r="AY173" s="17"/>
+      <c r="AZ173" s="17"/>
+      <c r="BA173" s="17"/>
     </row>
     <row r="174" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D174" s="15"/>
-      <c r="AX174" s="18"/>
-      <c r="AY174" s="18"/>
-      <c r="AZ174" s="18"/>
-      <c r="BA174" s="18"/>
+      <c r="AX174" s="17"/>
+      <c r="AY174" s="17"/>
+      <c r="AZ174" s="17"/>
+      <c r="BA174" s="17"/>
     </row>
     <row r="175" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D175" s="15"/>
-      <c r="AX175" s="18"/>
-      <c r="AY175" s="18"/>
-      <c r="AZ175" s="18"/>
-      <c r="BA175" s="18"/>
+      <c r="AX175" s="17"/>
+      <c r="AY175" s="17"/>
+      <c r="AZ175" s="17"/>
+      <c r="BA175" s="17"/>
     </row>
     <row r="176" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D176" s="15"/>
-      <c r="AX176" s="18"/>
-      <c r="AY176" s="18"/>
-      <c r="AZ176" s="18"/>
-      <c r="BA176" s="18"/>
+      <c r="AX176" s="17"/>
+      <c r="AY176" s="17"/>
+      <c r="AZ176" s="17"/>
+      <c r="BA176" s="17"/>
     </row>
     <row r="177" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D177" s="15"/>
-      <c r="AX177" s="18"/>
-      <c r="AY177" s="18"/>
-      <c r="AZ177" s="18"/>
-      <c r="BA177" s="18"/>
+      <c r="AX177" s="17"/>
+      <c r="AY177" s="17"/>
+      <c r="AZ177" s="17"/>
+      <c r="BA177" s="17"/>
     </row>
     <row r="178" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D178" s="15"/>
-      <c r="AX178" s="18"/>
-      <c r="AY178" s="18"/>
-      <c r="AZ178" s="18"/>
-      <c r="BA178" s="18"/>
+      <c r="AX178" s="17"/>
+      <c r="AY178" s="17"/>
+      <c r="AZ178" s="17"/>
+      <c r="BA178" s="17"/>
     </row>
     <row r="179" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D179" s="15"/>
-      <c r="AX179" s="18"/>
-      <c r="AY179" s="18"/>
-      <c r="AZ179" s="18"/>
-      <c r="BA179" s="18"/>
+      <c r="AX179" s="17"/>
+      <c r="AY179" s="17"/>
+      <c r="AZ179" s="17"/>
+      <c r="BA179" s="17"/>
     </row>
     <row r="180" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D180" s="15"/>
-      <c r="AX180" s="18"/>
-      <c r="AY180" s="18"/>
-      <c r="AZ180" s="18"/>
-      <c r="BA180" s="18"/>
+      <c r="AX180" s="17"/>
+      <c r="AY180" s="17"/>
+      <c r="AZ180" s="17"/>
+      <c r="BA180" s="17"/>
     </row>
     <row r="181" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D181" s="15"/>
-      <c r="AX181" s="18"/>
-      <c r="AY181" s="18"/>
-      <c r="AZ181" s="18"/>
-      <c r="BA181" s="18"/>
+      <c r="AX181" s="17"/>
+      <c r="AY181" s="17"/>
+      <c r="AZ181" s="17"/>
+      <c r="BA181" s="17"/>
     </row>
     <row r="182" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D182" s="15"/>
-      <c r="AX182" s="18"/>
-      <c r="AY182" s="18"/>
-      <c r="AZ182" s="18"/>
-      <c r="BA182" s="18"/>
     </row>
     <row r="183" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D183" s="15"/>
@@ -6957,6 +6944,2661 @@
     </row>
     <row r="189" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D189" s="15"/>
+    </row>
+    <row r="190" spans="4:53" x14ac:dyDescent="0.2">
+      <c r="D190" s="15"/>
+    </row>
+    <row r="191" spans="4:53" x14ac:dyDescent="0.2">
+      <c r="D191" s="15"/>
+    </row>
+    <row r="192" spans="4:53" x14ac:dyDescent="0.2">
+      <c r="D192" s="15"/>
+    </row>
+    <row r="193" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D193" s="15"/>
+    </row>
+    <row r="194" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D194" s="15"/>
+    </row>
+    <row r="195" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D195" s="15"/>
+    </row>
+    <row r="196" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D196" s="15"/>
+    </row>
+    <row r="197" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D197" s="15"/>
+    </row>
+    <row r="198" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D198" s="15"/>
+    </row>
+    <row r="199" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D199" s="15"/>
+    </row>
+    <row r="200" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D200" s="15"/>
+    </row>
+    <row r="201" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D201" s="15"/>
+    </row>
+    <row r="202" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D202" s="15"/>
+    </row>
+    <row r="203" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D203" s="15"/>
+    </row>
+    <row r="204" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D204" s="15"/>
+    </row>
+    <row r="205" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D205" s="15"/>
+    </row>
+    <row r="206" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D206" s="15"/>
+    </row>
+    <row r="207" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D207" s="15"/>
+    </row>
+    <row r="208" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D208" s="15"/>
+    </row>
+    <row r="209" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D209" s="15"/>
+    </row>
+    <row r="210" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D210" s="15"/>
+    </row>
+    <row r="211" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D211" s="15"/>
+    </row>
+    <row r="212" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D212" s="15"/>
+    </row>
+    <row r="213" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D213" s="15"/>
+    </row>
+    <row r="214" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D214" s="15"/>
+    </row>
+    <row r="215" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D215" s="15"/>
+    </row>
+    <row r="216" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D216" s="15"/>
+    </row>
+    <row r="217" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D217" s="15"/>
+    </row>
+    <row r="218" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D218" s="15"/>
+    </row>
+    <row r="219" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D219" s="15"/>
+    </row>
+    <row r="220" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D220" s="15"/>
+    </row>
+    <row r="221" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D221" s="15"/>
+    </row>
+    <row r="222" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D222" s="15"/>
+    </row>
+    <row r="223" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D223" s="15"/>
+    </row>
+    <row r="224" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D224" s="15"/>
+    </row>
+    <row r="225" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D225" s="15"/>
+    </row>
+    <row r="226" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D226" s="15"/>
+    </row>
+    <row r="227" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D227" s="15"/>
+    </row>
+    <row r="228" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D228" s="15"/>
+    </row>
+    <row r="229" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D229" s="15"/>
+    </row>
+    <row r="230" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D230" s="15"/>
+    </row>
+    <row r="231" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D231" s="15"/>
+    </row>
+    <row r="232" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D232" s="15"/>
+    </row>
+    <row r="233" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D233" s="15"/>
+    </row>
+    <row r="234" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D234" s="15"/>
+    </row>
+    <row r="235" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D235" s="15"/>
+    </row>
+    <row r="236" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D236" s="15"/>
+    </row>
+    <row r="237" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D237" s="15"/>
+    </row>
+    <row r="238" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D238" s="15"/>
+    </row>
+    <row r="239" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D239" s="15"/>
+    </row>
+    <row r="240" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D240" s="15"/>
+    </row>
+    <row r="241" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D241" s="15"/>
+    </row>
+    <row r="242" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D242" s="15"/>
+    </row>
+    <row r="243" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D243" s="15"/>
+    </row>
+    <row r="244" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D244" s="15"/>
+    </row>
+    <row r="245" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D245" s="15"/>
+    </row>
+    <row r="246" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D246" s="15"/>
+    </row>
+    <row r="247" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D247" s="15"/>
+    </row>
+    <row r="248" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D248" s="15"/>
+    </row>
+    <row r="249" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D249" s="15"/>
+    </row>
+    <row r="250" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D250" s="15"/>
+    </row>
+    <row r="251" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D251" s="15"/>
+    </row>
+    <row r="252" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D252" s="15"/>
+    </row>
+    <row r="253" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D253" s="15"/>
+    </row>
+    <row r="254" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D254" s="15"/>
+    </row>
+    <row r="255" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D255" s="15"/>
+    </row>
+    <row r="256" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D256" s="15"/>
+    </row>
+    <row r="257" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D257" s="15"/>
+    </row>
+    <row r="258" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D258" s="15"/>
+    </row>
+    <row r="259" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D259" s="15"/>
+    </row>
+    <row r="260" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D260" s="15"/>
+    </row>
+    <row r="261" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D261" s="15"/>
+    </row>
+    <row r="262" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D262" s="15"/>
+    </row>
+    <row r="263" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D263" s="15"/>
+    </row>
+    <row r="264" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D264" s="15"/>
+    </row>
+    <row r="265" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D265" s="15"/>
+    </row>
+    <row r="266" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D266" s="15"/>
+    </row>
+    <row r="267" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D267" s="15"/>
+    </row>
+    <row r="268" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D268" s="15"/>
+    </row>
+    <row r="269" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D269" s="15"/>
+    </row>
+    <row r="270" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D270" s="15"/>
+    </row>
+    <row r="271" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D271" s="15"/>
+    </row>
+    <row r="272" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D272" s="15"/>
+    </row>
+    <row r="273" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D273" s="15"/>
+    </row>
+    <row r="274" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D274" s="15"/>
+    </row>
+    <row r="275" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D275" s="15"/>
+    </row>
+    <row r="276" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D276" s="15"/>
+    </row>
+    <row r="277" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D277" s="15"/>
+    </row>
+    <row r="278" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D278" s="15"/>
+    </row>
+    <row r="279" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D279" s="15"/>
+    </row>
+    <row r="280" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D280" s="15"/>
+    </row>
+    <row r="281" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D281" s="15"/>
+    </row>
+    <row r="282" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D282" s="15"/>
+    </row>
+    <row r="283" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D283" s="15"/>
+    </row>
+    <row r="284" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D284" s="15"/>
+    </row>
+    <row r="285" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D285" s="15"/>
+    </row>
+    <row r="286" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D286" s="15"/>
+    </row>
+    <row r="287" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D287" s="15"/>
+    </row>
+    <row r="288" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D288" s="15"/>
+    </row>
+    <row r="289" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D289" s="15"/>
+    </row>
+    <row r="290" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D290" s="15"/>
+    </row>
+    <row r="291" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D291" s="15"/>
+    </row>
+    <row r="292" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D292" s="15"/>
+    </row>
+    <row r="293" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D293" s="15"/>
+    </row>
+    <row r="294" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D294" s="15"/>
+    </row>
+    <row r="295" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D295" s="15"/>
+    </row>
+    <row r="296" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D296" s="15"/>
+    </row>
+    <row r="297" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D297" s="15"/>
+    </row>
+    <row r="298" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D298" s="15"/>
+    </row>
+    <row r="299" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D299" s="15"/>
+    </row>
+    <row r="300" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D300" s="15"/>
+    </row>
+    <row r="301" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D301" s="15"/>
+    </row>
+    <row r="302" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D302" s="15"/>
+    </row>
+    <row r="303" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D303" s="15"/>
+    </row>
+    <row r="304" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D304" s="15"/>
+    </row>
+    <row r="305" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D305" s="15"/>
+    </row>
+    <row r="306" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D306" s="15"/>
+    </row>
+    <row r="307" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D307" s="15"/>
+    </row>
+    <row r="308" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D308" s="15"/>
+    </row>
+    <row r="309" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D309" s="15"/>
+    </row>
+    <row r="310" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D310" s="15"/>
+    </row>
+    <row r="311" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D311" s="15"/>
+    </row>
+    <row r="312" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D312" s="15"/>
+    </row>
+    <row r="313" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D313" s="15"/>
+    </row>
+    <row r="314" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D314" s="15"/>
+    </row>
+    <row r="315" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D315" s="15"/>
+    </row>
+    <row r="316" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D316" s="15"/>
+    </row>
+    <row r="317" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D317" s="15"/>
+    </row>
+    <row r="318" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D318" s="15"/>
+    </row>
+    <row r="319" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D319" s="15"/>
+    </row>
+    <row r="320" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D320" s="15"/>
+    </row>
+    <row r="321" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D321" s="15"/>
+    </row>
+    <row r="322" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D322" s="15"/>
+    </row>
+    <row r="323" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D323" s="15"/>
+    </row>
+    <row r="324" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D324" s="15"/>
+    </row>
+    <row r="325" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D325" s="15"/>
+    </row>
+    <row r="326" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D326" s="15"/>
+    </row>
+    <row r="327" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D327" s="15"/>
+    </row>
+    <row r="328" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D328" s="15"/>
+    </row>
+    <row r="329" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D329" s="15"/>
+    </row>
+    <row r="330" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D330" s="15"/>
+    </row>
+    <row r="331" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D331" s="15"/>
+    </row>
+    <row r="332" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D332" s="15"/>
+    </row>
+    <row r="333" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D333" s="15"/>
+    </row>
+    <row r="334" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D334" s="15"/>
+    </row>
+    <row r="335" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D335" s="15"/>
+    </row>
+    <row r="336" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D336" s="15"/>
+    </row>
+    <row r="337" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D337" s="15"/>
+    </row>
+    <row r="338" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D338" s="15"/>
+    </row>
+    <row r="339" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D339" s="15"/>
+    </row>
+    <row r="340" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D340" s="15"/>
+    </row>
+    <row r="341" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D341" s="15"/>
+    </row>
+    <row r="342" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D342" s="15"/>
+    </row>
+    <row r="343" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D343" s="15"/>
+    </row>
+    <row r="344" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D344" s="15"/>
+    </row>
+    <row r="345" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D345" s="15"/>
+    </row>
+    <row r="346" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D346" s="15"/>
+    </row>
+    <row r="347" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D347" s="15"/>
+    </row>
+    <row r="348" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D348" s="15"/>
+    </row>
+    <row r="349" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D349" s="15"/>
+    </row>
+    <row r="350" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D350" s="15"/>
+    </row>
+    <row r="351" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D351" s="15"/>
+    </row>
+    <row r="352" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D352" s="15"/>
+    </row>
+    <row r="353" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D353" s="15"/>
+    </row>
+    <row r="354" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D354" s="15"/>
+    </row>
+    <row r="355" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D355" s="15"/>
+    </row>
+    <row r="356" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D356" s="15"/>
+    </row>
+    <row r="357" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D357" s="15"/>
+    </row>
+    <row r="358" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D358" s="15"/>
+    </row>
+    <row r="359" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D359" s="15"/>
+    </row>
+    <row r="360" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D360" s="15"/>
+    </row>
+    <row r="361" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D361" s="15"/>
+    </row>
+    <row r="362" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D362" s="15"/>
+    </row>
+    <row r="363" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D363" s="15"/>
+    </row>
+    <row r="364" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D364" s="15"/>
+    </row>
+    <row r="365" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D365" s="15"/>
+    </row>
+    <row r="366" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D366" s="15"/>
+    </row>
+    <row r="367" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D367" s="15"/>
+    </row>
+    <row r="368" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D368" s="15"/>
+    </row>
+    <row r="369" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D369" s="15"/>
+    </row>
+    <row r="370" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D370" s="15"/>
+    </row>
+    <row r="371" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D371" s="15"/>
+    </row>
+    <row r="372" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D372" s="15"/>
+    </row>
+    <row r="373" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D373" s="15"/>
+    </row>
+    <row r="374" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D374" s="15"/>
+    </row>
+    <row r="375" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D375" s="15"/>
+    </row>
+    <row r="376" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D376" s="15"/>
+    </row>
+    <row r="377" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D377" s="15"/>
+    </row>
+    <row r="378" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D378" s="15"/>
+    </row>
+    <row r="379" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D379" s="15"/>
+    </row>
+    <row r="380" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D380" s="15"/>
+    </row>
+    <row r="381" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D381" s="15"/>
+    </row>
+    <row r="382" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D382" s="15"/>
+    </row>
+    <row r="383" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D383" s="15"/>
+    </row>
+    <row r="384" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D384" s="15"/>
+    </row>
+    <row r="385" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D385" s="15"/>
+    </row>
+    <row r="386" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D386" s="15"/>
+    </row>
+    <row r="387" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D387" s="15"/>
+    </row>
+    <row r="388" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D388" s="15"/>
+    </row>
+    <row r="389" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D389" s="15"/>
+    </row>
+    <row r="390" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D390" s="15"/>
+    </row>
+    <row r="391" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D391" s="15"/>
+    </row>
+    <row r="392" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D392" s="15"/>
+    </row>
+    <row r="393" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D393" s="15"/>
+    </row>
+    <row r="394" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D394" s="15"/>
+    </row>
+    <row r="395" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D395" s="15"/>
+    </row>
+    <row r="396" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D396" s="15"/>
+    </row>
+    <row r="397" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D397" s="15"/>
+    </row>
+    <row r="398" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D398" s="15"/>
+    </row>
+    <row r="399" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D399" s="15"/>
+    </row>
+    <row r="400" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D400" s="15"/>
+    </row>
+    <row r="401" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D401" s="15"/>
+    </row>
+    <row r="402" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D402" s="15"/>
+    </row>
+    <row r="403" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D403" s="15"/>
+    </row>
+    <row r="404" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D404" s="15"/>
+    </row>
+    <row r="405" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D405" s="15"/>
+    </row>
+    <row r="406" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D406" s="15"/>
+    </row>
+    <row r="407" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D407" s="15"/>
+    </row>
+    <row r="408" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D408" s="15"/>
+    </row>
+    <row r="409" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D409" s="15"/>
+    </row>
+    <row r="410" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D410" s="15"/>
+    </row>
+    <row r="411" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D411" s="15"/>
+    </row>
+    <row r="412" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D412" s="15"/>
+    </row>
+    <row r="413" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D413" s="15"/>
+    </row>
+    <row r="414" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D414" s="15"/>
+    </row>
+    <row r="415" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D415" s="15"/>
+    </row>
+    <row r="416" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D416" s="15"/>
+    </row>
+    <row r="417" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D417" s="15"/>
+    </row>
+    <row r="418" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D418" s="15"/>
+    </row>
+    <row r="419" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D419" s="15"/>
+    </row>
+    <row r="420" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D420" s="15"/>
+    </row>
+    <row r="421" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D421" s="15"/>
+    </row>
+    <row r="422" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D422" s="15"/>
+    </row>
+    <row r="423" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D423" s="15"/>
+    </row>
+    <row r="424" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D424" s="15"/>
+    </row>
+    <row r="425" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D425" s="15"/>
+    </row>
+    <row r="426" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D426" s="15"/>
+    </row>
+    <row r="427" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D427" s="15"/>
+    </row>
+    <row r="428" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D428" s="15"/>
+    </row>
+    <row r="429" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D429" s="15"/>
+    </row>
+    <row r="430" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D430" s="15"/>
+    </row>
+    <row r="431" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D431" s="15"/>
+    </row>
+    <row r="432" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D432" s="15"/>
+    </row>
+    <row r="433" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D433" s="15"/>
+    </row>
+    <row r="434" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D434" s="15"/>
+    </row>
+    <row r="435" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D435" s="15"/>
+    </row>
+    <row r="436" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D436" s="15"/>
+    </row>
+    <row r="437" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D437" s="15"/>
+    </row>
+    <row r="438" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D438" s="15"/>
+    </row>
+    <row r="439" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D439" s="15"/>
+    </row>
+    <row r="440" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D440" s="15"/>
+    </row>
+    <row r="441" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D441" s="15"/>
+    </row>
+    <row r="442" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D442" s="15"/>
+    </row>
+    <row r="443" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D443" s="15"/>
+    </row>
+    <row r="444" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D444" s="15"/>
+    </row>
+    <row r="445" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D445" s="15"/>
+    </row>
+    <row r="446" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D446" s="15"/>
+    </row>
+    <row r="447" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D447" s="15"/>
+    </row>
+    <row r="448" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D448" s="15"/>
+    </row>
+    <row r="449" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D449" s="15"/>
+    </row>
+    <row r="450" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D450" s="15"/>
+    </row>
+    <row r="451" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D451" s="15"/>
+    </row>
+    <row r="452" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D452" s="15"/>
+    </row>
+    <row r="453" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D453" s="15"/>
+    </row>
+    <row r="454" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D454" s="15"/>
+    </row>
+    <row r="455" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D455" s="15"/>
+    </row>
+    <row r="456" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D456" s="15"/>
+    </row>
+    <row r="457" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D457" s="15"/>
+    </row>
+    <row r="458" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D458" s="15"/>
+    </row>
+    <row r="459" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D459" s="15"/>
+    </row>
+    <row r="460" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D460" s="15"/>
+    </row>
+    <row r="461" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D461" s="15"/>
+    </row>
+    <row r="462" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D462" s="15"/>
+    </row>
+    <row r="463" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D463" s="15"/>
+    </row>
+    <row r="464" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D464" s="15"/>
+    </row>
+    <row r="465" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D465" s="15"/>
+    </row>
+    <row r="466" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D466" s="15"/>
+    </row>
+    <row r="467" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D467" s="15"/>
+    </row>
+    <row r="468" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D468" s="15"/>
+    </row>
+    <row r="469" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D469" s="15"/>
+    </row>
+    <row r="470" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D470" s="15"/>
+    </row>
+    <row r="471" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D471" s="15"/>
+    </row>
+    <row r="472" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D472" s="15"/>
+    </row>
+    <row r="473" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D473" s="15"/>
+    </row>
+    <row r="474" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D474" s="15"/>
+    </row>
+    <row r="475" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D475" s="15"/>
+    </row>
+    <row r="476" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D476" s="15"/>
+    </row>
+    <row r="477" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D477" s="15"/>
+    </row>
+    <row r="478" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D478" s="15"/>
+    </row>
+    <row r="479" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D479" s="15"/>
+    </row>
+    <row r="480" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D480" s="15"/>
+    </row>
+    <row r="481" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D481" s="15"/>
+    </row>
+    <row r="482" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D482" s="15"/>
+    </row>
+    <row r="483" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D483" s="15"/>
+    </row>
+    <row r="484" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D484" s="15"/>
+    </row>
+    <row r="485" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D485" s="15"/>
+    </row>
+    <row r="486" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D486" s="15"/>
+    </row>
+    <row r="487" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D487" s="15"/>
+    </row>
+    <row r="488" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D488" s="15"/>
+    </row>
+    <row r="489" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D489" s="15"/>
+    </row>
+    <row r="490" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D490" s="15"/>
+    </row>
+    <row r="491" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D491" s="15"/>
+    </row>
+    <row r="492" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D492" s="15"/>
+    </row>
+    <row r="493" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D493" s="15"/>
+    </row>
+    <row r="494" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D494" s="15"/>
+    </row>
+    <row r="495" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D495" s="15"/>
+    </row>
+    <row r="496" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D496" s="15"/>
+    </row>
+    <row r="497" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D497" s="15"/>
+    </row>
+    <row r="498" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D498" s="15"/>
+    </row>
+    <row r="499" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D499" s="15"/>
+    </row>
+    <row r="500" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D500" s="15"/>
+    </row>
+    <row r="501" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D501" s="15"/>
+    </row>
+    <row r="502" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D502" s="15"/>
+    </row>
+    <row r="503" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D503" s="15"/>
+    </row>
+    <row r="504" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D504" s="15"/>
+    </row>
+    <row r="505" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D505" s="15"/>
+    </row>
+    <row r="506" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D506" s="15"/>
+    </row>
+    <row r="507" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D507" s="15"/>
+    </row>
+    <row r="508" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D508" s="15"/>
+    </row>
+    <row r="509" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D509" s="15"/>
+    </row>
+    <row r="510" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D510" s="15"/>
+    </row>
+    <row r="511" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D511" s="15"/>
+    </row>
+    <row r="512" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D512" s="15"/>
+    </row>
+    <row r="513" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D513" s="15"/>
+    </row>
+    <row r="514" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D514" s="15"/>
+    </row>
+    <row r="515" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D515" s="15"/>
+    </row>
+    <row r="516" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D516" s="15"/>
+    </row>
+    <row r="517" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D517" s="15"/>
+    </row>
+    <row r="518" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D518" s="15"/>
+    </row>
+    <row r="519" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D519" s="15"/>
+    </row>
+    <row r="520" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D520" s="15"/>
+    </row>
+    <row r="521" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D521" s="15"/>
+    </row>
+    <row r="522" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D522" s="15"/>
+    </row>
+    <row r="523" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D523" s="15"/>
+    </row>
+    <row r="524" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D524" s="15"/>
+    </row>
+    <row r="525" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D525" s="15"/>
+    </row>
+    <row r="526" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D526" s="15"/>
+    </row>
+    <row r="527" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D527" s="15"/>
+    </row>
+    <row r="528" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D528" s="15"/>
+    </row>
+    <row r="529" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D529" s="15"/>
+    </row>
+    <row r="530" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D530" s="15"/>
+    </row>
+    <row r="531" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D531" s="15"/>
+    </row>
+    <row r="532" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D532" s="15"/>
+    </row>
+    <row r="533" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D533" s="15"/>
+    </row>
+    <row r="534" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D534" s="15"/>
+    </row>
+    <row r="535" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D535" s="15"/>
+    </row>
+    <row r="536" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D536" s="15"/>
+    </row>
+    <row r="537" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D537" s="15"/>
+    </row>
+    <row r="538" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D538" s="15"/>
+    </row>
+    <row r="539" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D539" s="15"/>
+    </row>
+    <row r="540" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D540" s="15"/>
+    </row>
+    <row r="541" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D541" s="15"/>
+    </row>
+    <row r="542" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D542" s="15"/>
+    </row>
+    <row r="543" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D543" s="15"/>
+    </row>
+    <row r="544" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D544" s="15"/>
+    </row>
+    <row r="545" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D545" s="15"/>
+    </row>
+    <row r="546" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D546" s="15"/>
+    </row>
+    <row r="547" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D547" s="15"/>
+    </row>
+    <row r="548" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D548" s="15"/>
+    </row>
+    <row r="549" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D549" s="15"/>
+    </row>
+    <row r="550" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D550" s="15"/>
+    </row>
+    <row r="551" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D551" s="15"/>
+    </row>
+    <row r="552" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D552" s="15"/>
+    </row>
+    <row r="553" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D553" s="15"/>
+    </row>
+    <row r="554" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D554" s="15"/>
+    </row>
+    <row r="555" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D555" s="15"/>
+    </row>
+    <row r="556" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D556" s="15"/>
+    </row>
+    <row r="557" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D557" s="15"/>
+    </row>
+    <row r="558" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D558" s="15"/>
+    </row>
+    <row r="559" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D559" s="15"/>
+    </row>
+    <row r="560" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D560" s="15"/>
+    </row>
+    <row r="561" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D561" s="15"/>
+    </row>
+    <row r="562" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D562" s="15"/>
+    </row>
+    <row r="563" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D563" s="15"/>
+    </row>
+    <row r="564" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D564" s="15"/>
+    </row>
+    <row r="565" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D565" s="15"/>
+    </row>
+    <row r="566" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D566" s="15"/>
+    </row>
+    <row r="567" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D567" s="15"/>
+    </row>
+    <row r="568" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D568" s="15"/>
+    </row>
+    <row r="569" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D569" s="15"/>
+    </row>
+    <row r="570" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D570" s="15"/>
+    </row>
+    <row r="571" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D571" s="15"/>
+    </row>
+    <row r="572" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D572" s="15"/>
+    </row>
+    <row r="573" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D573" s="15"/>
+    </row>
+    <row r="574" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D574" s="15"/>
+    </row>
+    <row r="575" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D575" s="15"/>
+    </row>
+    <row r="576" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D576" s="15"/>
+    </row>
+    <row r="577" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D577" s="15"/>
+    </row>
+    <row r="578" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D578" s="15"/>
+    </row>
+    <row r="579" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D579" s="15"/>
+    </row>
+    <row r="580" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D580" s="15"/>
+    </row>
+    <row r="581" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D581" s="15"/>
+    </row>
+    <row r="582" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D582" s="15"/>
+    </row>
+    <row r="583" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D583" s="15"/>
+    </row>
+    <row r="584" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D584" s="15"/>
+    </row>
+    <row r="585" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D585" s="15"/>
+    </row>
+    <row r="586" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D586" s="15"/>
+    </row>
+    <row r="587" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D587" s="15"/>
+    </row>
+    <row r="588" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D588" s="15"/>
+    </row>
+    <row r="589" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D589" s="15"/>
+    </row>
+    <row r="590" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D590" s="15"/>
+    </row>
+    <row r="591" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D591" s="15"/>
+    </row>
+    <row r="592" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D592" s="15"/>
+    </row>
+    <row r="593" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D593" s="15"/>
+    </row>
+    <row r="594" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D594" s="15"/>
+    </row>
+    <row r="595" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D595" s="15"/>
+    </row>
+    <row r="596" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D596" s="15"/>
+    </row>
+    <row r="597" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D597" s="15"/>
+    </row>
+    <row r="598" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D598" s="15"/>
+    </row>
+    <row r="599" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D599" s="15"/>
+    </row>
+    <row r="600" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D600" s="15"/>
+    </row>
+    <row r="601" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D601" s="15"/>
+    </row>
+    <row r="602" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D602" s="15"/>
+    </row>
+    <row r="603" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D603" s="15"/>
+    </row>
+    <row r="604" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D604" s="15"/>
+    </row>
+    <row r="605" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D605" s="15"/>
+    </row>
+    <row r="606" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D606" s="15"/>
+    </row>
+    <row r="607" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D607" s="15"/>
+    </row>
+    <row r="608" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D608" s="15"/>
+    </row>
+    <row r="609" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D609" s="15"/>
+    </row>
+    <row r="610" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D610" s="15"/>
+    </row>
+    <row r="611" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D611" s="15"/>
+    </row>
+    <row r="612" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D612" s="15"/>
+    </row>
+    <row r="613" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D613" s="15"/>
+    </row>
+    <row r="614" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D614" s="15"/>
+    </row>
+    <row r="615" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D615" s="15"/>
+    </row>
+    <row r="616" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D616" s="15"/>
+    </row>
+    <row r="617" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D617" s="15"/>
+    </row>
+    <row r="618" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D618" s="15"/>
+    </row>
+    <row r="619" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D619" s="15"/>
+    </row>
+    <row r="620" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D620" s="15"/>
+    </row>
+    <row r="621" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D621" s="15"/>
+    </row>
+    <row r="622" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D622" s="15"/>
+    </row>
+    <row r="623" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D623" s="15"/>
+    </row>
+    <row r="624" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D624" s="15"/>
+    </row>
+    <row r="625" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D625" s="15"/>
+    </row>
+    <row r="626" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D626" s="15"/>
+    </row>
+    <row r="627" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D627" s="15"/>
+    </row>
+    <row r="628" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D628" s="15"/>
+    </row>
+    <row r="629" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D629" s="15"/>
+    </row>
+    <row r="630" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D630" s="15"/>
+    </row>
+    <row r="631" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D631" s="15"/>
+    </row>
+    <row r="632" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D632" s="15"/>
+    </row>
+    <row r="633" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D633" s="15"/>
+    </row>
+    <row r="634" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D634" s="15"/>
+    </row>
+    <row r="635" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D635" s="15"/>
+    </row>
+    <row r="636" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D636" s="15"/>
+    </row>
+    <row r="637" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D637" s="15"/>
+    </row>
+    <row r="638" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D638" s="15"/>
+    </row>
+    <row r="639" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D639" s="15"/>
+    </row>
+    <row r="640" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D640" s="15"/>
+    </row>
+    <row r="641" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D641" s="15"/>
+    </row>
+    <row r="642" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D642" s="15"/>
+    </row>
+    <row r="643" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D643" s="15"/>
+    </row>
+    <row r="644" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D644" s="15"/>
+    </row>
+    <row r="645" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D645" s="15"/>
+    </row>
+    <row r="646" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D646" s="15"/>
+    </row>
+    <row r="647" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D647" s="15"/>
+    </row>
+    <row r="648" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D648" s="15"/>
+    </row>
+    <row r="649" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D649" s="15"/>
+    </row>
+    <row r="650" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D650" s="15"/>
+    </row>
+    <row r="651" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D651" s="15"/>
+    </row>
+    <row r="652" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D652" s="15"/>
+    </row>
+    <row r="653" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D653" s="15"/>
+    </row>
+    <row r="654" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D654" s="15"/>
+    </row>
+    <row r="655" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D655" s="15"/>
+    </row>
+    <row r="656" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D656" s="15"/>
+    </row>
+    <row r="657" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D657" s="15"/>
+    </row>
+    <row r="658" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D658" s="15"/>
+    </row>
+    <row r="659" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D659" s="15"/>
+    </row>
+    <row r="660" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D660" s="15"/>
+    </row>
+    <row r="661" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D661" s="15"/>
+    </row>
+    <row r="662" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D662" s="15"/>
+    </row>
+    <row r="663" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D663" s="15"/>
+    </row>
+    <row r="664" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D664" s="15"/>
+    </row>
+    <row r="665" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D665" s="15"/>
+    </row>
+    <row r="666" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D666" s="15"/>
+    </row>
+    <row r="667" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D667" s="15"/>
+    </row>
+    <row r="668" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D668" s="15"/>
+    </row>
+    <row r="669" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D669" s="15"/>
+    </row>
+    <row r="670" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D670" s="15"/>
+    </row>
+    <row r="671" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D671" s="15"/>
+    </row>
+    <row r="672" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D672" s="15"/>
+    </row>
+    <row r="673" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D673" s="15"/>
+    </row>
+    <row r="674" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D674" s="15"/>
+    </row>
+    <row r="675" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D675" s="15"/>
+    </row>
+    <row r="676" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D676" s="15"/>
+    </row>
+    <row r="677" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D677" s="15"/>
+    </row>
+    <row r="678" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D678" s="15"/>
+    </row>
+    <row r="679" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D679" s="15"/>
+    </row>
+    <row r="680" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D680" s="15"/>
+    </row>
+    <row r="681" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D681" s="15"/>
+    </row>
+    <row r="682" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D682" s="15"/>
+    </row>
+    <row r="683" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D683" s="15"/>
+    </row>
+    <row r="684" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D684" s="15"/>
+    </row>
+    <row r="685" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D685" s="15"/>
+    </row>
+    <row r="686" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D686" s="15"/>
+    </row>
+    <row r="687" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D687" s="15"/>
+    </row>
+    <row r="688" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D688" s="15"/>
+    </row>
+    <row r="689" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D689" s="15"/>
+    </row>
+    <row r="690" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D690" s="15"/>
+    </row>
+    <row r="691" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D691" s="15"/>
+    </row>
+    <row r="692" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D692" s="15"/>
+    </row>
+    <row r="693" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D693" s="15"/>
+    </row>
+    <row r="694" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D694" s="15"/>
+    </row>
+    <row r="695" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D695" s="15"/>
+    </row>
+    <row r="696" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D696" s="15"/>
+    </row>
+    <row r="697" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D697" s="15"/>
+    </row>
+    <row r="698" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D698" s="15"/>
+    </row>
+    <row r="699" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D699" s="15"/>
+    </row>
+    <row r="700" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D700" s="15"/>
+    </row>
+    <row r="701" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D701" s="15"/>
+    </row>
+    <row r="702" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D702" s="15"/>
+    </row>
+    <row r="703" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D703" s="15"/>
+    </row>
+    <row r="704" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D704" s="15"/>
+    </row>
+    <row r="705" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D705" s="15"/>
+    </row>
+    <row r="706" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D706" s="15"/>
+    </row>
+    <row r="707" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D707" s="15"/>
+    </row>
+    <row r="708" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D708" s="15"/>
+    </row>
+    <row r="709" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D709" s="15"/>
+    </row>
+    <row r="710" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D710" s="15"/>
+    </row>
+    <row r="711" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D711" s="15"/>
+    </row>
+    <row r="712" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D712" s="15"/>
+    </row>
+    <row r="713" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D713" s="15"/>
+    </row>
+    <row r="714" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D714" s="15"/>
+    </row>
+    <row r="715" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D715" s="15"/>
+    </row>
+    <row r="716" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D716" s="15"/>
+    </row>
+    <row r="717" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D717" s="15"/>
+    </row>
+    <row r="718" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D718" s="15"/>
+    </row>
+    <row r="719" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D719" s="15"/>
+    </row>
+    <row r="720" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D720" s="15"/>
+    </row>
+    <row r="721" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D721" s="15"/>
+    </row>
+    <row r="722" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D722" s="15"/>
+    </row>
+    <row r="723" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D723" s="15"/>
+    </row>
+    <row r="724" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D724" s="15"/>
+    </row>
+    <row r="725" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D725" s="15"/>
+    </row>
+    <row r="726" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D726" s="15"/>
+    </row>
+    <row r="727" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D727" s="15"/>
+    </row>
+    <row r="728" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D728" s="15"/>
+    </row>
+    <row r="729" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D729" s="15"/>
+    </row>
+    <row r="730" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D730" s="15"/>
+    </row>
+    <row r="731" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D731" s="15"/>
+    </row>
+    <row r="732" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D732" s="15"/>
+    </row>
+    <row r="733" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D733" s="15"/>
+    </row>
+    <row r="734" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D734" s="15"/>
+    </row>
+    <row r="735" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D735" s="15"/>
+    </row>
+    <row r="736" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D736" s="15"/>
+    </row>
+    <row r="737" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D737" s="15"/>
+    </row>
+    <row r="738" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D738" s="15"/>
+    </row>
+    <row r="739" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D739" s="15"/>
+    </row>
+    <row r="740" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D740" s="15"/>
+    </row>
+    <row r="741" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D741" s="15"/>
+    </row>
+    <row r="742" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D742" s="15"/>
+    </row>
+    <row r="743" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D743" s="15"/>
+    </row>
+    <row r="744" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D744" s="15"/>
+    </row>
+    <row r="745" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D745" s="15"/>
+    </row>
+    <row r="746" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D746" s="15"/>
+    </row>
+    <row r="747" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D747" s="15"/>
+    </row>
+    <row r="748" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D748" s="15"/>
+    </row>
+    <row r="749" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D749" s="15"/>
+    </row>
+    <row r="750" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D750" s="15"/>
+    </row>
+    <row r="751" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D751" s="15"/>
+    </row>
+    <row r="752" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D752" s="15"/>
+    </row>
+    <row r="753" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D753" s="15"/>
+    </row>
+    <row r="754" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D754" s="15"/>
+    </row>
+    <row r="755" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D755" s="15"/>
+    </row>
+    <row r="756" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D756" s="15"/>
+    </row>
+    <row r="757" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D757" s="15"/>
+    </row>
+    <row r="758" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D758" s="15"/>
+    </row>
+    <row r="759" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D759" s="15"/>
+    </row>
+    <row r="760" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D760" s="15"/>
+    </row>
+    <row r="761" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D761" s="15"/>
+    </row>
+    <row r="762" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D762" s="15"/>
+    </row>
+    <row r="763" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D763" s="15"/>
+    </row>
+    <row r="764" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D764" s="15"/>
+    </row>
+    <row r="765" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D765" s="15"/>
+    </row>
+    <row r="766" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D766" s="15"/>
+    </row>
+    <row r="767" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D767" s="15"/>
+    </row>
+    <row r="768" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D768" s="15"/>
+    </row>
+    <row r="769" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D769" s="15"/>
+    </row>
+    <row r="770" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D770" s="15"/>
+    </row>
+    <row r="771" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D771" s="15"/>
+    </row>
+    <row r="772" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D772" s="15"/>
+    </row>
+    <row r="773" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D773" s="15"/>
+    </row>
+    <row r="774" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D774" s="15"/>
+    </row>
+    <row r="775" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D775" s="15"/>
+    </row>
+    <row r="776" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D776" s="15"/>
+    </row>
+    <row r="777" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D777" s="15"/>
+    </row>
+    <row r="778" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D778" s="15"/>
+    </row>
+    <row r="779" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D779" s="15"/>
+    </row>
+    <row r="780" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D780" s="15"/>
+    </row>
+    <row r="781" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D781" s="15"/>
+    </row>
+    <row r="782" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D782" s="15"/>
+    </row>
+    <row r="783" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D783" s="15"/>
+    </row>
+    <row r="784" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D784" s="15"/>
+    </row>
+    <row r="785" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D785" s="15"/>
+    </row>
+    <row r="786" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D786" s="15"/>
+    </row>
+    <row r="787" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D787" s="15"/>
+    </row>
+    <row r="788" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D788" s="15"/>
+    </row>
+    <row r="789" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D789" s="15"/>
+    </row>
+    <row r="790" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D790" s="15"/>
+    </row>
+    <row r="791" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D791" s="15"/>
+    </row>
+    <row r="792" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D792" s="15"/>
+    </row>
+    <row r="793" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D793" s="15"/>
+    </row>
+    <row r="794" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D794" s="15"/>
+    </row>
+    <row r="795" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D795" s="15"/>
+    </row>
+    <row r="796" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D796" s="15"/>
+    </row>
+    <row r="797" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D797" s="15"/>
+    </row>
+    <row r="798" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D798" s="15"/>
+    </row>
+    <row r="799" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D799" s="15"/>
+    </row>
+    <row r="800" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D800" s="15"/>
+    </row>
+    <row r="801" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D801" s="15"/>
+    </row>
+    <row r="802" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D802" s="15"/>
+    </row>
+    <row r="803" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D803" s="15"/>
+    </row>
+    <row r="804" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D804" s="15"/>
+    </row>
+    <row r="805" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D805" s="15"/>
+    </row>
+    <row r="806" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D806" s="15"/>
+    </row>
+    <row r="807" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D807" s="15"/>
+    </row>
+    <row r="808" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D808" s="15"/>
+    </row>
+    <row r="809" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D809" s="15"/>
+    </row>
+    <row r="810" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D810" s="15"/>
+    </row>
+    <row r="811" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D811" s="15"/>
+    </row>
+    <row r="812" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D812" s="15"/>
+    </row>
+    <row r="813" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D813" s="15"/>
+    </row>
+    <row r="814" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D814" s="15"/>
+    </row>
+    <row r="815" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D815" s="15"/>
+    </row>
+    <row r="816" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D816" s="15"/>
+    </row>
+    <row r="817" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D817" s="15"/>
+    </row>
+    <row r="818" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D818" s="15"/>
+    </row>
+    <row r="819" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D819" s="15"/>
+    </row>
+    <row r="820" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D820" s="15"/>
+    </row>
+    <row r="821" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D821" s="15"/>
+    </row>
+    <row r="822" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D822" s="15"/>
+    </row>
+    <row r="823" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D823" s="15"/>
+    </row>
+    <row r="824" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D824" s="15"/>
+    </row>
+    <row r="825" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D825" s="15"/>
+    </row>
+    <row r="826" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D826" s="15"/>
+    </row>
+    <row r="827" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D827" s="15"/>
+    </row>
+    <row r="828" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D828" s="15"/>
+    </row>
+    <row r="829" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D829" s="15"/>
+    </row>
+    <row r="830" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D830" s="15"/>
+    </row>
+    <row r="831" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D831" s="15"/>
+    </row>
+    <row r="832" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D832" s="15"/>
+    </row>
+    <row r="833" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D833" s="15"/>
+    </row>
+    <row r="834" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D834" s="15"/>
+    </row>
+    <row r="835" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D835" s="15"/>
+    </row>
+    <row r="836" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D836" s="15"/>
+    </row>
+    <row r="837" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D837" s="15"/>
+    </row>
+    <row r="838" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D838" s="15"/>
+    </row>
+    <row r="839" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D839" s="15"/>
+    </row>
+    <row r="840" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D840" s="15"/>
+    </row>
+    <row r="841" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D841" s="15"/>
+    </row>
+    <row r="842" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D842" s="15"/>
+    </row>
+    <row r="843" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D843" s="15"/>
+    </row>
+    <row r="844" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D844" s="15"/>
+    </row>
+    <row r="845" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D845" s="15"/>
+    </row>
+    <row r="846" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D846" s="15"/>
+    </row>
+    <row r="847" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D847" s="15"/>
+    </row>
+    <row r="848" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D848" s="15"/>
+    </row>
+    <row r="849" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D849" s="15"/>
+    </row>
+    <row r="850" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D850" s="15"/>
+    </row>
+    <row r="851" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D851" s="15"/>
+    </row>
+    <row r="852" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D852" s="15"/>
+    </row>
+    <row r="853" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D853" s="15"/>
+    </row>
+    <row r="854" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D854" s="15"/>
+    </row>
+    <row r="855" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D855" s="15"/>
+    </row>
+    <row r="856" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D856" s="15"/>
+    </row>
+    <row r="857" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D857" s="15"/>
+    </row>
+    <row r="858" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D858" s="15"/>
+    </row>
+    <row r="859" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D859" s="15"/>
+    </row>
+    <row r="860" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D860" s="15"/>
+    </row>
+    <row r="861" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D861" s="15"/>
+    </row>
+    <row r="862" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D862" s="15"/>
+    </row>
+    <row r="863" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D863" s="15"/>
+    </row>
+    <row r="864" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D864" s="15"/>
+    </row>
+    <row r="865" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D865" s="15"/>
+    </row>
+    <row r="866" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D866" s="15"/>
+    </row>
+    <row r="867" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D867" s="15"/>
+    </row>
+    <row r="868" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D868" s="15"/>
+    </row>
+    <row r="869" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D869" s="15"/>
+    </row>
+    <row r="870" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D870" s="15"/>
+    </row>
+    <row r="871" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D871" s="15"/>
+    </row>
+    <row r="872" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D872" s="15"/>
+    </row>
+    <row r="873" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D873" s="15"/>
+    </row>
+    <row r="874" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D874" s="15"/>
+    </row>
+    <row r="875" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D875" s="15"/>
+    </row>
+    <row r="876" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D876" s="15"/>
+    </row>
+    <row r="877" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D877" s="15"/>
+    </row>
+    <row r="878" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D878" s="15"/>
+    </row>
+    <row r="879" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D879" s="15"/>
+    </row>
+    <row r="880" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D880" s="15"/>
+    </row>
+    <row r="881" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D881" s="15"/>
+    </row>
+    <row r="882" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D882" s="15"/>
+    </row>
+    <row r="883" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D883" s="15"/>
+    </row>
+    <row r="884" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D884" s="15"/>
+    </row>
+    <row r="885" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D885" s="15"/>
+    </row>
+    <row r="886" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D886" s="15"/>
+    </row>
+    <row r="887" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D887" s="15"/>
+    </row>
+    <row r="888" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D888" s="15"/>
+    </row>
+    <row r="889" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D889" s="15"/>
+    </row>
+    <row r="890" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D890" s="15"/>
+    </row>
+    <row r="891" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D891" s="15"/>
+    </row>
+    <row r="892" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D892" s="15"/>
+    </row>
+    <row r="893" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D893" s="15"/>
+    </row>
+    <row r="894" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D894" s="15"/>
+    </row>
+    <row r="895" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D895" s="15"/>
+    </row>
+    <row r="896" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D896" s="15"/>
+    </row>
+    <row r="897" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D897" s="15"/>
+    </row>
+    <row r="898" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D898" s="15"/>
+    </row>
+    <row r="899" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D899" s="15"/>
+    </row>
+    <row r="900" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D900" s="15"/>
+    </row>
+    <row r="901" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D901" s="15"/>
+    </row>
+    <row r="902" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D902" s="15"/>
+    </row>
+    <row r="903" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D903" s="15"/>
+    </row>
+    <row r="904" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D904" s="15"/>
+    </row>
+    <row r="905" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D905" s="15"/>
+    </row>
+    <row r="906" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D906" s="15"/>
+    </row>
+    <row r="907" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D907" s="15"/>
+    </row>
+    <row r="908" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D908" s="15"/>
+    </row>
+    <row r="909" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D909" s="15"/>
+    </row>
+    <row r="910" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D910" s="15"/>
+    </row>
+    <row r="911" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D911" s="15"/>
+    </row>
+    <row r="912" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D912" s="15"/>
+    </row>
+    <row r="913" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D913" s="15"/>
+    </row>
+    <row r="914" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D914" s="15"/>
+    </row>
+    <row r="915" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D915" s="15"/>
+    </row>
+    <row r="916" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D916" s="15"/>
+    </row>
+    <row r="917" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D917" s="15"/>
+    </row>
+    <row r="918" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D918" s="15"/>
+    </row>
+    <row r="919" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D919" s="15"/>
+    </row>
+    <row r="920" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D920" s="15"/>
+    </row>
+    <row r="921" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D921" s="15"/>
+    </row>
+    <row r="922" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D922" s="15"/>
+    </row>
+    <row r="923" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D923" s="15"/>
+    </row>
+    <row r="924" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D924" s="15"/>
+    </row>
+    <row r="925" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D925" s="15"/>
+    </row>
+    <row r="926" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D926" s="15"/>
+    </row>
+    <row r="927" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D927" s="15"/>
+    </row>
+    <row r="928" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D928" s="15"/>
+    </row>
+    <row r="929" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D929" s="15"/>
+    </row>
+    <row r="930" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D930" s="15"/>
+    </row>
+    <row r="931" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D931" s="15"/>
+    </row>
+    <row r="932" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D932" s="15"/>
+    </row>
+    <row r="933" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D933" s="15"/>
+    </row>
+    <row r="934" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D934" s="15"/>
+    </row>
+    <row r="935" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D935" s="15"/>
+    </row>
+    <row r="936" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D936" s="15"/>
+    </row>
+    <row r="937" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D937" s="15"/>
+    </row>
+    <row r="938" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D938" s="15"/>
+    </row>
+    <row r="939" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D939" s="15"/>
+    </row>
+    <row r="940" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D940" s="15"/>
+    </row>
+    <row r="941" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D941" s="15"/>
+    </row>
+    <row r="942" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D942" s="15"/>
+    </row>
+    <row r="943" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D943" s="15"/>
+    </row>
+    <row r="944" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D944" s="15"/>
+    </row>
+    <row r="945" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D945" s="15"/>
+    </row>
+    <row r="946" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D946" s="15"/>
+    </row>
+    <row r="947" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D947" s="15"/>
+    </row>
+    <row r="948" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D948" s="15"/>
+    </row>
+    <row r="949" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D949" s="15"/>
+    </row>
+    <row r="950" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D950" s="15"/>
+    </row>
+    <row r="951" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D951" s="15"/>
+    </row>
+    <row r="952" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D952" s="15"/>
+    </row>
+    <row r="953" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D953" s="15"/>
+    </row>
+    <row r="954" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D954" s="15"/>
+    </row>
+    <row r="955" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D955" s="15"/>
+    </row>
+    <row r="956" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D956" s="15"/>
+    </row>
+    <row r="957" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D957" s="15"/>
+    </row>
+    <row r="958" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D958" s="15"/>
+    </row>
+    <row r="959" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D959" s="15"/>
+    </row>
+    <row r="960" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D960" s="15"/>
+    </row>
+    <row r="961" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D961" s="15"/>
+    </row>
+    <row r="962" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D962" s="15"/>
+    </row>
+    <row r="963" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D963" s="15"/>
+    </row>
+    <row r="964" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D964" s="15"/>
+    </row>
+    <row r="965" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D965" s="15"/>
+    </row>
+    <row r="966" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D966" s="15"/>
+    </row>
+    <row r="967" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D967" s="15"/>
+    </row>
+    <row r="968" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D968" s="15"/>
+    </row>
+    <row r="969" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D969" s="15"/>
+    </row>
+    <row r="970" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D970" s="15"/>
+    </row>
+    <row r="971" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D971" s="15"/>
+    </row>
+    <row r="972" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D972" s="15"/>
+    </row>
+    <row r="973" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D973" s="15"/>
+    </row>
+    <row r="974" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D974" s="15"/>
+    </row>
+    <row r="975" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D975" s="15"/>
+    </row>
+    <row r="976" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D976" s="15"/>
+    </row>
+    <row r="977" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D977" s="15"/>
+    </row>
+    <row r="978" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D978" s="15"/>
+    </row>
+    <row r="979" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D979" s="15"/>
+    </row>
+    <row r="980" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D980" s="15"/>
+    </row>
+    <row r="981" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D981" s="15"/>
+    </row>
+    <row r="982" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D982" s="15"/>
+    </row>
+    <row r="983" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D983" s="15"/>
+    </row>
+    <row r="984" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D984" s="15"/>
+    </row>
+    <row r="985" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D985" s="15"/>
+    </row>
+    <row r="986" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D986" s="15"/>
+    </row>
+    <row r="987" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D987" s="15"/>
+    </row>
+    <row r="988" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D988" s="15"/>
+    </row>
+    <row r="989" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D989" s="15"/>
+    </row>
+    <row r="990" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D990" s="15"/>
+    </row>
+    <row r="991" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D991" s="15"/>
+    </row>
+    <row r="992" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D992" s="15"/>
+    </row>
+    <row r="993" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D993" s="15"/>
+    </row>
+    <row r="994" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D994" s="15"/>
+    </row>
+    <row r="995" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D995" s="15"/>
+    </row>
+    <row r="996" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D996" s="15"/>
+    </row>
+    <row r="997" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D997" s="15"/>
+    </row>
+    <row r="998" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D998" s="15"/>
+    </row>
+    <row r="999" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D999" s="15"/>
+    </row>
+    <row r="1000" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1000" s="15"/>
+    </row>
+    <row r="1001" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1001" s="15"/>
+    </row>
+    <row r="1002" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1002" s="15"/>
+    </row>
+    <row r="1003" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1003" s="15"/>
+    </row>
+    <row r="1004" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1004" s="15"/>
+    </row>
+    <row r="1005" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1005" s="15"/>
+    </row>
+    <row r="1006" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1006" s="15"/>
+    </row>
+    <row r="1007" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1007" s="15"/>
+    </row>
+    <row r="1008" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1008" s="15"/>
+    </row>
+    <row r="1009" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1009" s="15"/>
+    </row>
+    <row r="1010" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1010" s="15"/>
+    </row>
+    <row r="1011" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1011" s="15"/>
+    </row>
+    <row r="1012" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1012" s="15"/>
+    </row>
+    <row r="1013" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1013" s="15"/>
+    </row>
+    <row r="1014" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1014" s="15"/>
+    </row>
+    <row r="1015" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1015" s="15"/>
+    </row>
+    <row r="1016" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1016" s="15"/>
+    </row>
+    <row r="1017" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1017" s="15"/>
+    </row>
+    <row r="1018" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1018" s="15"/>
+    </row>
+    <row r="1019" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1019" s="15"/>
+    </row>
+    <row r="1020" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1020" s="15"/>
+    </row>
+    <row r="1021" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1021" s="15"/>
+    </row>
+    <row r="1022" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1022" s="15"/>
+    </row>
+    <row r="1023" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1023" s="15"/>
+    </row>
+    <row r="1024" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1024" s="15"/>
+    </row>
+    <row r="1025" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1025" s="15"/>
+    </row>
+    <row r="1026" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1026" s="15"/>
+    </row>
+    <row r="1027" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1027" s="15"/>
+    </row>
+    <row r="1028" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1028" s="15"/>
+    </row>
+    <row r="1029" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1029" s="15"/>
+    </row>
+    <row r="1030" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1030" s="15"/>
+    </row>
+    <row r="1031" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1031" s="15"/>
+    </row>
+    <row r="1032" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1032" s="15"/>
+    </row>
+    <row r="1033" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1033" s="15"/>
+    </row>
+    <row r="1034" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1034" s="15"/>
+    </row>
+    <row r="1035" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1035" s="15"/>
+    </row>
+    <row r="1036" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1036" s="15"/>
+    </row>
+    <row r="1037" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1037" s="15"/>
+    </row>
+    <row r="1038" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1038" s="15"/>
+    </row>
+    <row r="1039" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1039" s="15"/>
+    </row>
+    <row r="1040" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1040" s="15"/>
+    </row>
+    <row r="1041" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1041" s="15"/>
+    </row>
+    <row r="1042" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1042" s="15"/>
+    </row>
+    <row r="1043" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1043" s="15"/>
+    </row>
+    <row r="1044" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1044" s="15"/>
+    </row>
+    <row r="1045" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1045" s="15"/>
+    </row>
+    <row r="1046" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1046" s="15"/>
+    </row>
+    <row r="1047" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1047" s="15"/>
+    </row>
+    <row r="1048" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1048" s="15"/>
+    </row>
+    <row r="1049" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1049" s="15"/>
+    </row>
+    <row r="1050" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1050" s="15"/>
+    </row>
+    <row r="1051" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1051" s="15"/>
+    </row>
+    <row r="1052" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1052" s="15"/>
+    </row>
+    <row r="1053" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1053" s="15"/>
+    </row>
+    <row r="1054" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1054" s="15"/>
+    </row>
+    <row r="1055" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1055" s="15"/>
+    </row>
+    <row r="1056" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1056" s="15"/>
+    </row>
+    <row r="1057" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1057" s="15"/>
+    </row>
+    <row r="1058" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1058" s="15"/>
+    </row>
+    <row r="1059" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1059" s="15"/>
+    </row>
+    <row r="1060" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1060" s="15"/>
+    </row>
+    <row r="1061" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1061" s="15"/>
+    </row>
+    <row r="1062" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1062" s="15"/>
+    </row>
+    <row r="1063" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1063" s="15"/>
+    </row>
+    <row r="1064" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1064" s="15"/>
+    </row>
+    <row r="1065" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1065" s="15"/>
+    </row>
+    <row r="1066" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1066" s="15"/>
+    </row>
+    <row r="1067" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1067" s="15"/>
+    </row>
+    <row r="1068" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1068" s="15"/>
+    </row>
+    <row r="1069" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1069" s="15"/>
+    </row>
+    <row r="1070" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1070" s="15"/>
+    </row>
+    <row r="1071" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1071" s="15"/>
+    </row>
+    <row r="1072" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1072" s="15"/>
+    </row>
+    <row r="1073" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1073" s="15"/>
+    </row>
+    <row r="1074" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1074" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6966,51 +9608,51 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
+            <xm:f>lists!$A$1:$A$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>AF5:AF11 AF12:AF1183</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>toxins!$A$2:$A$246</xm:f>
+          </x14:formula1>
+          <xm:sqref>AG5:AG11 AG12:AG1235</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>syndromes!$A$1:$A$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>AH5:AH11 AH12:AH1267</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>lists!$C$1:$C$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>BR5:BR11 BR12:BR1107</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>lists!$D$1:$D$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>BW5:BW11 BW12:BW1268</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
             <xm:f>regions!$A$2:$A$12</xm:f>
           </x14:formula1>
-          <xm:sqref>B5:B1297</xm:sqref>
+          <xm:sqref>B5:B1296</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>lists!$A$1:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>Z5:Z1217</xm:sqref>
+          <xm:sqref>Z5:Z1216</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>lists!$B$1:$B$2</xm:f>
           </x14:formula1>
-          <xm:sqref>AB5:AB1159</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>lists!$A$1:$A$2</xm:f>
-          </x14:formula1>
-          <xm:sqref>AF5:AF1184</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>toxins!$A$2:$A$246</xm:f>
-          </x14:formula1>
-          <xm:sqref>AG5:AG1236</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>syndromes!$A$1:$A$9</xm:f>
-          </x14:formula1>
-          <xm:sqref>AH5:AH1268</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>lists!$C$1:$C$2</xm:f>
-          </x14:formula1>
-          <xm:sqref>BR5:BR1108</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>lists!$D$1:$D$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>BW5:BW1269</xm:sqref>
+          <xm:sqref>AB5:AB1158</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7032,12 +9674,12 @@
     <col min="2" max="2" width="63.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:2" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>1456</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>1457</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -7171,80 +9813,80 @@
     <col min="25" max="25" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:25" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="N1" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="23" t="s">
+      <c r="P1" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="23" t="s">
+      <c r="Q1" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="R1" s="23" t="s">
+      <c r="R1" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="S1" s="23" t="s">
+      <c r="S1" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="T1" s="23" t="s">
+      <c r="T1" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="U1" s="23" t="s">
+      <c r="U1" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="V1" s="23" t="s">
+      <c r="V1" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="W1" s="23" t="s">
+      <c r="W1" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="X1" s="23" t="s">
+      <c r="X1" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="Y1" s="23" t="s">
+      <c r="Y1" s="22" t="s">
         <v>37</v>
       </c>
     </row>
@@ -31858,8 +34500,8 @@
     <col min="1" max="1" width="54.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:1" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
         <v>1080</v>
       </c>
     </row>
@@ -33172,10 +35814,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1461</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1462</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -33196,10 +35838,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -33220,7 +35862,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>1383</v>
@@ -33303,43 +35945,43 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="B1" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="C1" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="D1" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="B2" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="C2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="D2" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="D3" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
   </sheetData>

--- a/template.xlsx
+++ b/template.xlsx
@@ -4947,7 +4947,7 @@
   <dimension ref="A1:QK5126"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
